--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>372200</v>
+        <v>354600</v>
       </c>
       <c r="E8" s="3">
-        <v>281300</v>
+        <v>268000</v>
       </c>
       <c r="F8" s="3">
-        <v>206000</v>
+        <v>196300</v>
       </c>
       <c r="G8" s="3">
-        <v>149200</v>
+        <v>142200</v>
       </c>
       <c r="H8" s="3">
-        <v>108700</v>
+        <v>103600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>244500</v>
+        <v>232900</v>
       </c>
       <c r="E9" s="3">
-        <v>188000</v>
+        <v>179100</v>
       </c>
       <c r="F9" s="3">
-        <v>140600</v>
+        <v>133900</v>
       </c>
       <c r="G9" s="3">
-        <v>97000</v>
+        <v>92400</v>
       </c>
       <c r="H9" s="3">
-        <v>69000</v>
+        <v>65800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>127800</v>
+        <v>121700</v>
       </c>
       <c r="E10" s="3">
-        <v>93300</v>
+        <v>88900</v>
       </c>
       <c r="F10" s="3">
-        <v>65400</v>
+        <v>62300</v>
       </c>
       <c r="G10" s="3">
-        <v>52200</v>
+        <v>49700</v>
       </c>
       <c r="H10" s="3">
-        <v>39700</v>
+        <v>37800</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -901,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>329600</v>
+        <v>314000</v>
       </c>
       <c r="E17" s="3">
-        <v>248500</v>
+        <v>236700</v>
       </c>
       <c r="F17" s="3">
-        <v>176200</v>
+        <v>167900</v>
       </c>
       <c r="G17" s="3">
-        <v>123500</v>
+        <v>117600</v>
       </c>
       <c r="H17" s="3">
-        <v>86800</v>
+        <v>82700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>42600</v>
+        <v>40600</v>
       </c>
       <c r="E18" s="3">
-        <v>32900</v>
+        <v>31300</v>
       </c>
       <c r="F18" s="3">
-        <v>29800</v>
+        <v>28400</v>
       </c>
       <c r="G18" s="3">
-        <v>25800</v>
+        <v>24500</v>
       </c>
       <c r="H18" s="3">
-        <v>22000</v>
+        <v>20900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
       </c>
       <c r="F20" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G20" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>49600</v>
+        <v>47200</v>
       </c>
       <c r="E21" s="3">
-        <v>40800</v>
+        <v>38700</v>
       </c>
       <c r="F21" s="3">
-        <v>34100</v>
+        <v>32400</v>
       </c>
       <c r="G21" s="3">
-        <v>30800</v>
+        <v>29300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>38900</v>
+        <v>37100</v>
       </c>
       <c r="E23" s="3">
-        <v>31900</v>
+        <v>30400</v>
       </c>
       <c r="F23" s="3">
-        <v>28100</v>
+        <v>26700</v>
       </c>
       <c r="G23" s="3">
-        <v>26900</v>
+        <v>25700</v>
       </c>
       <c r="H23" s="3">
-        <v>19700</v>
+        <v>18700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="E24" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="F24" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="G24" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="H24" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="E26" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="F26" s="3">
-        <v>21800</v>
+        <v>20700</v>
       </c>
       <c r="G26" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="H26" s="3">
-        <v>17500</v>
+        <v>16700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="E27" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="F27" s="3">
-        <v>21800</v>
+        <v>20700</v>
       </c>
       <c r="G27" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="H27" s="3">
-        <v>17500</v>
+        <v>16700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
       </c>
       <c r="F32" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H32" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="E33" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="F33" s="3">
-        <v>21800</v>
+        <v>20700</v>
       </c>
       <c r="G33" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="H33" s="3">
-        <v>17500</v>
+        <v>16700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="E35" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="F35" s="3">
-        <v>21800</v>
+        <v>20700</v>
       </c>
       <c r="G35" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="H35" s="3">
-        <v>17500</v>
+        <v>16700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>90700</v>
+        <v>86600</v>
       </c>
       <c r="E41" s="3">
-        <v>19500</v>
+        <v>18600</v>
       </c>
       <c r="F41" s="3">
-        <v>30500</v>
+        <v>29100</v>
       </c>
       <c r="G41" s="3">
-        <v>16700</v>
+        <v>16000</v>
       </c>
       <c r="H41" s="3">
-        <v>17300</v>
+        <v>16500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>78800</v>
+        <v>75300</v>
       </c>
       <c r="E43" s="3">
-        <v>63100</v>
+        <v>60200</v>
       </c>
       <c r="F43" s="3">
-        <v>51800</v>
+        <v>49500</v>
       </c>
       <c r="G43" s="3">
-        <v>37600</v>
+        <v>35900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="E45" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F45" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G45" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>177000</v>
+        <v>169000</v>
       </c>
       <c r="E46" s="3">
-        <v>88000</v>
+        <v>84100</v>
       </c>
       <c r="F46" s="3">
-        <v>85100</v>
+        <v>81200</v>
       </c>
       <c r="G46" s="3">
-        <v>57500</v>
+        <v>54900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="E48" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="F48" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="G48" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>84900</v>
+        <v>81100</v>
       </c>
       <c r="E49" s="3">
-        <v>92900</v>
+        <v>88700</v>
       </c>
       <c r="F49" s="3">
-        <v>41700</v>
+        <v>39800</v>
       </c>
       <c r="G49" s="3">
-        <v>29200</v>
+        <v>27800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,10 +2016,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12300</v>
+        <v>11800</v>
       </c>
       <c r="E52" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F52" s="3">
         <v>1100</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>287900</v>
+        <v>274900</v>
       </c>
       <c r="E54" s="3">
-        <v>195200</v>
+        <v>186400</v>
       </c>
       <c r="F54" s="3">
-        <v>137500</v>
+        <v>131300</v>
       </c>
       <c r="G54" s="3">
-        <v>94200</v>
+        <v>90000</v>
       </c>
       <c r="H54" s="3">
-        <v>73700</v>
+        <v>70400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="E57" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="F57" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="G57" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2181,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>25500</v>
+        <v>24400</v>
       </c>
       <c r="F58" s="3">
-        <v>38000</v>
+        <v>36300</v>
       </c>
       <c r="G58" s="3">
-        <v>19900</v>
+        <v>19000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>64600</v>
+        <v>61700</v>
       </c>
       <c r="E59" s="3">
-        <v>60600</v>
+        <v>57900</v>
       </c>
       <c r="F59" s="3">
-        <v>28000</v>
+        <v>26700</v>
       </c>
       <c r="G59" s="3">
-        <v>31500</v>
+        <v>30100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>70100</v>
+        <v>66900</v>
       </c>
       <c r="E60" s="3">
-        <v>92000</v>
+        <v>87800</v>
       </c>
       <c r="F60" s="3">
-        <v>70800</v>
+        <v>67600</v>
       </c>
       <c r="G60" s="3">
-        <v>53400</v>
+        <v>51000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E62" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="F62" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="G62" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>72800</v>
+        <v>69600</v>
       </c>
       <c r="E66" s="3">
-        <v>105400</v>
+        <v>100600</v>
       </c>
       <c r="F66" s="3">
-        <v>74500</v>
+        <v>71200</v>
       </c>
       <c r="G66" s="3">
-        <v>55700</v>
+        <v>53200</v>
       </c>
       <c r="H66" s="3">
-        <v>40100</v>
+        <v>38300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>193700</v>
+        <v>184900</v>
       </c>
       <c r="E72" s="3">
-        <v>88000</v>
+        <v>84100</v>
       </c>
       <c r="F72" s="3">
-        <v>61200</v>
+        <v>58400</v>
       </c>
       <c r="G72" s="3">
-        <v>35100</v>
+        <v>33500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>215000</v>
+        <v>205300</v>
       </c>
       <c r="E76" s="3">
-        <v>89800</v>
+        <v>85800</v>
       </c>
       <c r="F76" s="3">
-        <v>63000</v>
+        <v>60100</v>
       </c>
       <c r="G76" s="3">
-        <v>38500</v>
+        <v>36800</v>
       </c>
       <c r="H76" s="3">
-        <v>33600</v>
+        <v>32100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="E81" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="F81" s="3">
-        <v>21800</v>
+        <v>20700</v>
       </c>
       <c r="G81" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="H81" s="3">
-        <v>17500</v>
+        <v>16700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="E83" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="F83" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="G83" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45700</v>
+        <v>43500</v>
       </c>
       <c r="E89" s="3">
-        <v>43900</v>
+        <v>41900</v>
       </c>
       <c r="F89" s="3">
-        <v>19100</v>
+        <v>18200</v>
       </c>
       <c r="G89" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9500</v>
+        <v>-9100</v>
       </c>
       <c r="E91" s="3">
-        <v>-7100</v>
+        <v>-6800</v>
       </c>
       <c r="F91" s="3">
-        <v>-8400</v>
+        <v>-8000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="E94" s="3">
-        <v>-41100</v>
+        <v>-39200</v>
       </c>
       <c r="F94" s="3">
-        <v>-25200</v>
+        <v>-24000</v>
       </c>
       <c r="G94" s="3">
-        <v>-9400</v>
+        <v>-8900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>34100</v>
+        <v>32500</v>
       </c>
       <c r="E100" s="3">
-        <v>-13900</v>
+        <v>-13200</v>
       </c>
       <c r="F100" s="3">
-        <v>19200</v>
+        <v>18300</v>
       </c>
       <c r="G100" s="3">
-        <v>-6000</v>
+        <v>-5700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3497,13 +3497,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>71300</v>
+        <v>67900</v>
       </c>
       <c r="E102" s="3">
-        <v>-11000</v>
+        <v>-10500</v>
       </c>
       <c r="F102" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="G102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>354600</v>
+        <v>380300</v>
       </c>
       <c r="E8" s="3">
-        <v>268000</v>
+        <v>287400</v>
       </c>
       <c r="F8" s="3">
-        <v>196300</v>
+        <v>210500</v>
       </c>
       <c r="G8" s="3">
-        <v>142200</v>
+        <v>152500</v>
       </c>
       <c r="H8" s="3">
-        <v>103600</v>
+        <v>111100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>232900</v>
+        <v>249800</v>
       </c>
       <c r="E9" s="3">
-        <v>179100</v>
+        <v>192100</v>
       </c>
       <c r="F9" s="3">
-        <v>133900</v>
+        <v>143600</v>
       </c>
       <c r="G9" s="3">
-        <v>92400</v>
+        <v>99100</v>
       </c>
       <c r="H9" s="3">
-        <v>65800</v>
+        <v>70500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>121700</v>
+        <v>130500</v>
       </c>
       <c r="E10" s="3">
-        <v>88900</v>
+        <v>95300</v>
       </c>
       <c r="F10" s="3">
-        <v>62300</v>
+        <v>66800</v>
       </c>
       <c r="G10" s="3">
-        <v>49700</v>
+        <v>53300</v>
       </c>
       <c r="H10" s="3">
-        <v>37800</v>
+        <v>40600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -901,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F14" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>314000</v>
+        <v>336700</v>
       </c>
       <c r="E17" s="3">
-        <v>236700</v>
+        <v>253800</v>
       </c>
       <c r="F17" s="3">
-        <v>167900</v>
+        <v>180000</v>
       </c>
       <c r="G17" s="3">
-        <v>117600</v>
+        <v>126100</v>
       </c>
       <c r="H17" s="3">
-        <v>82700</v>
+        <v>88700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>40600</v>
+        <v>43500</v>
       </c>
       <c r="E18" s="3">
-        <v>31300</v>
+        <v>33600</v>
       </c>
       <c r="F18" s="3">
-        <v>28400</v>
+        <v>30500</v>
       </c>
       <c r="G18" s="3">
-        <v>24500</v>
+        <v>26300</v>
       </c>
       <c r="H18" s="3">
-        <v>20900</v>
+        <v>22400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
       </c>
       <c r="F20" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G20" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>47200</v>
+        <v>50600</v>
       </c>
       <c r="E21" s="3">
-        <v>38700</v>
+        <v>41600</v>
       </c>
       <c r="F21" s="3">
-        <v>32400</v>
+        <v>34800</v>
       </c>
       <c r="G21" s="3">
-        <v>29300</v>
+        <v>31500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>37100</v>
+        <v>39800</v>
       </c>
       <c r="E23" s="3">
-        <v>30400</v>
+        <v>32600</v>
       </c>
       <c r="F23" s="3">
-        <v>26700</v>
+        <v>28700</v>
       </c>
       <c r="G23" s="3">
-        <v>25700</v>
+        <v>27500</v>
       </c>
       <c r="H23" s="3">
-        <v>18700</v>
+        <v>20100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E24" s="3">
         <v>7500</v>
       </c>
-      <c r="E24" s="3">
-        <v>7000</v>
-      </c>
       <c r="F24" s="3">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="G24" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="H24" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>29600</v>
+        <v>31700</v>
       </c>
       <c r="E26" s="3">
-        <v>23400</v>
+        <v>25100</v>
       </c>
       <c r="F26" s="3">
-        <v>20700</v>
+        <v>22200</v>
       </c>
       <c r="G26" s="3">
-        <v>20600</v>
+        <v>22100</v>
       </c>
       <c r="H26" s="3">
-        <v>16700</v>
+        <v>17900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>29600</v>
+        <v>31700</v>
       </c>
       <c r="E27" s="3">
-        <v>23400</v>
+        <v>25100</v>
       </c>
       <c r="F27" s="3">
-        <v>20700</v>
+        <v>22200</v>
       </c>
       <c r="G27" s="3">
-        <v>20600</v>
+        <v>22100</v>
       </c>
       <c r="H27" s="3">
-        <v>16700</v>
+        <v>17900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
       </c>
       <c r="F32" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H32" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>29600</v>
+        <v>31700</v>
       </c>
       <c r="E33" s="3">
-        <v>23400</v>
+        <v>25100</v>
       </c>
       <c r="F33" s="3">
-        <v>20700</v>
+        <v>22200</v>
       </c>
       <c r="G33" s="3">
-        <v>20600</v>
+        <v>22100</v>
       </c>
       <c r="H33" s="3">
-        <v>16700</v>
+        <v>17900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>29600</v>
+        <v>31700</v>
       </c>
       <c r="E35" s="3">
-        <v>23400</v>
+        <v>25100</v>
       </c>
       <c r="F35" s="3">
-        <v>20700</v>
+        <v>22200</v>
       </c>
       <c r="G35" s="3">
-        <v>20600</v>
+        <v>22100</v>
       </c>
       <c r="H35" s="3">
-        <v>16700</v>
+        <v>17900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>86600</v>
+        <v>92700</v>
       </c>
       <c r="E41" s="3">
-        <v>18600</v>
+        <v>19900</v>
       </c>
       <c r="F41" s="3">
-        <v>29100</v>
+        <v>31100</v>
       </c>
       <c r="G41" s="3">
-        <v>16000</v>
+        <v>17100</v>
       </c>
       <c r="H41" s="3">
-        <v>16500</v>
+        <v>17600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>75300</v>
+        <v>80500</v>
       </c>
       <c r="E43" s="3">
-        <v>60200</v>
+        <v>64400</v>
       </c>
       <c r="F43" s="3">
-        <v>49500</v>
+        <v>52900</v>
       </c>
       <c r="G43" s="3">
-        <v>35900</v>
+        <v>38400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7100</v>
+        <v>7600</v>
       </c>
       <c r="E45" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="F45" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="G45" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>169000</v>
+        <v>180800</v>
       </c>
       <c r="E46" s="3">
-        <v>84100</v>
+        <v>89900</v>
       </c>
       <c r="F46" s="3">
-        <v>81200</v>
+        <v>86900</v>
       </c>
       <c r="G46" s="3">
-        <v>54900</v>
+        <v>58700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13100</v>
+        <v>14000</v>
       </c>
       <c r="E48" s="3">
-        <v>10600</v>
+        <v>11300</v>
       </c>
       <c r="F48" s="3">
-        <v>9200</v>
+        <v>9900</v>
       </c>
       <c r="G48" s="3">
-        <v>5800</v>
+        <v>6300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>81100</v>
+        <v>86700</v>
       </c>
       <c r="E49" s="3">
-        <v>88700</v>
+        <v>94900</v>
       </c>
       <c r="F49" s="3">
-        <v>39800</v>
+        <v>42600</v>
       </c>
       <c r="G49" s="3">
-        <v>27800</v>
+        <v>29800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11800</v>
+        <v>12600</v>
       </c>
       <c r="E52" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="F52" s="3">
         <v>1100</v>
       </c>
       <c r="G52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>274900</v>
+        <v>294100</v>
       </c>
       <c r="E54" s="3">
-        <v>186400</v>
+        <v>199500</v>
       </c>
       <c r="F54" s="3">
-        <v>131300</v>
+        <v>140500</v>
       </c>
       <c r="G54" s="3">
-        <v>90000</v>
+        <v>96300</v>
       </c>
       <c r="H54" s="3">
-        <v>70400</v>
+        <v>75300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="E57" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="F57" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="G57" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2181,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>24400</v>
+        <v>26100</v>
       </c>
       <c r="F58" s="3">
-        <v>36300</v>
+        <v>38800</v>
       </c>
       <c r="G58" s="3">
-        <v>19000</v>
+        <v>20300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>61700</v>
+        <v>66000</v>
       </c>
       <c r="E59" s="3">
-        <v>57900</v>
+        <v>61900</v>
       </c>
       <c r="F59" s="3">
-        <v>26700</v>
+        <v>28600</v>
       </c>
       <c r="G59" s="3">
-        <v>30100</v>
+        <v>32200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>66900</v>
+        <v>71600</v>
       </c>
       <c r="E60" s="3">
-        <v>87800</v>
+        <v>94000</v>
       </c>
       <c r="F60" s="3">
-        <v>67600</v>
+        <v>72300</v>
       </c>
       <c r="G60" s="3">
-        <v>51000</v>
+        <v>54500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2286,7 +2286,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="E62" s="3">
-        <v>12800</v>
+        <v>13700</v>
       </c>
       <c r="F62" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="G62" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69600</v>
+        <v>74400</v>
       </c>
       <c r="E66" s="3">
-        <v>100600</v>
+        <v>107700</v>
       </c>
       <c r="F66" s="3">
-        <v>71200</v>
+        <v>76200</v>
       </c>
       <c r="G66" s="3">
-        <v>53200</v>
+        <v>56900</v>
       </c>
       <c r="H66" s="3">
-        <v>38300</v>
+        <v>41000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>184900</v>
+        <v>197900</v>
       </c>
       <c r="E72" s="3">
-        <v>84100</v>
+        <v>89900</v>
       </c>
       <c r="F72" s="3">
-        <v>58400</v>
+        <v>62500</v>
       </c>
       <c r="G72" s="3">
-        <v>33500</v>
+        <v>35900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>205300</v>
+        <v>219700</v>
       </c>
       <c r="E76" s="3">
-        <v>85800</v>
+        <v>91800</v>
       </c>
       <c r="F76" s="3">
-        <v>60100</v>
+        <v>64300</v>
       </c>
       <c r="G76" s="3">
-        <v>36800</v>
+        <v>39400</v>
       </c>
       <c r="H76" s="3">
-        <v>32100</v>
+        <v>34300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>29600</v>
+        <v>31700</v>
       </c>
       <c r="E81" s="3">
-        <v>23400</v>
+        <v>25100</v>
       </c>
       <c r="F81" s="3">
-        <v>20700</v>
+        <v>22200</v>
       </c>
       <c r="G81" s="3">
-        <v>20600</v>
+        <v>22100</v>
       </c>
       <c r="H81" s="3">
-        <v>16700</v>
+        <v>17900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9700</v>
+        <v>10400</v>
       </c>
       <c r="E83" s="3">
-        <v>7700</v>
+        <v>8300</v>
       </c>
       <c r="F83" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="G83" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>43500</v>
+        <v>46700</v>
       </c>
       <c r="E89" s="3">
-        <v>41900</v>
+        <v>44900</v>
       </c>
       <c r="F89" s="3">
-        <v>18200</v>
+        <v>19500</v>
       </c>
       <c r="G89" s="3">
-        <v>13400</v>
+        <v>14400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9100</v>
+        <v>-9800</v>
       </c>
       <c r="E91" s="3">
-        <v>-6800</v>
+        <v>-7200</v>
       </c>
       <c r="F91" s="3">
-        <v>-8000</v>
+        <v>-8600</v>
       </c>
       <c r="G91" s="3">
-        <v>-3400</v>
+        <v>-3600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12400</v>
+        <v>-13300</v>
       </c>
       <c r="E94" s="3">
-        <v>-39200</v>
+        <v>-42000</v>
       </c>
       <c r="F94" s="3">
-        <v>-24000</v>
+        <v>-25800</v>
       </c>
       <c r="G94" s="3">
-        <v>-8900</v>
+        <v>-9600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>32500</v>
+        <v>34800</v>
       </c>
       <c r="E100" s="3">
-        <v>-13200</v>
+        <v>-14200</v>
       </c>
       <c r="F100" s="3">
-        <v>18300</v>
+        <v>19600</v>
       </c>
       <c r="G100" s="3">
-        <v>-5700</v>
+        <v>-6100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3497,13 +3497,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>67900</v>
+        <v>72800</v>
       </c>
       <c r="E102" s="3">
-        <v>-10500</v>
+        <v>-11300</v>
       </c>
       <c r="F102" s="3">
-        <v>13100</v>
+        <v>14000</v>
       </c>
       <c r="G102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,29 +711,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>380300</v>
+        <v>467300</v>
       </c>
       <c r="E8" s="3">
-        <v>287400</v>
+        <v>383400</v>
       </c>
       <c r="F8" s="3">
-        <v>210500</v>
+        <v>289700</v>
       </c>
       <c r="G8" s="3">
-        <v>152500</v>
+        <v>212200</v>
       </c>
       <c r="H8" s="3">
-        <v>111100</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>153700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>112000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -744,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>249800</v>
+        <v>333900</v>
       </c>
       <c r="E9" s="3">
-        <v>192100</v>
+        <v>251800</v>
       </c>
       <c r="F9" s="3">
-        <v>143600</v>
+        <v>193600</v>
       </c>
       <c r="G9" s="3">
-        <v>99100</v>
+        <v>144800</v>
       </c>
       <c r="H9" s="3">
-        <v>70500</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>99900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>71100</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -777,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>130500</v>
+        <v>133300</v>
       </c>
       <c r="E10" s="3">
-        <v>95300</v>
+        <v>131600</v>
       </c>
       <c r="F10" s="3">
-        <v>66800</v>
+        <v>96100</v>
       </c>
       <c r="G10" s="3">
-        <v>53300</v>
+        <v>67400</v>
       </c>
       <c r="H10" s="3">
-        <v>40600</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>53800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>40900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,24 +907,27 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,9 +943,12 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>336700</v>
+        <v>435200</v>
       </c>
       <c r="E17" s="3">
-        <v>253800</v>
+        <v>339500</v>
       </c>
       <c r="F17" s="3">
-        <v>180000</v>
+        <v>255900</v>
       </c>
       <c r="G17" s="3">
-        <v>126100</v>
+        <v>181500</v>
       </c>
       <c r="H17" s="3">
-        <v>88700</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>127100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>89400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,29 +1028,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>43500</v>
+        <v>32100</v>
       </c>
       <c r="E18" s="3">
-        <v>33600</v>
+        <v>43900</v>
       </c>
       <c r="F18" s="3">
-        <v>30500</v>
+        <v>33900</v>
       </c>
       <c r="G18" s="3">
-        <v>26300</v>
+        <v>30700</v>
       </c>
       <c r="H18" s="3">
-        <v>22400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>26500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>22600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,29 +1083,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3300</v>
+        <v>4100</v>
       </c>
       <c r="E20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>50600</v>
+        <v>61100</v>
       </c>
       <c r="E21" s="3">
-        <v>41600</v>
+        <v>51100</v>
       </c>
       <c r="F21" s="3">
-        <v>34800</v>
+        <v>41900</v>
       </c>
       <c r="G21" s="3">
-        <v>31500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>35100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>31700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,27 +1152,30 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1149,29 +1188,32 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>39800</v>
+        <v>33600</v>
       </c>
       <c r="E23" s="3">
-        <v>32600</v>
+        <v>40100</v>
       </c>
       <c r="F23" s="3">
-        <v>28700</v>
+        <v>32800</v>
       </c>
       <c r="G23" s="3">
-        <v>27500</v>
+        <v>28900</v>
       </c>
       <c r="H23" s="3">
-        <v>20100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>27700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>20200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1182,30 +1224,33 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8000</v>
+        <v>5100</v>
       </c>
       <c r="E24" s="3">
-        <v>7500</v>
+        <v>8100</v>
       </c>
       <c r="F24" s="3">
-        <v>6400</v>
+        <v>7600</v>
       </c>
       <c r="G24" s="3">
-        <v>5400</v>
+        <v>6500</v>
       </c>
       <c r="H24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>31700</v>
+        <v>28500</v>
       </c>
       <c r="E26" s="3">
-        <v>25100</v>
+        <v>32000</v>
       </c>
       <c r="F26" s="3">
+        <v>25300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>22400</v>
+      </c>
+      <c r="H26" s="3">
         <v>22200</v>
       </c>
-      <c r="G26" s="3">
-        <v>22100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>17900</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>18000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,29 +1332,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>31700</v>
+        <v>28500</v>
       </c>
       <c r="E27" s="3">
-        <v>25100</v>
+        <v>32000</v>
       </c>
       <c r="F27" s="3">
+        <v>25300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>22400</v>
+      </c>
+      <c r="H27" s="3">
         <v>22200</v>
       </c>
-      <c r="G27" s="3">
-        <v>22100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>17900</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>18000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,30 +1512,33 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3300</v>
+        <v>-4100</v>
       </c>
       <c r="E32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,29 +1548,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>31700</v>
+        <v>28500</v>
       </c>
       <c r="E33" s="3">
-        <v>25100</v>
+        <v>32000</v>
       </c>
       <c r="F33" s="3">
+        <v>25300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>22400</v>
+      </c>
+      <c r="H33" s="3">
         <v>22200</v>
       </c>
-      <c r="G33" s="3">
-        <v>22100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>17900</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>18000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,29 +1620,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>31700</v>
+        <v>28500</v>
       </c>
       <c r="E35" s="3">
-        <v>25100</v>
+        <v>32000</v>
       </c>
       <c r="F35" s="3">
+        <v>25300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>22400</v>
+      </c>
+      <c r="H35" s="3">
         <v>22200</v>
       </c>
-      <c r="G35" s="3">
-        <v>22100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>17900</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>18000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>92700</v>
+        <v>134900</v>
       </c>
       <c r="E41" s="3">
-        <v>19900</v>
+        <v>93400</v>
       </c>
       <c r="F41" s="3">
-        <v>31100</v>
+        <v>20000</v>
       </c>
       <c r="G41" s="3">
-        <v>17100</v>
+        <v>31400</v>
       </c>
       <c r="H41" s="3">
-        <v>17600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>17200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>17800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1679,32 +1765,35 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>80500</v>
+        <v>104900</v>
       </c>
       <c r="E43" s="3">
-        <v>64400</v>
+        <v>81200</v>
       </c>
       <c r="F43" s="3">
-        <v>52900</v>
+        <v>64900</v>
       </c>
       <c r="G43" s="3">
-        <v>38400</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>53300</v>
+      </c>
+      <c r="H43" s="3">
+        <v>38700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,27 +1837,30 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,27 +1873,30 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7600</v>
       </c>
-      <c r="E45" s="3">
-        <v>5600</v>
-      </c>
       <c r="F45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>180800</v>
+        <v>249600</v>
       </c>
       <c r="E46" s="3">
-        <v>89900</v>
+        <v>182200</v>
       </c>
       <c r="F46" s="3">
-        <v>86900</v>
+        <v>90700</v>
       </c>
       <c r="G46" s="3">
-        <v>58700</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>87600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>59200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,17 +1945,20 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="D47" s="3">
+        <v>900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1862,8 +1966,8 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1877,27 +1981,30 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14000</v>
+        <v>85100</v>
       </c>
       <c r="E48" s="3">
-        <v>11300</v>
+        <v>14100</v>
       </c>
       <c r="F48" s="3">
-        <v>9900</v>
+        <v>11400</v>
       </c>
       <c r="G48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H48" s="3">
         <v>6300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1910,26 +2017,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>86700</v>
+        <v>127300</v>
       </c>
       <c r="E49" s="3">
-        <v>94900</v>
+        <v>87400</v>
       </c>
       <c r="F49" s="3">
-        <v>42600</v>
+        <v>95700</v>
       </c>
       <c r="G49" s="3">
-        <v>29800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>42900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>30000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,27 +2125,30 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12600</v>
+        <v>17800</v>
       </c>
       <c r="E52" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F52" s="3">
         <v>3300</v>
       </c>
-      <c r="F52" s="3">
-        <v>1100</v>
-      </c>
       <c r="G52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>294100</v>
+        <v>480600</v>
       </c>
       <c r="E54" s="3">
-        <v>199500</v>
+        <v>296500</v>
       </c>
       <c r="F54" s="3">
-        <v>140500</v>
+        <v>201100</v>
       </c>
       <c r="G54" s="3">
-        <v>96300</v>
+        <v>141600</v>
       </c>
       <c r="H54" s="3">
-        <v>75300</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>97100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>75900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,26 +2268,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
-        <v>5900</v>
-      </c>
       <c r="F57" s="3">
-        <v>4900</v>
+        <v>6000</v>
       </c>
       <c r="G57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,26 +2301,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="E58" s="3">
-        <v>26100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>38800</v>
+        <v>26300</v>
       </c>
       <c r="G58" s="3">
-        <v>20300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>39100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>20500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>66000</v>
+        <v>84000</v>
       </c>
       <c r="E59" s="3">
-        <v>61900</v>
+        <v>66500</v>
       </c>
       <c r="F59" s="3">
-        <v>28600</v>
+        <v>62400</v>
       </c>
       <c r="G59" s="3">
-        <v>32200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>28800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>32400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>71600</v>
+        <v>101700</v>
       </c>
       <c r="E60" s="3">
-        <v>94000</v>
+        <v>72200</v>
       </c>
       <c r="F60" s="3">
-        <v>72300</v>
+        <v>94700</v>
       </c>
       <c r="G60" s="3">
-        <v>54500</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>72900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>55000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,26 +2409,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>56200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2303,26 +2445,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2800</v>
+        <v>8000</v>
       </c>
       <c r="E62" s="3">
-        <v>13700</v>
+        <v>2900</v>
       </c>
       <c r="F62" s="3">
-        <v>3700</v>
+        <v>13800</v>
       </c>
       <c r="G62" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>74400</v>
+        <v>165900</v>
       </c>
       <c r="E66" s="3">
-        <v>107700</v>
+        <v>75000</v>
       </c>
       <c r="F66" s="3">
-        <v>76200</v>
+        <v>108500</v>
       </c>
       <c r="G66" s="3">
-        <v>56900</v>
+        <v>76800</v>
       </c>
       <c r="H66" s="3">
-        <v>41000</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>57400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>41300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>197900</v>
+        <v>314700</v>
       </c>
       <c r="E72" s="3">
-        <v>89900</v>
+        <v>199500</v>
       </c>
       <c r="F72" s="3">
-        <v>62500</v>
+        <v>90700</v>
       </c>
       <c r="G72" s="3">
-        <v>35900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>63000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>36200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,29 +2929,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>219700</v>
+        <v>314600</v>
       </c>
       <c r="E76" s="3">
-        <v>91800</v>
+        <v>221500</v>
       </c>
       <c r="F76" s="3">
-        <v>64300</v>
+        <v>92500</v>
       </c>
       <c r="G76" s="3">
-        <v>39400</v>
+        <v>64900</v>
       </c>
       <c r="H76" s="3">
-        <v>34300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>39700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>34600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,29 +3042,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>31700</v>
+        <v>28500</v>
       </c>
       <c r="E81" s="3">
-        <v>25100</v>
+        <v>32000</v>
       </c>
       <c r="F81" s="3">
+        <v>25300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>22400</v>
+      </c>
+      <c r="H81" s="3">
         <v>22200</v>
       </c>
-      <c r="G81" s="3">
-        <v>22100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>17900</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>18000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,26 +3097,27 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10400</v>
+        <v>24900</v>
       </c>
       <c r="E83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F83" s="3">
         <v>8300</v>
       </c>
-      <c r="F83" s="3">
-        <v>5700</v>
-      </c>
       <c r="G83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H83" s="3">
         <v>3800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>46700</v>
+        <v>53600</v>
       </c>
       <c r="E89" s="3">
-        <v>44900</v>
+        <v>47100</v>
       </c>
       <c r="F89" s="3">
-        <v>19500</v>
+        <v>45200</v>
       </c>
       <c r="G89" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>19600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>14500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,25 +3365,26 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-7200</v>
-      </c>
       <c r="F91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-8600</v>
       </c>
-      <c r="G91" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>-3700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,26 +3470,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13300</v>
+        <v>-39600</v>
       </c>
       <c r="E94" s="3">
-        <v>-42000</v>
+        <v>-13400</v>
       </c>
       <c r="F94" s="3">
-        <v>-25800</v>
+        <v>-42300</v>
       </c>
       <c r="G94" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-26000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-9700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,27 +3666,30 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>34800</v>
+        <v>27800</v>
       </c>
       <c r="E100" s="3">
-        <v>-14200</v>
+        <v>35100</v>
       </c>
       <c r="F100" s="3">
-        <v>19600</v>
+        <v>-14300</v>
       </c>
       <c r="G100" s="3">
+        <v>19800</v>
+      </c>
+      <c r="H100" s="3">
         <v>-6100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,26 +3702,29 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>4600</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>800</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3490,26 +3738,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>72800</v>
+        <v>41500</v>
       </c>
       <c r="E102" s="3">
+        <v>73400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-11300</v>
       </c>
-      <c r="F102" s="3">
-        <v>14000</v>
-      </c>
       <c r="G102" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>14100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>467300</v>
+        <v>481900</v>
       </c>
       <c r="E8" s="3">
-        <v>383400</v>
+        <v>395400</v>
       </c>
       <c r="F8" s="3">
-        <v>289700</v>
+        <v>298800</v>
       </c>
       <c r="G8" s="3">
-        <v>212200</v>
+        <v>218800</v>
       </c>
       <c r="H8" s="3">
-        <v>153700</v>
+        <v>158500</v>
       </c>
       <c r="I8" s="3">
-        <v>112000</v>
+        <v>115500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>333900</v>
+        <v>344400</v>
       </c>
       <c r="E9" s="3">
-        <v>251800</v>
+        <v>259700</v>
       </c>
       <c r="F9" s="3">
-        <v>193600</v>
+        <v>199700</v>
       </c>
       <c r="G9" s="3">
-        <v>144800</v>
+        <v>149300</v>
       </c>
       <c r="H9" s="3">
-        <v>99900</v>
+        <v>103100</v>
       </c>
       <c r="I9" s="3">
-        <v>71100</v>
+        <v>73300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>133300</v>
+        <v>137500</v>
       </c>
       <c r="E10" s="3">
-        <v>131600</v>
+        <v>135700</v>
       </c>
       <c r="F10" s="3">
-        <v>96100</v>
+        <v>99100</v>
       </c>
       <c r="G10" s="3">
-        <v>67400</v>
+        <v>69500</v>
       </c>
       <c r="H10" s="3">
-        <v>53800</v>
+        <v>55500</v>
       </c>
       <c r="I10" s="3">
-        <v>40900</v>
+        <v>42200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -917,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G14" s="3">
         <v>500</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>435200</v>
+        <v>448800</v>
       </c>
       <c r="E17" s="3">
-        <v>339500</v>
+        <v>350100</v>
       </c>
       <c r="F17" s="3">
-        <v>255900</v>
+        <v>263900</v>
       </c>
       <c r="G17" s="3">
-        <v>181500</v>
+        <v>187200</v>
       </c>
       <c r="H17" s="3">
-        <v>127100</v>
+        <v>131100</v>
       </c>
       <c r="I17" s="3">
-        <v>89400</v>
+        <v>92200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>32100</v>
+        <v>33100</v>
       </c>
       <c r="E18" s="3">
-        <v>43900</v>
+        <v>45300</v>
       </c>
       <c r="F18" s="3">
-        <v>33900</v>
+        <v>34900</v>
       </c>
       <c r="G18" s="3">
-        <v>30700</v>
+        <v>31700</v>
       </c>
       <c r="H18" s="3">
-        <v>26500</v>
+        <v>27400</v>
       </c>
       <c r="I18" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E20" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="F20" s="3">
         <v>-300</v>
@@ -1102,7 +1102,7 @@
         <v>-1400</v>
       </c>
       <c r="H20" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I20" s="3">
         <v>-2400</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>61100</v>
+        <v>62900</v>
       </c>
       <c r="E21" s="3">
-        <v>51100</v>
+        <v>52600</v>
       </c>
       <c r="F21" s="3">
-        <v>41900</v>
+        <v>43200</v>
       </c>
       <c r="G21" s="3">
-        <v>35100</v>
+        <v>36200</v>
       </c>
       <c r="H21" s="3">
-        <v>31700</v>
+        <v>32700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>33600</v>
+        <v>34700</v>
       </c>
       <c r="E23" s="3">
-        <v>40100</v>
+        <v>41300</v>
       </c>
       <c r="F23" s="3">
-        <v>32800</v>
+        <v>33800</v>
       </c>
       <c r="G23" s="3">
-        <v>28900</v>
+        <v>29800</v>
       </c>
       <c r="H23" s="3">
-        <v>27700</v>
+        <v>28600</v>
       </c>
       <c r="I23" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E24" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="F24" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="G24" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="H24" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="I24" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="E26" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="F26" s="3">
-        <v>25300</v>
+        <v>26100</v>
       </c>
       <c r="G26" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="H26" s="3">
-        <v>22200</v>
+        <v>22900</v>
       </c>
       <c r="I26" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="E27" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="F27" s="3">
-        <v>25300</v>
+        <v>26100</v>
       </c>
       <c r="G27" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="H27" s="3">
-        <v>22200</v>
+        <v>22900</v>
       </c>
       <c r="I27" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,10 +1522,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="E32" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F32" s="3">
         <v>300</v>
@@ -1534,7 +1534,7 @@
         <v>1400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I32" s="3">
         <v>2400</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="E33" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="F33" s="3">
-        <v>25300</v>
+        <v>26100</v>
       </c>
       <c r="G33" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="H33" s="3">
-        <v>22200</v>
+        <v>22900</v>
       </c>
       <c r="I33" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="E35" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="F35" s="3">
-        <v>25300</v>
+        <v>26100</v>
       </c>
       <c r="G35" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="H35" s="3">
-        <v>22200</v>
+        <v>22900</v>
       </c>
       <c r="I35" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>134900</v>
+        <v>139100</v>
       </c>
       <c r="E41" s="3">
-        <v>93400</v>
+        <v>96400</v>
       </c>
       <c r="F41" s="3">
-        <v>20000</v>
+        <v>20700</v>
       </c>
       <c r="G41" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="H41" s="3">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="I41" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>104900</v>
+        <v>108100</v>
       </c>
       <c r="E43" s="3">
-        <v>81200</v>
+        <v>83700</v>
       </c>
       <c r="F43" s="3">
-        <v>64900</v>
+        <v>67000</v>
       </c>
       <c r="G43" s="3">
-        <v>53300</v>
+        <v>55000</v>
       </c>
       <c r="H43" s="3">
-        <v>38700</v>
+        <v>40000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="E45" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="F45" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G45" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H45" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>249600</v>
+        <v>257400</v>
       </c>
       <c r="E46" s="3">
-        <v>182200</v>
+        <v>188000</v>
       </c>
       <c r="F46" s="3">
-        <v>90700</v>
+        <v>93500</v>
       </c>
       <c r="G46" s="3">
-        <v>87600</v>
+        <v>90300</v>
       </c>
       <c r="H46" s="3">
-        <v>59200</v>
+        <v>61100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>85100</v>
+        <v>87700</v>
       </c>
       <c r="E48" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="F48" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="G48" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="H48" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>127300</v>
+        <v>131300</v>
       </c>
       <c r="E49" s="3">
-        <v>87400</v>
+        <v>90200</v>
       </c>
       <c r="F49" s="3">
-        <v>95700</v>
+        <v>98700</v>
       </c>
       <c r="G49" s="3">
-        <v>42900</v>
+        <v>44300</v>
       </c>
       <c r="H49" s="3">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="E52" s="3">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="F52" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>480600</v>
+        <v>495600</v>
       </c>
       <c r="E54" s="3">
-        <v>296500</v>
+        <v>305800</v>
       </c>
       <c r="F54" s="3">
-        <v>201100</v>
+        <v>207400</v>
       </c>
       <c r="G54" s="3">
-        <v>141600</v>
+        <v>146100</v>
       </c>
       <c r="H54" s="3">
-        <v>97100</v>
+        <v>100100</v>
       </c>
       <c r="I54" s="3">
-        <v>75900</v>
+        <v>78300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="F57" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G57" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H57" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>26300</v>
+        <v>27100</v>
       </c>
       <c r="G58" s="3">
-        <v>39100</v>
+        <v>40400</v>
       </c>
       <c r="H58" s="3">
-        <v>20500</v>
+        <v>21200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>84000</v>
+        <v>86600</v>
       </c>
       <c r="E59" s="3">
-        <v>66500</v>
+        <v>68600</v>
       </c>
       <c r="F59" s="3">
-        <v>62400</v>
+        <v>64400</v>
       </c>
       <c r="G59" s="3">
-        <v>28800</v>
+        <v>29700</v>
       </c>
       <c r="H59" s="3">
-        <v>32400</v>
+        <v>33500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>101700</v>
+        <v>104900</v>
       </c>
       <c r="E60" s="3">
-        <v>72200</v>
+        <v>74400</v>
       </c>
       <c r="F60" s="3">
-        <v>94700</v>
+        <v>97700</v>
       </c>
       <c r="G60" s="3">
-        <v>72900</v>
+        <v>75200</v>
       </c>
       <c r="H60" s="3">
-        <v>55000</v>
+        <v>56700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,7 +2419,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56200</v>
+        <v>58000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E62" s="3">
         <v>2900</v>
       </c>
       <c r="F62" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="G62" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H62" s="3">
         <v>2400</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>165900</v>
+        <v>171100</v>
       </c>
       <c r="E66" s="3">
-        <v>75000</v>
+        <v>77400</v>
       </c>
       <c r="F66" s="3">
-        <v>108500</v>
+        <v>111900</v>
       </c>
       <c r="G66" s="3">
-        <v>76800</v>
+        <v>79200</v>
       </c>
       <c r="H66" s="3">
-        <v>57400</v>
+        <v>59200</v>
       </c>
       <c r="I66" s="3">
-        <v>41300</v>
+        <v>42600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>314700</v>
+        <v>324600</v>
       </c>
       <c r="E72" s="3">
-        <v>199500</v>
+        <v>205700</v>
       </c>
       <c r="F72" s="3">
-        <v>90700</v>
+        <v>93500</v>
       </c>
       <c r="G72" s="3">
-        <v>63000</v>
+        <v>65000</v>
       </c>
       <c r="H72" s="3">
-        <v>36200</v>
+        <v>37300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>314600</v>
+        <v>324500</v>
       </c>
       <c r="E76" s="3">
-        <v>221500</v>
+        <v>228400</v>
       </c>
       <c r="F76" s="3">
-        <v>92500</v>
+        <v>95400</v>
       </c>
       <c r="G76" s="3">
-        <v>64900</v>
+        <v>66900</v>
       </c>
       <c r="H76" s="3">
-        <v>39700</v>
+        <v>40900</v>
       </c>
       <c r="I76" s="3">
-        <v>34600</v>
+        <v>35700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="E81" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="F81" s="3">
-        <v>25300</v>
+        <v>26100</v>
       </c>
       <c r="G81" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="H81" s="3">
-        <v>22200</v>
+        <v>22900</v>
       </c>
       <c r="I81" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24900</v>
+        <v>25700</v>
       </c>
       <c r="E83" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="F83" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="G83" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="H83" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>53600</v>
+        <v>55300</v>
       </c>
       <c r="E89" s="3">
-        <v>47100</v>
+        <v>48500</v>
       </c>
       <c r="F89" s="3">
-        <v>45200</v>
+        <v>46700</v>
       </c>
       <c r="G89" s="3">
-        <v>19600</v>
+        <v>20200</v>
       </c>
       <c r="H89" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13200</v>
+        <v>-13600</v>
       </c>
       <c r="E91" s="3">
-        <v>-9800</v>
+        <v>-10100</v>
       </c>
       <c r="F91" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="G91" s="3">
-        <v>-8600</v>
+        <v>-8900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39600</v>
+        <v>-40800</v>
       </c>
       <c r="E94" s="3">
-        <v>-13400</v>
+        <v>-13800</v>
       </c>
       <c r="F94" s="3">
-        <v>-42300</v>
+        <v>-43700</v>
       </c>
       <c r="G94" s="3">
-        <v>-26000</v>
+        <v>-26800</v>
       </c>
       <c r="H94" s="3">
-        <v>-9700</v>
+        <v>-10000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>27800</v>
+        <v>28700</v>
       </c>
       <c r="E100" s="3">
-        <v>35100</v>
+        <v>36200</v>
       </c>
       <c r="F100" s="3">
-        <v>-14300</v>
+        <v>-14700</v>
       </c>
       <c r="G100" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="H100" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3715,7 +3715,7 @@
         <v>-300</v>
       </c>
       <c r="E101" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>41500</v>
+        <v>42800</v>
       </c>
       <c r="E102" s="3">
-        <v>73400</v>
+        <v>75700</v>
       </c>
       <c r="F102" s="3">
-        <v>-11300</v>
+        <v>-11700</v>
       </c>
       <c r="G102" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="H102" s="3">
         <v>-600</v>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>481900</v>
+        <v>496600</v>
       </c>
       <c r="E8" s="3">
-        <v>395400</v>
+        <v>407500</v>
       </c>
       <c r="F8" s="3">
-        <v>298800</v>
+        <v>307900</v>
       </c>
       <c r="G8" s="3">
-        <v>218800</v>
+        <v>225500</v>
       </c>
       <c r="H8" s="3">
-        <v>158500</v>
+        <v>163300</v>
       </c>
       <c r="I8" s="3">
-        <v>115500</v>
+        <v>119000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>344400</v>
+        <v>354900</v>
       </c>
       <c r="E9" s="3">
-        <v>259700</v>
+        <v>267600</v>
       </c>
       <c r="F9" s="3">
-        <v>199700</v>
+        <v>205800</v>
       </c>
       <c r="G9" s="3">
-        <v>149300</v>
+        <v>153900</v>
       </c>
       <c r="H9" s="3">
-        <v>103100</v>
+        <v>106200</v>
       </c>
       <c r="I9" s="3">
-        <v>73300</v>
+        <v>75600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>137500</v>
+        <v>141700</v>
       </c>
       <c r="E10" s="3">
-        <v>135700</v>
+        <v>139900</v>
       </c>
       <c r="F10" s="3">
-        <v>99100</v>
+        <v>102100</v>
       </c>
       <c r="G10" s="3">
-        <v>69500</v>
+        <v>71600</v>
       </c>
       <c r="H10" s="3">
-        <v>55500</v>
+        <v>57200</v>
       </c>
       <c r="I10" s="3">
-        <v>42200</v>
+        <v>43500</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>448800</v>
+        <v>462500</v>
       </c>
       <c r="E17" s="3">
-        <v>350100</v>
+        <v>360800</v>
       </c>
       <c r="F17" s="3">
-        <v>263900</v>
+        <v>272000</v>
       </c>
       <c r="G17" s="3">
-        <v>187200</v>
+        <v>192900</v>
       </c>
       <c r="H17" s="3">
-        <v>131100</v>
+        <v>135100</v>
       </c>
       <c r="I17" s="3">
-        <v>92200</v>
+        <v>95000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33100</v>
+        <v>34100</v>
       </c>
       <c r="E18" s="3">
-        <v>45300</v>
+        <v>46700</v>
       </c>
       <c r="F18" s="3">
-        <v>34900</v>
+        <v>36000</v>
       </c>
       <c r="G18" s="3">
-        <v>31700</v>
+        <v>32600</v>
       </c>
       <c r="H18" s="3">
-        <v>27400</v>
+        <v>28200</v>
       </c>
       <c r="I18" s="3">
-        <v>23300</v>
+        <v>24000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E20" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="F20" s="3">
         <v>-300</v>
       </c>
       <c r="G20" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H20" s="3">
         <v>1400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>62900</v>
+        <v>64900</v>
       </c>
       <c r="E21" s="3">
-        <v>52600</v>
+        <v>54300</v>
       </c>
       <c r="F21" s="3">
-        <v>43200</v>
+        <v>44600</v>
       </c>
       <c r="G21" s="3">
-        <v>36200</v>
+        <v>37300</v>
       </c>
       <c r="H21" s="3">
-        <v>32700</v>
+        <v>33700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>34700</v>
+        <v>35700</v>
       </c>
       <c r="E23" s="3">
-        <v>41300</v>
+        <v>42600</v>
       </c>
       <c r="F23" s="3">
-        <v>33800</v>
+        <v>34900</v>
       </c>
       <c r="G23" s="3">
-        <v>29800</v>
+        <v>30700</v>
       </c>
       <c r="H23" s="3">
-        <v>28600</v>
+        <v>29500</v>
       </c>
       <c r="I23" s="3">
-        <v>20900</v>
+        <v>21500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E24" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="F24" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="G24" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="H24" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="I24" s="3">
         <v>2300</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>29400</v>
+        <v>30300</v>
       </c>
       <c r="E26" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="F26" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="G26" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="H26" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="I26" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>29400</v>
+        <v>30300</v>
       </c>
       <c r="E27" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="F27" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="G27" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="H27" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="I27" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E32" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F32" s="3">
         <v>300</v>
       </c>
       <c r="G32" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H32" s="3">
         <v>-1400</v>
       </c>
       <c r="I32" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>29400</v>
+        <v>30300</v>
       </c>
       <c r="E33" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="F33" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="G33" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="H33" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="I33" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>29400</v>
+        <v>30300</v>
       </c>
       <c r="E35" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="F35" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="G35" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="H35" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="I35" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>139100</v>
+        <v>143400</v>
       </c>
       <c r="E41" s="3">
-        <v>96400</v>
+        <v>99300</v>
       </c>
       <c r="F41" s="3">
-        <v>20700</v>
+        <v>21300</v>
       </c>
       <c r="G41" s="3">
-        <v>32400</v>
+        <v>33400</v>
       </c>
       <c r="H41" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="I41" s="3">
-        <v>18300</v>
+        <v>18900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>108100</v>
+        <v>111400</v>
       </c>
       <c r="E43" s="3">
-        <v>83700</v>
+        <v>86300</v>
       </c>
       <c r="F43" s="3">
-        <v>67000</v>
+        <v>69000</v>
       </c>
       <c r="G43" s="3">
-        <v>55000</v>
+        <v>56700</v>
       </c>
       <c r="H43" s="3">
-        <v>40000</v>
+        <v>41200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="E45" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="F45" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="G45" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H45" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>257400</v>
+        <v>265300</v>
       </c>
       <c r="E46" s="3">
-        <v>188000</v>
+        <v>193700</v>
       </c>
       <c r="F46" s="3">
-        <v>93500</v>
+        <v>96400</v>
       </c>
       <c r="G46" s="3">
-        <v>90300</v>
+        <v>93100</v>
       </c>
       <c r="H46" s="3">
-        <v>61100</v>
+        <v>62900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>87700</v>
+        <v>90400</v>
       </c>
       <c r="E48" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="F48" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="G48" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="H48" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>131300</v>
+        <v>135300</v>
       </c>
       <c r="E49" s="3">
-        <v>90200</v>
+        <v>92900</v>
       </c>
       <c r="F49" s="3">
-        <v>98700</v>
+        <v>101700</v>
       </c>
       <c r="G49" s="3">
-        <v>44300</v>
+        <v>45600</v>
       </c>
       <c r="H49" s="3">
-        <v>31000</v>
+        <v>31900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18300</v>
+        <v>18900</v>
       </c>
       <c r="E52" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="F52" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
       </c>
       <c r="H52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>495600</v>
+        <v>510800</v>
       </c>
       <c r="E54" s="3">
-        <v>305800</v>
+        <v>315100</v>
       </c>
       <c r="F54" s="3">
-        <v>207400</v>
+        <v>213700</v>
       </c>
       <c r="G54" s="3">
-        <v>146100</v>
+        <v>150500</v>
       </c>
       <c r="H54" s="3">
-        <v>100100</v>
+        <v>103200</v>
       </c>
       <c r="I54" s="3">
-        <v>78300</v>
+        <v>80700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="F57" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="G57" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="H57" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>27100</v>
+        <v>27900</v>
       </c>
       <c r="G58" s="3">
-        <v>40400</v>
+        <v>41600</v>
       </c>
       <c r="H58" s="3">
-        <v>21200</v>
+        <v>21800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86600</v>
+        <v>89300</v>
       </c>
       <c r="E59" s="3">
-        <v>68600</v>
+        <v>70700</v>
       </c>
       <c r="F59" s="3">
-        <v>64400</v>
+        <v>66400</v>
       </c>
       <c r="G59" s="3">
-        <v>29700</v>
+        <v>30600</v>
       </c>
       <c r="H59" s="3">
-        <v>33500</v>
+        <v>34500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>104900</v>
+        <v>108100</v>
       </c>
       <c r="E60" s="3">
-        <v>74400</v>
+        <v>76700</v>
       </c>
       <c r="F60" s="3">
-        <v>97700</v>
+        <v>100700</v>
       </c>
       <c r="G60" s="3">
-        <v>75200</v>
+        <v>77500</v>
       </c>
       <c r="H60" s="3">
-        <v>56700</v>
+        <v>58400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,7 +2419,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>58000</v>
+        <v>59800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="E62" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F62" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="G62" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="H62" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>171100</v>
+        <v>176300</v>
       </c>
       <c r="E66" s="3">
-        <v>77400</v>
+        <v>79700</v>
       </c>
       <c r="F66" s="3">
-        <v>111900</v>
+        <v>115400</v>
       </c>
       <c r="G66" s="3">
-        <v>79200</v>
+        <v>81600</v>
       </c>
       <c r="H66" s="3">
-        <v>59200</v>
+        <v>61000</v>
       </c>
       <c r="I66" s="3">
-        <v>42600</v>
+        <v>43900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>324600</v>
+        <v>334500</v>
       </c>
       <c r="E72" s="3">
-        <v>205700</v>
+        <v>212000</v>
       </c>
       <c r="F72" s="3">
-        <v>93500</v>
+        <v>96400</v>
       </c>
       <c r="G72" s="3">
-        <v>65000</v>
+        <v>67000</v>
       </c>
       <c r="H72" s="3">
-        <v>37300</v>
+        <v>38400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>324500</v>
+        <v>334400</v>
       </c>
       <c r="E76" s="3">
-        <v>228400</v>
+        <v>235400</v>
       </c>
       <c r="F76" s="3">
-        <v>95400</v>
+        <v>98300</v>
       </c>
       <c r="G76" s="3">
-        <v>66900</v>
+        <v>68900</v>
       </c>
       <c r="H76" s="3">
-        <v>40900</v>
+        <v>42200</v>
       </c>
       <c r="I76" s="3">
-        <v>35700</v>
+        <v>36800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>29400</v>
+        <v>30300</v>
       </c>
       <c r="E81" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="F81" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="G81" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="H81" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="I81" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25700</v>
+        <v>26500</v>
       </c>
       <c r="E83" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="F83" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="G83" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="H83" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>55300</v>
+        <v>56900</v>
       </c>
       <c r="E89" s="3">
-        <v>48500</v>
+        <v>50000</v>
       </c>
       <c r="F89" s="3">
-        <v>46700</v>
+        <v>48100</v>
       </c>
       <c r="G89" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="H89" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13600</v>
+        <v>-14000</v>
       </c>
       <c r="E91" s="3">
-        <v>-10100</v>
+        <v>-10400</v>
       </c>
       <c r="F91" s="3">
-        <v>-7500</v>
+        <v>-7800</v>
       </c>
       <c r="G91" s="3">
-        <v>-8900</v>
+        <v>-9200</v>
       </c>
       <c r="H91" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-40800</v>
+        <v>-42100</v>
       </c>
       <c r="E94" s="3">
-        <v>-13800</v>
+        <v>-14200</v>
       </c>
       <c r="F94" s="3">
-        <v>-43700</v>
+        <v>-45000</v>
       </c>
       <c r="G94" s="3">
-        <v>-26800</v>
+        <v>-27600</v>
       </c>
       <c r="H94" s="3">
-        <v>-10000</v>
+        <v>-10300</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>28700</v>
+        <v>29500</v>
       </c>
       <c r="E100" s="3">
-        <v>36200</v>
+        <v>37300</v>
       </c>
       <c r="F100" s="3">
-        <v>-14700</v>
+        <v>-15200</v>
       </c>
       <c r="G100" s="3">
-        <v>20400</v>
+        <v>21000</v>
       </c>
       <c r="H100" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3715,13 +3715,13 @@
         <v>-300</v>
       </c>
       <c r="E101" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H101" s="3">
         <v>800</v>
@@ -3748,16 +3748,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>42800</v>
+        <v>44100</v>
       </c>
       <c r="E102" s="3">
-        <v>75700</v>
+        <v>78000</v>
       </c>
       <c r="F102" s="3">
-        <v>-11700</v>
+        <v>-12100</v>
       </c>
       <c r="G102" s="3">
-        <v>14600</v>
+        <v>15000</v>
       </c>
       <c r="H102" s="3">
         <v>-600</v>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>496600</v>
+        <v>478600</v>
       </c>
       <c r="E8" s="3">
-        <v>407500</v>
+        <v>392700</v>
       </c>
       <c r="F8" s="3">
-        <v>307900</v>
+        <v>296800</v>
       </c>
       <c r="G8" s="3">
-        <v>225500</v>
+        <v>217300</v>
       </c>
       <c r="H8" s="3">
-        <v>163300</v>
+        <v>157400</v>
       </c>
       <c r="I8" s="3">
-        <v>119000</v>
+        <v>114700</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>354900</v>
+        <v>342000</v>
       </c>
       <c r="E9" s="3">
-        <v>267600</v>
+        <v>257900</v>
       </c>
       <c r="F9" s="3">
-        <v>205800</v>
+        <v>198400</v>
       </c>
       <c r="G9" s="3">
-        <v>153900</v>
+        <v>148300</v>
       </c>
       <c r="H9" s="3">
-        <v>106200</v>
+        <v>102300</v>
       </c>
       <c r="I9" s="3">
-        <v>75600</v>
+        <v>72800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>141700</v>
+        <v>136600</v>
       </c>
       <c r="E10" s="3">
-        <v>139900</v>
+        <v>134800</v>
       </c>
       <c r="F10" s="3">
-        <v>102100</v>
+        <v>98400</v>
       </c>
       <c r="G10" s="3">
-        <v>71600</v>
+        <v>69000</v>
       </c>
       <c r="H10" s="3">
-        <v>57200</v>
+        <v>55100</v>
       </c>
       <c r="I10" s="3">
-        <v>43500</v>
+        <v>41900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>462500</v>
+        <v>445800</v>
       </c>
       <c r="E17" s="3">
-        <v>360800</v>
+        <v>347700</v>
       </c>
       <c r="F17" s="3">
-        <v>272000</v>
+        <v>262100</v>
       </c>
       <c r="G17" s="3">
-        <v>192900</v>
+        <v>185900</v>
       </c>
       <c r="H17" s="3">
-        <v>135100</v>
+        <v>130200</v>
       </c>
       <c r="I17" s="3">
-        <v>95000</v>
+        <v>91500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>34100</v>
+        <v>32800</v>
       </c>
       <c r="E18" s="3">
-        <v>46700</v>
+        <v>45000</v>
       </c>
       <c r="F18" s="3">
-        <v>36000</v>
+        <v>34700</v>
       </c>
       <c r="G18" s="3">
-        <v>32600</v>
+        <v>31400</v>
       </c>
       <c r="H18" s="3">
-        <v>28200</v>
+        <v>27200</v>
       </c>
       <c r="I18" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="E20" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="F20" s="3">
         <v>-300</v>
       </c>
       <c r="G20" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H20" s="3">
         <v>1400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>64900</v>
+        <v>62800</v>
       </c>
       <c r="E21" s="3">
-        <v>54300</v>
+        <v>52400</v>
       </c>
       <c r="F21" s="3">
-        <v>44600</v>
+        <v>43000</v>
       </c>
       <c r="G21" s="3">
-        <v>37300</v>
+        <v>36000</v>
       </c>
       <c r="H21" s="3">
-        <v>33700</v>
+        <v>32500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>35700</v>
+        <v>34400</v>
       </c>
       <c r="E23" s="3">
-        <v>42600</v>
+        <v>41100</v>
       </c>
       <c r="F23" s="3">
-        <v>34900</v>
+        <v>33600</v>
       </c>
       <c r="G23" s="3">
-        <v>30700</v>
+        <v>29600</v>
       </c>
       <c r="H23" s="3">
-        <v>29500</v>
+        <v>28400</v>
       </c>
       <c r="I23" s="3">
-        <v>21500</v>
+        <v>20700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="E24" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="F24" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="G24" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="H24" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="I24" s="3">
         <v>2300</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>30300</v>
+        <v>29200</v>
       </c>
       <c r="E26" s="3">
-        <v>34000</v>
+        <v>32700</v>
       </c>
       <c r="F26" s="3">
-        <v>26900</v>
+        <v>25900</v>
       </c>
       <c r="G26" s="3">
-        <v>23800</v>
+        <v>23000</v>
       </c>
       <c r="H26" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="I26" s="3">
-        <v>19200</v>
+        <v>18500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>30300</v>
+        <v>29200</v>
       </c>
       <c r="E27" s="3">
-        <v>34000</v>
+        <v>32700</v>
       </c>
       <c r="F27" s="3">
-        <v>26900</v>
+        <v>25900</v>
       </c>
       <c r="G27" s="3">
-        <v>23800</v>
+        <v>23000</v>
       </c>
       <c r="H27" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="I27" s="3">
-        <v>19200</v>
+        <v>18500</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="E32" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="F32" s="3">
         <v>300</v>
       </c>
       <c r="G32" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H32" s="3">
         <v>-1400</v>
       </c>
       <c r="I32" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>30300</v>
+        <v>29200</v>
       </c>
       <c r="E33" s="3">
-        <v>34000</v>
+        <v>32700</v>
       </c>
       <c r="F33" s="3">
-        <v>26900</v>
+        <v>25900</v>
       </c>
       <c r="G33" s="3">
-        <v>23800</v>
+        <v>23000</v>
       </c>
       <c r="H33" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="I33" s="3">
-        <v>19200</v>
+        <v>18500</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>30300</v>
+        <v>29200</v>
       </c>
       <c r="E35" s="3">
-        <v>34000</v>
+        <v>32700</v>
       </c>
       <c r="F35" s="3">
-        <v>26900</v>
+        <v>25900</v>
       </c>
       <c r="G35" s="3">
-        <v>23800</v>
+        <v>23000</v>
       </c>
       <c r="H35" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="I35" s="3">
-        <v>19200</v>
+        <v>18500</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>143400</v>
+        <v>138200</v>
       </c>
       <c r="E41" s="3">
-        <v>99300</v>
+        <v>95700</v>
       </c>
       <c r="F41" s="3">
-        <v>21300</v>
+        <v>20500</v>
       </c>
       <c r="G41" s="3">
-        <v>33400</v>
+        <v>32100</v>
       </c>
       <c r="H41" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="I41" s="3">
-        <v>18900</v>
+        <v>18200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>111400</v>
+        <v>107400</v>
       </c>
       <c r="E43" s="3">
-        <v>86300</v>
+        <v>83200</v>
       </c>
       <c r="F43" s="3">
-        <v>69000</v>
+        <v>66500</v>
       </c>
       <c r="G43" s="3">
-        <v>56700</v>
+        <v>54600</v>
       </c>
       <c r="H43" s="3">
-        <v>41200</v>
+        <v>39700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="E45" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="F45" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="G45" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H45" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>265300</v>
+        <v>255600</v>
       </c>
       <c r="E46" s="3">
-        <v>193700</v>
+        <v>186700</v>
       </c>
       <c r="F46" s="3">
-        <v>96400</v>
+        <v>92900</v>
       </c>
       <c r="G46" s="3">
-        <v>93100</v>
+        <v>89700</v>
       </c>
       <c r="H46" s="3">
-        <v>62900</v>
+        <v>60700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>90400</v>
+        <v>87100</v>
       </c>
       <c r="E48" s="3">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="F48" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="G48" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="H48" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>135300</v>
+        <v>130400</v>
       </c>
       <c r="E49" s="3">
-        <v>92900</v>
+        <v>89600</v>
       </c>
       <c r="F49" s="3">
-        <v>101700</v>
+        <v>98000</v>
       </c>
       <c r="G49" s="3">
-        <v>45600</v>
+        <v>44000</v>
       </c>
       <c r="H49" s="3">
-        <v>31900</v>
+        <v>30800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18900</v>
+        <v>18200</v>
       </c>
       <c r="E52" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="F52" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
       </c>
       <c r="H52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>510800</v>
+        <v>492300</v>
       </c>
       <c r="E54" s="3">
-        <v>315100</v>
+        <v>303700</v>
       </c>
       <c r="F54" s="3">
-        <v>213700</v>
+        <v>206000</v>
       </c>
       <c r="G54" s="3">
-        <v>150500</v>
+        <v>145100</v>
       </c>
       <c r="H54" s="3">
-        <v>103200</v>
+        <v>99400</v>
       </c>
       <c r="I54" s="3">
-        <v>80700</v>
+        <v>77700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="E57" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="F57" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="G57" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="H57" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15800</v>
+        <v>15200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>27900</v>
+        <v>26900</v>
       </c>
       <c r="G58" s="3">
-        <v>41600</v>
+        <v>40100</v>
       </c>
       <c r="H58" s="3">
-        <v>21800</v>
+        <v>21000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>89300</v>
+        <v>86000</v>
       </c>
       <c r="E59" s="3">
-        <v>70700</v>
+        <v>68100</v>
       </c>
       <c r="F59" s="3">
-        <v>66400</v>
+        <v>63900</v>
       </c>
       <c r="G59" s="3">
-        <v>30600</v>
+        <v>29500</v>
       </c>
       <c r="H59" s="3">
-        <v>34500</v>
+        <v>33200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>108100</v>
+        <v>104200</v>
       </c>
       <c r="E60" s="3">
-        <v>76700</v>
+        <v>73900</v>
       </c>
       <c r="F60" s="3">
-        <v>100700</v>
+        <v>97000</v>
       </c>
       <c r="G60" s="3">
-        <v>77500</v>
+        <v>74700</v>
       </c>
       <c r="H60" s="3">
-        <v>58400</v>
+        <v>56300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,7 +2419,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>59800</v>
+        <v>57600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="E62" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F62" s="3">
-        <v>14700</v>
+        <v>14100</v>
       </c>
       <c r="G62" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H62" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>176300</v>
+        <v>170000</v>
       </c>
       <c r="E66" s="3">
-        <v>79700</v>
+        <v>76800</v>
       </c>
       <c r="F66" s="3">
-        <v>115400</v>
+        <v>111200</v>
       </c>
       <c r="G66" s="3">
-        <v>81600</v>
+        <v>78600</v>
       </c>
       <c r="H66" s="3">
-        <v>61000</v>
+        <v>58800</v>
       </c>
       <c r="I66" s="3">
-        <v>43900</v>
+        <v>42300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>334500</v>
+        <v>322300</v>
       </c>
       <c r="E72" s="3">
-        <v>212000</v>
+        <v>204300</v>
       </c>
       <c r="F72" s="3">
-        <v>96400</v>
+        <v>92900</v>
       </c>
       <c r="G72" s="3">
-        <v>67000</v>
+        <v>64500</v>
       </c>
       <c r="H72" s="3">
-        <v>38400</v>
+        <v>37000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>334400</v>
+        <v>322300</v>
       </c>
       <c r="E76" s="3">
-        <v>235400</v>
+        <v>226800</v>
       </c>
       <c r="F76" s="3">
-        <v>98300</v>
+        <v>94800</v>
       </c>
       <c r="G76" s="3">
-        <v>68900</v>
+        <v>66400</v>
       </c>
       <c r="H76" s="3">
-        <v>42200</v>
+        <v>40600</v>
       </c>
       <c r="I76" s="3">
-        <v>36800</v>
+        <v>35400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>30300</v>
+        <v>29200</v>
       </c>
       <c r="E81" s="3">
-        <v>34000</v>
+        <v>32700</v>
       </c>
       <c r="F81" s="3">
-        <v>26900</v>
+        <v>25900</v>
       </c>
       <c r="G81" s="3">
-        <v>23800</v>
+        <v>23000</v>
       </c>
       <c r="H81" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="I81" s="3">
-        <v>19200</v>
+        <v>18500</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26500</v>
+        <v>25500</v>
       </c>
       <c r="E83" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="F83" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="G83" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="H83" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>56900</v>
+        <v>54900</v>
       </c>
       <c r="E89" s="3">
-        <v>50000</v>
+        <v>48200</v>
       </c>
       <c r="F89" s="3">
-        <v>48100</v>
+        <v>46300</v>
       </c>
       <c r="G89" s="3">
-        <v>20900</v>
+        <v>20100</v>
       </c>
       <c r="H89" s="3">
-        <v>15400</v>
+        <v>14900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14000</v>
+        <v>-13500</v>
       </c>
       <c r="E91" s="3">
-        <v>-10400</v>
+        <v>-10100</v>
       </c>
       <c r="F91" s="3">
-        <v>-7800</v>
+        <v>-7500</v>
       </c>
       <c r="G91" s="3">
-        <v>-9200</v>
+        <v>-8800</v>
       </c>
       <c r="H91" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-42100</v>
+        <v>-40600</v>
       </c>
       <c r="E94" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="F94" s="3">
-        <v>-45000</v>
+        <v>-43400</v>
       </c>
       <c r="G94" s="3">
-        <v>-27600</v>
+        <v>-26600</v>
       </c>
       <c r="H94" s="3">
-        <v>-10300</v>
+        <v>-9900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>29500</v>
+        <v>28500</v>
       </c>
       <c r="E100" s="3">
-        <v>37300</v>
+        <v>35900</v>
       </c>
       <c r="F100" s="3">
-        <v>-15200</v>
+        <v>-14600</v>
       </c>
       <c r="G100" s="3">
-        <v>21000</v>
+        <v>20200</v>
       </c>
       <c r="H100" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3715,13 +3715,13 @@
         <v>-300</v>
       </c>
       <c r="E101" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H101" s="3">
         <v>800</v>
@@ -3748,16 +3748,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>44100</v>
+        <v>42500</v>
       </c>
       <c r="E102" s="3">
-        <v>78000</v>
+        <v>75200</v>
       </c>
       <c r="F102" s="3">
-        <v>-12100</v>
+        <v>-11600</v>
       </c>
       <c r="G102" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="H102" s="3">
         <v>-600</v>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,32 +714,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>478600</v>
+        <v>594100</v>
       </c>
       <c r="E8" s="3">
-        <v>392700</v>
+        <v>467100</v>
       </c>
       <c r="F8" s="3">
-        <v>296800</v>
+        <v>383300</v>
       </c>
       <c r="G8" s="3">
-        <v>217300</v>
+        <v>289700</v>
       </c>
       <c r="H8" s="3">
-        <v>157400</v>
+        <v>212100</v>
       </c>
       <c r="I8" s="3">
-        <v>114700</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>153700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>112000</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -750,32 +753,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>342000</v>
+        <v>389300</v>
       </c>
       <c r="E9" s="3">
-        <v>257900</v>
+        <v>333800</v>
       </c>
       <c r="F9" s="3">
-        <v>198400</v>
+        <v>251700</v>
       </c>
       <c r="G9" s="3">
-        <v>148300</v>
+        <v>193600</v>
       </c>
       <c r="H9" s="3">
-        <v>102300</v>
+        <v>144800</v>
       </c>
       <c r="I9" s="3">
-        <v>72800</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>99900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>71100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,32 +792,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>136600</v>
+        <v>204800</v>
       </c>
       <c r="E10" s="3">
-        <v>134800</v>
+        <v>133300</v>
       </c>
       <c r="F10" s="3">
-        <v>98400</v>
+        <v>131500</v>
       </c>
       <c r="G10" s="3">
-        <v>69000</v>
+        <v>96100</v>
       </c>
       <c r="H10" s="3">
-        <v>55100</v>
+        <v>67400</v>
       </c>
       <c r="I10" s="3">
-        <v>41900</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>53800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>40900</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,27 +926,30 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1700</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -946,9 +965,12 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,31 +1021,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>445800</v>
+        <v>509500</v>
       </c>
       <c r="E17" s="3">
-        <v>347700</v>
+        <v>435100</v>
       </c>
       <c r="F17" s="3">
-        <v>262100</v>
+        <v>339400</v>
       </c>
       <c r="G17" s="3">
-        <v>185900</v>
+        <v>255800</v>
       </c>
       <c r="H17" s="3">
-        <v>130200</v>
+        <v>181400</v>
       </c>
       <c r="I17" s="3">
-        <v>91500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>127100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>89300</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,32 +1057,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>32800</v>
+        <v>84600</v>
       </c>
       <c r="E18" s="3">
-        <v>45000</v>
+        <v>32100</v>
       </c>
       <c r="F18" s="3">
-        <v>34700</v>
+        <v>43900</v>
       </c>
       <c r="G18" s="3">
-        <v>31400</v>
+        <v>33900</v>
       </c>
       <c r="H18" s="3">
-        <v>27200</v>
+        <v>30700</v>
       </c>
       <c r="I18" s="3">
-        <v>23200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>26500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>22600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,32 +1116,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4200</v>
+        <v>-9500</v>
       </c>
       <c r="E20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
-        <v>1400</v>
-      </c>
       <c r="I20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,29 +1152,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>62800</v>
+        <v>106300</v>
       </c>
       <c r="E21" s="3">
-        <v>52400</v>
+        <v>61100</v>
       </c>
       <c r="F21" s="3">
-        <v>43000</v>
+        <v>51100</v>
       </c>
       <c r="G21" s="3">
-        <v>36000</v>
+        <v>41900</v>
       </c>
       <c r="H21" s="3">
-        <v>32500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>35100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>31700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1155,30 +1191,33 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,32 +1230,35 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>34400</v>
+        <v>72400</v>
       </c>
       <c r="E23" s="3">
-        <v>41100</v>
+        <v>33600</v>
       </c>
       <c r="F23" s="3">
-        <v>33600</v>
+        <v>40100</v>
       </c>
       <c r="G23" s="3">
-        <v>29600</v>
+        <v>32800</v>
       </c>
       <c r="H23" s="3">
-        <v>28400</v>
+        <v>28900</v>
       </c>
       <c r="I23" s="3">
-        <v>20700</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>27700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>20200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,32 +1269,35 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5200</v>
+        <v>14500</v>
       </c>
       <c r="E24" s="3">
-        <v>8300</v>
+        <v>5100</v>
       </c>
       <c r="F24" s="3">
-        <v>7700</v>
+        <v>8100</v>
       </c>
       <c r="G24" s="3">
-        <v>6600</v>
+        <v>7600</v>
       </c>
       <c r="H24" s="3">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="I24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2200</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,32 +1347,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>29200</v>
+        <v>57800</v>
       </c>
       <c r="E26" s="3">
-        <v>32700</v>
+        <v>28500</v>
       </c>
       <c r="F26" s="3">
-        <v>25900</v>
+        <v>32000</v>
       </c>
       <c r="G26" s="3">
-        <v>23000</v>
+        <v>25300</v>
       </c>
       <c r="H26" s="3">
-        <v>22800</v>
+        <v>22400</v>
       </c>
       <c r="I26" s="3">
-        <v>18500</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>22200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>18000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,32 +1386,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>29200</v>
+        <v>57800</v>
       </c>
       <c r="E27" s="3">
-        <v>32700</v>
+        <v>28500</v>
       </c>
       <c r="F27" s="3">
-        <v>25900</v>
+        <v>32000</v>
       </c>
       <c r="G27" s="3">
-        <v>23000</v>
+        <v>25300</v>
       </c>
       <c r="H27" s="3">
-        <v>22800</v>
+        <v>22400</v>
       </c>
       <c r="I27" s="3">
-        <v>18500</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>22200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>18000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,33 +1581,36 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4200</v>
+        <v>9500</v>
       </c>
       <c r="E32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F32" s="3">
         <v>3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1400</v>
-      </c>
       <c r="I32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,32 +1620,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>29200</v>
+        <v>57800</v>
       </c>
       <c r="E33" s="3">
-        <v>32700</v>
+        <v>28500</v>
       </c>
       <c r="F33" s="3">
-        <v>25900</v>
+        <v>32000</v>
       </c>
       <c r="G33" s="3">
-        <v>23000</v>
+        <v>25300</v>
       </c>
       <c r="H33" s="3">
-        <v>22800</v>
+        <v>22400</v>
       </c>
       <c r="I33" s="3">
-        <v>18500</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>22200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>18000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1698,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>29200</v>
+        <v>57800</v>
       </c>
       <c r="E35" s="3">
-        <v>32700</v>
+        <v>28500</v>
       </c>
       <c r="F35" s="3">
-        <v>25900</v>
+        <v>32000</v>
       </c>
       <c r="G35" s="3">
-        <v>23000</v>
+        <v>25300</v>
       </c>
       <c r="H35" s="3">
-        <v>22800</v>
+        <v>22400</v>
       </c>
       <c r="I35" s="3">
-        <v>18500</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>22200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>18000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,31 +1818,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>138200</v>
+        <v>93000</v>
       </c>
       <c r="E41" s="3">
-        <v>95700</v>
+        <v>134900</v>
       </c>
       <c r="F41" s="3">
-        <v>20500</v>
+        <v>93400</v>
       </c>
       <c r="G41" s="3">
-        <v>32100</v>
+        <v>20000</v>
       </c>
       <c r="H41" s="3">
-        <v>17700</v>
+        <v>31400</v>
       </c>
       <c r="I41" s="3">
-        <v>18200</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>17200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>17800</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1768,18 +1854,21 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>700</v>
+      </c>
+      <c r="E42" s="3">
         <v>800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1795,8 +1884,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1804,29 +1893,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>107400</v>
+        <v>150500</v>
       </c>
       <c r="E43" s="3">
-        <v>83200</v>
+        <v>104800</v>
       </c>
       <c r="F43" s="3">
-        <v>66500</v>
+        <v>81200</v>
       </c>
       <c r="G43" s="3">
-        <v>54600</v>
+        <v>64900</v>
       </c>
       <c r="H43" s="3">
-        <v>39700</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>53300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>38700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1852,18 +1947,18 @@
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1876,29 +1971,32 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9200</v>
+        <v>8200</v>
       </c>
       <c r="E45" s="3">
-        <v>7800</v>
+        <v>9000</v>
       </c>
       <c r="F45" s="3">
-        <v>5800</v>
+        <v>7600</v>
       </c>
       <c r="G45" s="3">
-        <v>2900</v>
+        <v>5700</v>
       </c>
       <c r="H45" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>2800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>3000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1912,29 +2010,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>255600</v>
+        <v>252500</v>
       </c>
       <c r="E46" s="3">
-        <v>186700</v>
+        <v>249500</v>
       </c>
       <c r="F46" s="3">
-        <v>92900</v>
+        <v>182200</v>
       </c>
       <c r="G46" s="3">
-        <v>89700</v>
+        <v>90600</v>
       </c>
       <c r="H46" s="3">
-        <v>60700</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>87600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>59200</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1948,20 +2049,23 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>500</v>
+      </c>
+      <c r="E47" s="3">
         <v>900</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1969,8 +2073,8 @@
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1984,29 +2088,32 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>87100</v>
+        <v>93900</v>
       </c>
       <c r="E48" s="3">
-        <v>14400</v>
+        <v>85000</v>
       </c>
       <c r="F48" s="3">
-        <v>11700</v>
+        <v>14100</v>
       </c>
       <c r="G48" s="3">
-        <v>10200</v>
+        <v>11400</v>
       </c>
       <c r="H48" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2020,29 +2127,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>130400</v>
+        <v>258200</v>
       </c>
       <c r="E49" s="3">
-        <v>89600</v>
+        <v>127400</v>
       </c>
       <c r="F49" s="3">
-        <v>98000</v>
+        <v>87400</v>
       </c>
       <c r="G49" s="3">
-        <v>44000</v>
+        <v>95600</v>
       </c>
       <c r="H49" s="3">
-        <v>30800</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>42900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>30000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,30 +2244,33 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18200</v>
+        <v>24900</v>
       </c>
       <c r="E52" s="3">
-        <v>13000</v>
+        <v>17800</v>
       </c>
       <c r="F52" s="3">
-        <v>3400</v>
+        <v>12700</v>
       </c>
       <c r="G52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,32 +2322,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>492300</v>
+        <v>629900</v>
       </c>
       <c r="E54" s="3">
-        <v>303700</v>
+        <v>480600</v>
       </c>
       <c r="F54" s="3">
-        <v>206000</v>
+        <v>296400</v>
       </c>
       <c r="G54" s="3">
-        <v>145100</v>
+        <v>201000</v>
       </c>
       <c r="H54" s="3">
-        <v>99400</v>
+        <v>141600</v>
       </c>
       <c r="I54" s="3">
-        <v>77700</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>97000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>75900</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,28 +2398,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
-        <v>5800</v>
-      </c>
       <c r="F57" s="3">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="G57" s="3">
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="H57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2000</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2304,29 +2434,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15200</v>
+        <v>18000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="F58" s="3">
-        <v>26900</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>40100</v>
+        <v>26300</v>
       </c>
       <c r="H58" s="3">
-        <v>21000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>39100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>20500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2340,29 +2473,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86000</v>
+        <v>109500</v>
       </c>
       <c r="E59" s="3">
-        <v>68100</v>
+        <v>84100</v>
       </c>
       <c r="F59" s="3">
-        <v>63900</v>
+        <v>66500</v>
       </c>
       <c r="G59" s="3">
-        <v>29500</v>
+        <v>62400</v>
       </c>
       <c r="H59" s="3">
-        <v>33200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>28800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>32400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2376,29 +2512,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>104200</v>
+        <v>136900</v>
       </c>
       <c r="E60" s="3">
-        <v>73900</v>
+        <v>101800</v>
       </c>
       <c r="F60" s="3">
-        <v>97000</v>
+        <v>72100</v>
       </c>
       <c r="G60" s="3">
-        <v>74700</v>
+        <v>94700</v>
       </c>
       <c r="H60" s="3">
-        <v>56300</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>72900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>55000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2412,29 +2551,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>57600</v>
+        <v>66700</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>56200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2448,30 +2590,33 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8200</v>
+        <v>26100</v>
       </c>
       <c r="E62" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
-        <v>14100</v>
-      </c>
       <c r="G62" s="3">
-        <v>3900</v>
+        <v>13800</v>
       </c>
       <c r="H62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I62" s="3">
         <v>2400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>170000</v>
+        <v>229700</v>
       </c>
       <c r="E66" s="3">
+        <v>166000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>75000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>108500</v>
+      </c>
+      <c r="H66" s="3">
         <v>76800</v>
       </c>
-      <c r="F66" s="3">
-        <v>111200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>78600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>58800</v>
-      </c>
       <c r="I66" s="3">
-        <v>42300</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>57400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>41300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,29 +2958,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>322300</v>
+        <v>398600</v>
       </c>
       <c r="E72" s="3">
-        <v>204300</v>
+        <v>314600</v>
       </c>
       <c r="F72" s="3">
-        <v>92900</v>
+        <v>199400</v>
       </c>
       <c r="G72" s="3">
-        <v>64500</v>
+        <v>90600</v>
       </c>
       <c r="H72" s="3">
-        <v>37000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>63000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>36100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,32 +3114,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>322300</v>
+        <v>400200</v>
       </c>
       <c r="E76" s="3">
-        <v>226800</v>
+        <v>314600</v>
       </c>
       <c r="F76" s="3">
-        <v>94800</v>
+        <v>221400</v>
       </c>
       <c r="G76" s="3">
-        <v>66400</v>
+        <v>92500</v>
       </c>
       <c r="H76" s="3">
-        <v>40600</v>
+        <v>64900</v>
       </c>
       <c r="I76" s="3">
-        <v>35400</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>39700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>34600</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,32 +3236,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>29200</v>
+        <v>57800</v>
       </c>
       <c r="E81" s="3">
-        <v>32700</v>
+        <v>28500</v>
       </c>
       <c r="F81" s="3">
-        <v>25900</v>
+        <v>32000</v>
       </c>
       <c r="G81" s="3">
-        <v>23000</v>
+        <v>25300</v>
       </c>
       <c r="H81" s="3">
-        <v>22800</v>
+        <v>22400</v>
       </c>
       <c r="I81" s="3">
-        <v>18500</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>22200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>18000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,28 +3295,29 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25500</v>
+        <v>31200</v>
       </c>
       <c r="E83" s="3">
-        <v>10800</v>
+        <v>24900</v>
       </c>
       <c r="F83" s="3">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="G83" s="3">
-        <v>5900</v>
+        <v>8300</v>
       </c>
       <c r="H83" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>5800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3800</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,29 +3526,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>54900</v>
+        <v>117600</v>
       </c>
       <c r="E89" s="3">
-        <v>48200</v>
+        <v>53600</v>
       </c>
       <c r="F89" s="3">
-        <v>46300</v>
+        <v>47100</v>
       </c>
       <c r="G89" s="3">
-        <v>20100</v>
+        <v>45200</v>
       </c>
       <c r="H89" s="3">
-        <v>14900</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>19600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>14500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,29 +3585,30 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13500</v>
+        <v>-8100</v>
       </c>
       <c r="E91" s="3">
-        <v>-10100</v>
+        <v>-13200</v>
       </c>
       <c r="F91" s="3">
-        <v>-7500</v>
+        <v>-9800</v>
       </c>
       <c r="G91" s="3">
-        <v>-8800</v>
+        <v>-7300</v>
       </c>
       <c r="H91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,29 +3699,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-40600</v>
+        <v>-142600</v>
       </c>
       <c r="E94" s="3">
-        <v>-13700</v>
+        <v>-39600</v>
       </c>
       <c r="F94" s="3">
-        <v>-43400</v>
+        <v>-13400</v>
       </c>
       <c r="G94" s="3">
-        <v>-26600</v>
+        <v>-42300</v>
       </c>
       <c r="H94" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-26000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-9700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,29 +3911,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>28500</v>
+        <v>-15900</v>
       </c>
       <c r="E100" s="3">
-        <v>35900</v>
+        <v>27800</v>
       </c>
       <c r="F100" s="3">
-        <v>-14600</v>
+        <v>35100</v>
       </c>
       <c r="G100" s="3">
-        <v>20200</v>
+        <v>-14300</v>
       </c>
       <c r="H100" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>19800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-6100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3705,30 +3950,33 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>4700</v>
-      </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,30 +3989,33 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>42500</v>
+        <v>-41900</v>
       </c>
       <c r="E102" s="3">
-        <v>75200</v>
+        <v>41500</v>
       </c>
       <c r="F102" s="3">
-        <v>-11600</v>
+        <v>73400</v>
       </c>
       <c r="G102" s="3">
-        <v>14500</v>
+        <v>-11300</v>
       </c>
       <c r="H102" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>594100</v>
+        <v>581800</v>
       </c>
       <c r="E8" s="3">
-        <v>467100</v>
+        <v>457500</v>
       </c>
       <c r="F8" s="3">
-        <v>383300</v>
+        <v>375300</v>
       </c>
       <c r="G8" s="3">
-        <v>289700</v>
+        <v>283700</v>
       </c>
       <c r="H8" s="3">
-        <v>212100</v>
+        <v>207800</v>
       </c>
       <c r="I8" s="3">
-        <v>153700</v>
+        <v>150500</v>
       </c>
       <c r="J8" s="3">
-        <v>112000</v>
+        <v>109600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>389300</v>
+        <v>381300</v>
       </c>
       <c r="E9" s="3">
-        <v>333800</v>
+        <v>326900</v>
       </c>
       <c r="F9" s="3">
-        <v>251700</v>
+        <v>246500</v>
       </c>
       <c r="G9" s="3">
-        <v>193600</v>
+        <v>189600</v>
       </c>
       <c r="H9" s="3">
-        <v>144800</v>
+        <v>141800</v>
       </c>
       <c r="I9" s="3">
-        <v>99900</v>
+        <v>97800</v>
       </c>
       <c r="J9" s="3">
-        <v>71100</v>
+        <v>69600</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>204800</v>
+        <v>200500</v>
       </c>
       <c r="E10" s="3">
-        <v>133300</v>
+        <v>130600</v>
       </c>
       <c r="F10" s="3">
-        <v>131500</v>
+        <v>128800</v>
       </c>
       <c r="G10" s="3">
-        <v>96100</v>
+        <v>94100</v>
       </c>
       <c r="H10" s="3">
-        <v>67400</v>
+        <v>66000</v>
       </c>
       <c r="I10" s="3">
-        <v>53800</v>
+        <v>52600</v>
       </c>
       <c r="J10" s="3">
-        <v>40900</v>
+        <v>40000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>509500</v>
+        <v>499000</v>
       </c>
       <c r="E17" s="3">
-        <v>435100</v>
+        <v>426100</v>
       </c>
       <c r="F17" s="3">
-        <v>339400</v>
+        <v>332400</v>
       </c>
       <c r="G17" s="3">
-        <v>255800</v>
+        <v>250500</v>
       </c>
       <c r="H17" s="3">
-        <v>181400</v>
+        <v>177700</v>
       </c>
       <c r="I17" s="3">
-        <v>127100</v>
+        <v>124500</v>
       </c>
       <c r="J17" s="3">
-        <v>89300</v>
+        <v>87500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>84600</v>
+        <v>82800</v>
       </c>
       <c r="E18" s="3">
-        <v>32100</v>
+        <v>31400</v>
       </c>
       <c r="F18" s="3">
-        <v>43900</v>
+        <v>43000</v>
       </c>
       <c r="G18" s="3">
-        <v>33900</v>
+        <v>33200</v>
       </c>
       <c r="H18" s="3">
-        <v>30700</v>
+        <v>30100</v>
       </c>
       <c r="I18" s="3">
-        <v>26500</v>
+        <v>26000</v>
       </c>
       <c r="J18" s="3">
-        <v>22600</v>
+        <v>22100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9500</v>
+        <v>-9300</v>
       </c>
       <c r="E20" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="G20" s="3">
         <v>-300</v>
@@ -1141,7 +1141,7 @@
         <v>1300</v>
       </c>
       <c r="J20" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>106300</v>
+        <v>104400</v>
       </c>
       <c r="E21" s="3">
-        <v>61100</v>
+        <v>60100</v>
       </c>
       <c r="F21" s="3">
-        <v>51100</v>
+        <v>50100</v>
       </c>
       <c r="G21" s="3">
-        <v>41900</v>
+        <v>41100</v>
       </c>
       <c r="H21" s="3">
-        <v>35100</v>
+        <v>34400</v>
       </c>
       <c r="I21" s="3">
-        <v>31700</v>
+        <v>31100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1207,16 +1207,16 @@
         <v>2500</v>
       </c>
       <c r="F22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>72400</v>
+        <v>70900</v>
       </c>
       <c r="E23" s="3">
-        <v>33600</v>
+        <v>32900</v>
       </c>
       <c r="F23" s="3">
-        <v>40100</v>
+        <v>39200</v>
       </c>
       <c r="G23" s="3">
-        <v>32800</v>
+        <v>32100</v>
       </c>
       <c r="H23" s="3">
-        <v>28900</v>
+        <v>28300</v>
       </c>
       <c r="I23" s="3">
-        <v>27700</v>
+        <v>27200</v>
       </c>
       <c r="J23" s="3">
-        <v>20200</v>
+        <v>19800</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,22 +1279,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="E24" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="F24" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="G24" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="H24" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="I24" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="J24" s="3">
         <v>2200</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>57800</v>
+        <v>56600</v>
       </c>
       <c r="E26" s="3">
-        <v>28500</v>
+        <v>27900</v>
       </c>
       <c r="F26" s="3">
-        <v>32000</v>
+        <v>31300</v>
       </c>
       <c r="G26" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="H26" s="3">
-        <v>22400</v>
+        <v>21900</v>
       </c>
       <c r="I26" s="3">
-        <v>22200</v>
+        <v>21800</v>
       </c>
       <c r="J26" s="3">
-        <v>18000</v>
+        <v>17700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>57800</v>
+        <v>56600</v>
       </c>
       <c r="E27" s="3">
-        <v>28500</v>
+        <v>27900</v>
       </c>
       <c r="F27" s="3">
-        <v>32000</v>
+        <v>31300</v>
       </c>
       <c r="G27" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="H27" s="3">
-        <v>22400</v>
+        <v>21900</v>
       </c>
       <c r="I27" s="3">
-        <v>22200</v>
+        <v>21800</v>
       </c>
       <c r="J27" s="3">
-        <v>18000</v>
+        <v>17700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="E32" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="F32" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G32" s="3">
         <v>300</v>
@@ -1609,7 +1609,7 @@
         <v>-1300</v>
       </c>
       <c r="J32" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>57800</v>
+        <v>56600</v>
       </c>
       <c r="E33" s="3">
-        <v>28500</v>
+        <v>27900</v>
       </c>
       <c r="F33" s="3">
-        <v>32000</v>
+        <v>31300</v>
       </c>
       <c r="G33" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="H33" s="3">
-        <v>22400</v>
+        <v>21900</v>
       </c>
       <c r="I33" s="3">
-        <v>22200</v>
+        <v>21800</v>
       </c>
       <c r="J33" s="3">
-        <v>18000</v>
+        <v>17700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>57800</v>
+        <v>56600</v>
       </c>
       <c r="E35" s="3">
-        <v>28500</v>
+        <v>27900</v>
       </c>
       <c r="F35" s="3">
-        <v>32000</v>
+        <v>31300</v>
       </c>
       <c r="G35" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="H35" s="3">
-        <v>22400</v>
+        <v>21900</v>
       </c>
       <c r="I35" s="3">
-        <v>22200</v>
+        <v>21800</v>
       </c>
       <c r="J35" s="3">
-        <v>18000</v>
+        <v>17700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>93000</v>
+        <v>91100</v>
       </c>
       <c r="E41" s="3">
-        <v>134900</v>
+        <v>132100</v>
       </c>
       <c r="F41" s="3">
-        <v>93400</v>
+        <v>91500</v>
       </c>
       <c r="G41" s="3">
-        <v>20000</v>
+        <v>19600</v>
       </c>
       <c r="H41" s="3">
-        <v>31400</v>
+        <v>30700</v>
       </c>
       <c r="I41" s="3">
-        <v>17200</v>
+        <v>16900</v>
       </c>
       <c r="J41" s="3">
-        <v>17800</v>
+        <v>17400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>150500</v>
+        <v>147400</v>
       </c>
       <c r="E43" s="3">
-        <v>104800</v>
+        <v>102700</v>
       </c>
       <c r="F43" s="3">
-        <v>81200</v>
+        <v>79500</v>
       </c>
       <c r="G43" s="3">
-        <v>64900</v>
+        <v>63600</v>
       </c>
       <c r="H43" s="3">
-        <v>53300</v>
+        <v>52200</v>
       </c>
       <c r="I43" s="3">
-        <v>38700</v>
+        <v>37900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1981,19 +1981,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="E45" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="F45" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="G45" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="H45" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I45" s="3">
         <v>3000</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>252500</v>
+        <v>247300</v>
       </c>
       <c r="E46" s="3">
-        <v>249500</v>
+        <v>244400</v>
       </c>
       <c r="F46" s="3">
-        <v>182200</v>
+        <v>178400</v>
       </c>
       <c r="G46" s="3">
-        <v>90600</v>
+        <v>88800</v>
       </c>
       <c r="H46" s="3">
-        <v>87600</v>
+        <v>85800</v>
       </c>
       <c r="I46" s="3">
-        <v>59200</v>
+        <v>58000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2062,7 +2062,7 @@
         <v>500</v>
       </c>
       <c r="E47" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>93900</v>
+        <v>91900</v>
       </c>
       <c r="E48" s="3">
-        <v>85000</v>
+        <v>83300</v>
       </c>
       <c r="F48" s="3">
-        <v>14100</v>
+        <v>13800</v>
       </c>
       <c r="G48" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="H48" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="I48" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2137,22 +2137,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>258200</v>
+        <v>252900</v>
       </c>
       <c r="E49" s="3">
-        <v>127400</v>
+        <v>124800</v>
       </c>
       <c r="F49" s="3">
-        <v>87400</v>
+        <v>85600</v>
       </c>
       <c r="G49" s="3">
-        <v>95600</v>
+        <v>93700</v>
       </c>
       <c r="H49" s="3">
-        <v>42900</v>
+        <v>42000</v>
       </c>
       <c r="I49" s="3">
-        <v>30000</v>
+        <v>29400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24900</v>
+        <v>24300</v>
       </c>
       <c r="E52" s="3">
-        <v>17800</v>
+        <v>17400</v>
       </c>
       <c r="F52" s="3">
-        <v>12700</v>
+        <v>12400</v>
       </c>
       <c r="G52" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>629900</v>
+        <v>616900</v>
       </c>
       <c r="E54" s="3">
-        <v>480600</v>
+        <v>470700</v>
       </c>
       <c r="F54" s="3">
-        <v>296400</v>
+        <v>290300</v>
       </c>
       <c r="G54" s="3">
-        <v>201000</v>
+        <v>196900</v>
       </c>
       <c r="H54" s="3">
-        <v>141600</v>
+        <v>138700</v>
       </c>
       <c r="I54" s="3">
-        <v>97000</v>
+        <v>95000</v>
       </c>
       <c r="J54" s="3">
-        <v>75900</v>
+        <v>74300</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,19 +2405,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="E57" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F57" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="G57" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="H57" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I57" s="3">
         <v>2000</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18000</v>
+        <v>17700</v>
       </c>
       <c r="E58" s="3">
-        <v>14800</v>
+        <v>14500</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>26300</v>
+        <v>25700</v>
       </c>
       <c r="H58" s="3">
-        <v>39100</v>
+        <v>38300</v>
       </c>
       <c r="I58" s="3">
-        <v>20500</v>
+        <v>20100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>109500</v>
+        <v>107200</v>
       </c>
       <c r="E59" s="3">
-        <v>84100</v>
+        <v>82400</v>
       </c>
       <c r="F59" s="3">
-        <v>66500</v>
+        <v>65100</v>
       </c>
       <c r="G59" s="3">
-        <v>62400</v>
+        <v>61100</v>
       </c>
       <c r="H59" s="3">
-        <v>28800</v>
+        <v>28200</v>
       </c>
       <c r="I59" s="3">
-        <v>32400</v>
+        <v>31800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>136900</v>
+        <v>134000</v>
       </c>
       <c r="E60" s="3">
-        <v>101800</v>
+        <v>99700</v>
       </c>
       <c r="F60" s="3">
-        <v>72100</v>
+        <v>70700</v>
       </c>
       <c r="G60" s="3">
-        <v>94700</v>
+        <v>92700</v>
       </c>
       <c r="H60" s="3">
-        <v>72900</v>
+        <v>71400</v>
       </c>
       <c r="I60" s="3">
-        <v>55000</v>
+        <v>53800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,10 +2561,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>66700</v>
+        <v>65400</v>
       </c>
       <c r="E61" s="3">
-        <v>56200</v>
+        <v>55100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26100</v>
+        <v>25500</v>
       </c>
       <c r="E62" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="F62" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G62" s="3">
-        <v>13800</v>
+        <v>13500</v>
       </c>
       <c r="H62" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I62" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>229700</v>
+        <v>224900</v>
       </c>
       <c r="E66" s="3">
-        <v>166000</v>
+        <v>162600</v>
       </c>
       <c r="F66" s="3">
-        <v>75000</v>
+        <v>73500</v>
       </c>
       <c r="G66" s="3">
-        <v>108500</v>
+        <v>106300</v>
       </c>
       <c r="H66" s="3">
-        <v>76800</v>
+        <v>75200</v>
       </c>
       <c r="I66" s="3">
-        <v>57400</v>
+        <v>56200</v>
       </c>
       <c r="J66" s="3">
-        <v>41300</v>
+        <v>40400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>398600</v>
+        <v>390400</v>
       </c>
       <c r="E72" s="3">
-        <v>314600</v>
+        <v>308100</v>
       </c>
       <c r="F72" s="3">
-        <v>199400</v>
+        <v>195300</v>
       </c>
       <c r="G72" s="3">
-        <v>90600</v>
+        <v>88800</v>
       </c>
       <c r="H72" s="3">
-        <v>63000</v>
+        <v>61700</v>
       </c>
       <c r="I72" s="3">
-        <v>36100</v>
+        <v>35400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>400200</v>
+        <v>391900</v>
       </c>
       <c r="E76" s="3">
-        <v>314600</v>
+        <v>308100</v>
       </c>
       <c r="F76" s="3">
-        <v>221400</v>
+        <v>216800</v>
       </c>
       <c r="G76" s="3">
-        <v>92500</v>
+        <v>90600</v>
       </c>
       <c r="H76" s="3">
-        <v>64900</v>
+        <v>63500</v>
       </c>
       <c r="I76" s="3">
-        <v>39700</v>
+        <v>38800</v>
       </c>
       <c r="J76" s="3">
-        <v>34600</v>
+        <v>33900</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>57800</v>
+        <v>56600</v>
       </c>
       <c r="E81" s="3">
-        <v>28500</v>
+        <v>27900</v>
       </c>
       <c r="F81" s="3">
-        <v>32000</v>
+        <v>31300</v>
       </c>
       <c r="G81" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="H81" s="3">
-        <v>22400</v>
+        <v>21900</v>
       </c>
       <c r="I81" s="3">
-        <v>22200</v>
+        <v>21800</v>
       </c>
       <c r="J81" s="3">
-        <v>18000</v>
+        <v>17700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,19 +3302,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>31200</v>
+        <v>30600</v>
       </c>
       <c r="E83" s="3">
-        <v>24900</v>
+        <v>24400</v>
       </c>
       <c r="F83" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="G83" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="H83" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="I83" s="3">
         <v>3800</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>117600</v>
+        <v>115200</v>
       </c>
       <c r="E89" s="3">
-        <v>53600</v>
+        <v>52500</v>
       </c>
       <c r="F89" s="3">
-        <v>47100</v>
+        <v>46100</v>
       </c>
       <c r="G89" s="3">
-        <v>45200</v>
+        <v>44300</v>
       </c>
       <c r="H89" s="3">
-        <v>19600</v>
+        <v>19200</v>
       </c>
       <c r="I89" s="3">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,22 +3592,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="E91" s="3">
-        <v>-13200</v>
+        <v>-12900</v>
       </c>
       <c r="F91" s="3">
-        <v>-9800</v>
+        <v>-9600</v>
       </c>
       <c r="G91" s="3">
-        <v>-7300</v>
+        <v>-7100</v>
       </c>
       <c r="H91" s="3">
-        <v>-8600</v>
+        <v>-8400</v>
       </c>
       <c r="I91" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-142600</v>
+        <v>-139600</v>
       </c>
       <c r="E94" s="3">
-        <v>-39600</v>
+        <v>-38800</v>
       </c>
       <c r="F94" s="3">
-        <v>-13400</v>
+        <v>-13100</v>
       </c>
       <c r="G94" s="3">
-        <v>-42300</v>
+        <v>-41400</v>
       </c>
       <c r="H94" s="3">
-        <v>-26000</v>
+        <v>-25400</v>
       </c>
       <c r="I94" s="3">
-        <v>-9700</v>
+        <v>-9500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15900</v>
+        <v>-15500</v>
       </c>
       <c r="E100" s="3">
-        <v>27800</v>
+        <v>27200</v>
       </c>
       <c r="F100" s="3">
-        <v>35100</v>
+        <v>34400</v>
       </c>
       <c r="G100" s="3">
-        <v>-14300</v>
+        <v>-14000</v>
       </c>
       <c r="H100" s="3">
-        <v>19800</v>
+        <v>19300</v>
       </c>
       <c r="I100" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3966,7 +3966,7 @@
         <v>-300</v>
       </c>
       <c r="F101" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>700</v>
       </c>
       <c r="I101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-41900</v>
+        <v>-41000</v>
       </c>
       <c r="E102" s="3">
-        <v>41500</v>
+        <v>40600</v>
       </c>
       <c r="F102" s="3">
-        <v>73400</v>
+        <v>71900</v>
       </c>
       <c r="G102" s="3">
-        <v>-11300</v>
+        <v>-11100</v>
       </c>
       <c r="H102" s="3">
-        <v>14100</v>
+        <v>13800</v>
       </c>
       <c r="I102" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>581800</v>
+        <v>544400</v>
       </c>
       <c r="E8" s="3">
-        <v>457500</v>
+        <v>428100</v>
       </c>
       <c r="F8" s="3">
-        <v>375300</v>
+        <v>351200</v>
       </c>
       <c r="G8" s="3">
-        <v>283700</v>
+        <v>265500</v>
       </c>
       <c r="H8" s="3">
-        <v>207800</v>
+        <v>194400</v>
       </c>
       <c r="I8" s="3">
-        <v>150500</v>
+        <v>140800</v>
       </c>
       <c r="J8" s="3">
-        <v>109600</v>
+        <v>102600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>381300</v>
+        <v>356800</v>
       </c>
       <c r="E9" s="3">
-        <v>326900</v>
+        <v>305900</v>
       </c>
       <c r="F9" s="3">
-        <v>246500</v>
+        <v>230700</v>
       </c>
       <c r="G9" s="3">
-        <v>189600</v>
+        <v>177400</v>
       </c>
       <c r="H9" s="3">
-        <v>141800</v>
+        <v>132700</v>
       </c>
       <c r="I9" s="3">
-        <v>97800</v>
+        <v>91500</v>
       </c>
       <c r="J9" s="3">
-        <v>69600</v>
+        <v>65100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200500</v>
+        <v>187700</v>
       </c>
       <c r="E10" s="3">
-        <v>130600</v>
+        <v>122200</v>
       </c>
       <c r="F10" s="3">
-        <v>128800</v>
+        <v>120600</v>
       </c>
       <c r="G10" s="3">
-        <v>94100</v>
+        <v>88000</v>
       </c>
       <c r="H10" s="3">
-        <v>66000</v>
+        <v>61700</v>
       </c>
       <c r="I10" s="3">
-        <v>52600</v>
+        <v>49300</v>
       </c>
       <c r="J10" s="3">
-        <v>40000</v>
+        <v>37500</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -939,16 +939,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H14" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>499000</v>
+        <v>466900</v>
       </c>
       <c r="E17" s="3">
-        <v>426100</v>
+        <v>398700</v>
       </c>
       <c r="F17" s="3">
-        <v>332400</v>
+        <v>311000</v>
       </c>
       <c r="G17" s="3">
-        <v>250500</v>
+        <v>234400</v>
       </c>
       <c r="H17" s="3">
-        <v>177700</v>
+        <v>166300</v>
       </c>
       <c r="I17" s="3">
-        <v>124500</v>
+        <v>116500</v>
       </c>
       <c r="J17" s="3">
-        <v>87500</v>
+        <v>81900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>82800</v>
+        <v>77500</v>
       </c>
       <c r="E18" s="3">
-        <v>31400</v>
+        <v>29400</v>
       </c>
       <c r="F18" s="3">
-        <v>43000</v>
+        <v>40200</v>
       </c>
       <c r="G18" s="3">
-        <v>33200</v>
+        <v>31000</v>
       </c>
       <c r="H18" s="3">
-        <v>30100</v>
+        <v>28100</v>
       </c>
       <c r="I18" s="3">
-        <v>26000</v>
+        <v>24300</v>
       </c>
       <c r="J18" s="3">
-        <v>22100</v>
+        <v>20700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9300</v>
+        <v>-8700</v>
       </c>
       <c r="E20" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="F20" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="G20" s="3">
         <v>-300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="I20" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J20" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>104400</v>
+        <v>97500</v>
       </c>
       <c r="E21" s="3">
-        <v>60100</v>
+        <v>56000</v>
       </c>
       <c r="F21" s="3">
-        <v>50100</v>
+        <v>46800</v>
       </c>
       <c r="G21" s="3">
-        <v>41100</v>
+        <v>38400</v>
       </c>
       <c r="H21" s="3">
-        <v>34400</v>
+        <v>32200</v>
       </c>
       <c r="I21" s="3">
-        <v>31100</v>
+        <v>29100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E22" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>70900</v>
+        <v>66300</v>
       </c>
       <c r="E23" s="3">
-        <v>32900</v>
+        <v>30800</v>
       </c>
       <c r="F23" s="3">
-        <v>39200</v>
+        <v>36700</v>
       </c>
       <c r="G23" s="3">
-        <v>32100</v>
+        <v>30100</v>
       </c>
       <c r="H23" s="3">
-        <v>28300</v>
+        <v>26500</v>
       </c>
       <c r="I23" s="3">
-        <v>27200</v>
+        <v>25400</v>
       </c>
       <c r="J23" s="3">
-        <v>19800</v>
+        <v>18500</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="E24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
-        <v>7900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>7400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>5400</v>
-      </c>
       <c r="J24" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>56600</v>
+        <v>53000</v>
       </c>
       <c r="E26" s="3">
-        <v>27900</v>
+        <v>26100</v>
       </c>
       <c r="F26" s="3">
-        <v>31300</v>
+        <v>29300</v>
       </c>
       <c r="G26" s="3">
-        <v>24700</v>
+        <v>23100</v>
       </c>
       <c r="H26" s="3">
-        <v>21900</v>
+        <v>20500</v>
       </c>
       <c r="I26" s="3">
-        <v>21800</v>
+        <v>20400</v>
       </c>
       <c r="J26" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56600</v>
+        <v>53000</v>
       </c>
       <c r="E27" s="3">
-        <v>27900</v>
+        <v>26100</v>
       </c>
       <c r="F27" s="3">
-        <v>31300</v>
+        <v>29300</v>
       </c>
       <c r="G27" s="3">
-        <v>24700</v>
+        <v>23100</v>
       </c>
       <c r="H27" s="3">
-        <v>21900</v>
+        <v>20500</v>
       </c>
       <c r="I27" s="3">
-        <v>21800</v>
+        <v>20400</v>
       </c>
       <c r="J27" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9300</v>
+        <v>8700</v>
       </c>
       <c r="E32" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="F32" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="G32" s="3">
         <v>300</v>
       </c>
       <c r="H32" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="J32" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56600</v>
+        <v>53000</v>
       </c>
       <c r="E33" s="3">
-        <v>27900</v>
+        <v>26100</v>
       </c>
       <c r="F33" s="3">
-        <v>31300</v>
+        <v>29300</v>
       </c>
       <c r="G33" s="3">
-        <v>24700</v>
+        <v>23100</v>
       </c>
       <c r="H33" s="3">
-        <v>21900</v>
+        <v>20500</v>
       </c>
       <c r="I33" s="3">
-        <v>21800</v>
+        <v>20400</v>
       </c>
       <c r="J33" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56600</v>
+        <v>53000</v>
       </c>
       <c r="E35" s="3">
-        <v>27900</v>
+        <v>26100</v>
       </c>
       <c r="F35" s="3">
-        <v>31300</v>
+        <v>29300</v>
       </c>
       <c r="G35" s="3">
-        <v>24700</v>
+        <v>23100</v>
       </c>
       <c r="H35" s="3">
-        <v>21900</v>
+        <v>20500</v>
       </c>
       <c r="I35" s="3">
-        <v>21800</v>
+        <v>20400</v>
       </c>
       <c r="J35" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>91100</v>
+        <v>85300</v>
       </c>
       <c r="E41" s="3">
-        <v>132100</v>
+        <v>123600</v>
       </c>
       <c r="F41" s="3">
-        <v>91500</v>
+        <v>85600</v>
       </c>
       <c r="G41" s="3">
-        <v>19600</v>
+        <v>18400</v>
       </c>
       <c r="H41" s="3">
-        <v>30700</v>
+        <v>28800</v>
       </c>
       <c r="I41" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="J41" s="3">
-        <v>17400</v>
+        <v>16300</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1867,7 +1867,7 @@
         <v>700</v>
       </c>
       <c r="E42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>147400</v>
+        <v>138000</v>
       </c>
       <c r="E43" s="3">
-        <v>102700</v>
+        <v>96100</v>
       </c>
       <c r="F43" s="3">
-        <v>79500</v>
+        <v>74400</v>
       </c>
       <c r="G43" s="3">
-        <v>63600</v>
+        <v>59500</v>
       </c>
       <c r="H43" s="3">
-        <v>52200</v>
+        <v>48900</v>
       </c>
       <c r="I43" s="3">
-        <v>37900</v>
+        <v>35500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="E45" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="F45" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="G45" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="H45" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I45" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>247300</v>
+        <v>231400</v>
       </c>
       <c r="E46" s="3">
-        <v>244400</v>
+        <v>228700</v>
       </c>
       <c r="F46" s="3">
-        <v>178400</v>
+        <v>167000</v>
       </c>
       <c r="G46" s="3">
-        <v>88800</v>
+        <v>83100</v>
       </c>
       <c r="H46" s="3">
-        <v>85800</v>
+        <v>80300</v>
       </c>
       <c r="I46" s="3">
-        <v>58000</v>
+        <v>54300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,7 +2059,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E47" s="3">
         <v>800</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>91900</v>
+        <v>86000</v>
       </c>
       <c r="E48" s="3">
-        <v>83300</v>
+        <v>77900</v>
       </c>
       <c r="F48" s="3">
-        <v>13800</v>
+        <v>12900</v>
       </c>
       <c r="G48" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="H48" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="I48" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2137,22 +2137,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>252900</v>
+        <v>236600</v>
       </c>
       <c r="E49" s="3">
-        <v>124800</v>
+        <v>116800</v>
       </c>
       <c r="F49" s="3">
-        <v>85600</v>
+        <v>80100</v>
       </c>
       <c r="G49" s="3">
-        <v>93700</v>
+        <v>87600</v>
       </c>
       <c r="H49" s="3">
-        <v>42000</v>
+        <v>39300</v>
       </c>
       <c r="I49" s="3">
-        <v>29400</v>
+        <v>27500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2254,16 +2254,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24300</v>
+        <v>22800</v>
       </c>
       <c r="E52" s="3">
-        <v>17400</v>
+        <v>16300</v>
       </c>
       <c r="F52" s="3">
-        <v>12400</v>
+        <v>11700</v>
       </c>
       <c r="G52" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="H52" s="3">
         <v>1100</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>616900</v>
+        <v>577300</v>
       </c>
       <c r="E54" s="3">
-        <v>470700</v>
+        <v>440400</v>
       </c>
       <c r="F54" s="3">
-        <v>290300</v>
+        <v>271600</v>
       </c>
       <c r="G54" s="3">
-        <v>196900</v>
+        <v>184200</v>
       </c>
       <c r="H54" s="3">
-        <v>138700</v>
+        <v>129800</v>
       </c>
       <c r="I54" s="3">
-        <v>95000</v>
+        <v>88900</v>
       </c>
       <c r="J54" s="3">
-        <v>74300</v>
+        <v>69500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9100</v>
+        <v>8500</v>
       </c>
       <c r="E57" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="F57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
-        <v>5900</v>
-      </c>
       <c r="H57" s="3">
-        <v>4900</v>
+        <v>4500</v>
       </c>
       <c r="I57" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="E58" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>25700</v>
+        <v>24100</v>
       </c>
       <c r="H58" s="3">
-        <v>38300</v>
+        <v>35900</v>
       </c>
       <c r="I58" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>107200</v>
+        <v>100400</v>
       </c>
       <c r="E59" s="3">
-        <v>82400</v>
+        <v>77100</v>
       </c>
       <c r="F59" s="3">
-        <v>65100</v>
+        <v>60900</v>
       </c>
       <c r="G59" s="3">
-        <v>61100</v>
+        <v>57200</v>
       </c>
       <c r="H59" s="3">
-        <v>28200</v>
+        <v>26400</v>
       </c>
       <c r="I59" s="3">
-        <v>31800</v>
+        <v>29700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>134000</v>
+        <v>125400</v>
       </c>
       <c r="E60" s="3">
-        <v>99700</v>
+        <v>93300</v>
       </c>
       <c r="F60" s="3">
-        <v>70700</v>
+        <v>66100</v>
       </c>
       <c r="G60" s="3">
-        <v>92700</v>
+        <v>86800</v>
       </c>
       <c r="H60" s="3">
-        <v>71400</v>
+        <v>66800</v>
       </c>
       <c r="I60" s="3">
-        <v>53800</v>
+        <v>50400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,10 +2561,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>65400</v>
+        <v>61200</v>
       </c>
       <c r="E61" s="3">
-        <v>55100</v>
+        <v>51500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25500</v>
+        <v>23900</v>
       </c>
       <c r="E62" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="F62" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G62" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="H62" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="I62" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>224900</v>
+        <v>210500</v>
       </c>
       <c r="E66" s="3">
-        <v>162600</v>
+        <v>152200</v>
       </c>
       <c r="F66" s="3">
-        <v>73500</v>
+        <v>68700</v>
       </c>
       <c r="G66" s="3">
-        <v>106300</v>
+        <v>99400</v>
       </c>
       <c r="H66" s="3">
-        <v>75200</v>
+        <v>70300</v>
       </c>
       <c r="I66" s="3">
-        <v>56200</v>
+        <v>52600</v>
       </c>
       <c r="J66" s="3">
-        <v>40400</v>
+        <v>37800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>390400</v>
+        <v>365300</v>
       </c>
       <c r="E72" s="3">
-        <v>308100</v>
+        <v>288300</v>
       </c>
       <c r="F72" s="3">
-        <v>195300</v>
+        <v>182800</v>
       </c>
       <c r="G72" s="3">
-        <v>88800</v>
+        <v>83100</v>
       </c>
       <c r="H72" s="3">
-        <v>61700</v>
+        <v>57700</v>
       </c>
       <c r="I72" s="3">
-        <v>35400</v>
+        <v>33100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>391900</v>
+        <v>366800</v>
       </c>
       <c r="E76" s="3">
-        <v>308100</v>
+        <v>288300</v>
       </c>
       <c r="F76" s="3">
-        <v>216800</v>
+        <v>202900</v>
       </c>
       <c r="G76" s="3">
-        <v>90600</v>
+        <v>84800</v>
       </c>
       <c r="H76" s="3">
-        <v>63500</v>
+        <v>59400</v>
       </c>
       <c r="I76" s="3">
-        <v>38800</v>
+        <v>36300</v>
       </c>
       <c r="J76" s="3">
-        <v>33900</v>
+        <v>31700</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56600</v>
+        <v>53000</v>
       </c>
       <c r="E81" s="3">
-        <v>27900</v>
+        <v>26100</v>
       </c>
       <c r="F81" s="3">
-        <v>31300</v>
+        <v>29300</v>
       </c>
       <c r="G81" s="3">
-        <v>24700</v>
+        <v>23100</v>
       </c>
       <c r="H81" s="3">
-        <v>21900</v>
+        <v>20500</v>
       </c>
       <c r="I81" s="3">
-        <v>21800</v>
+        <v>20400</v>
       </c>
       <c r="J81" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30600</v>
+        <v>28600</v>
       </c>
       <c r="E83" s="3">
-        <v>24400</v>
+        <v>22800</v>
       </c>
       <c r="F83" s="3">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="G83" s="3">
-        <v>8200</v>
+        <v>7600</v>
       </c>
       <c r="H83" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="I83" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>115200</v>
+        <v>107800</v>
       </c>
       <c r="E89" s="3">
-        <v>52500</v>
+        <v>49100</v>
       </c>
       <c r="F89" s="3">
-        <v>46100</v>
+        <v>43100</v>
       </c>
       <c r="G89" s="3">
-        <v>44300</v>
+        <v>41500</v>
       </c>
       <c r="H89" s="3">
-        <v>19200</v>
+        <v>18000</v>
       </c>
       <c r="I89" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,22 +3592,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8000</v>
+        <v>-7500</v>
       </c>
       <c r="E91" s="3">
-        <v>-12900</v>
+        <v>-12100</v>
       </c>
       <c r="F91" s="3">
-        <v>-9600</v>
+        <v>-9000</v>
       </c>
       <c r="G91" s="3">
-        <v>-7100</v>
+        <v>-6700</v>
       </c>
       <c r="H91" s="3">
-        <v>-8400</v>
+        <v>-7900</v>
       </c>
       <c r="I91" s="3">
-        <v>-3600</v>
+        <v>-3300</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-139600</v>
+        <v>-130600</v>
       </c>
       <c r="E94" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-38800</v>
       </c>
-      <c r="F94" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-41400</v>
-      </c>
       <c r="H94" s="3">
-        <v>-25400</v>
+        <v>-23800</v>
       </c>
       <c r="I94" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15500</v>
+        <v>-14500</v>
       </c>
       <c r="E100" s="3">
-        <v>27200</v>
+        <v>25500</v>
       </c>
       <c r="F100" s="3">
-        <v>34400</v>
+        <v>32200</v>
       </c>
       <c r="G100" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="H100" s="3">
-        <v>19300</v>
+        <v>18100</v>
       </c>
       <c r="I100" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3966,7 +3966,7 @@
         <v>-300</v>
       </c>
       <c r="F101" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3999,19 +3999,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-41000</v>
+        <v>-38400</v>
       </c>
       <c r="E102" s="3">
-        <v>40600</v>
+        <v>38000</v>
       </c>
       <c r="F102" s="3">
-        <v>71900</v>
+        <v>67200</v>
       </c>
       <c r="G102" s="3">
-        <v>-11100</v>
+        <v>-10400</v>
       </c>
       <c r="H102" s="3">
-        <v>13800</v>
+        <v>13000</v>
       </c>
       <c r="I102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>544400</v>
+        <v>527900</v>
       </c>
       <c r="E8" s="3">
-        <v>428100</v>
+        <v>415100</v>
       </c>
       <c r="F8" s="3">
-        <v>351200</v>
+        <v>340600</v>
       </c>
       <c r="G8" s="3">
-        <v>265500</v>
+        <v>257400</v>
       </c>
       <c r="H8" s="3">
-        <v>194400</v>
+        <v>188500</v>
       </c>
       <c r="I8" s="3">
-        <v>140800</v>
+        <v>136500</v>
       </c>
       <c r="J8" s="3">
-        <v>102600</v>
+        <v>99500</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>356800</v>
+        <v>346000</v>
       </c>
       <c r="E9" s="3">
-        <v>305900</v>
+        <v>296700</v>
       </c>
       <c r="F9" s="3">
-        <v>230700</v>
+        <v>223700</v>
       </c>
       <c r="G9" s="3">
-        <v>177400</v>
+        <v>172000</v>
       </c>
       <c r="H9" s="3">
-        <v>132700</v>
+        <v>128700</v>
       </c>
       <c r="I9" s="3">
-        <v>91500</v>
+        <v>88800</v>
       </c>
       <c r="J9" s="3">
-        <v>65100</v>
+        <v>63200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>187700</v>
+        <v>182000</v>
       </c>
       <c r="E10" s="3">
-        <v>122200</v>
+        <v>118500</v>
       </c>
       <c r="F10" s="3">
-        <v>120600</v>
+        <v>116900</v>
       </c>
       <c r="G10" s="3">
-        <v>88000</v>
+        <v>85400</v>
       </c>
       <c r="H10" s="3">
-        <v>61700</v>
+        <v>59900</v>
       </c>
       <c r="I10" s="3">
-        <v>49300</v>
+        <v>47800</v>
       </c>
       <c r="J10" s="3">
-        <v>37500</v>
+        <v>36300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>466900</v>
+        <v>452800</v>
       </c>
       <c r="E17" s="3">
-        <v>398700</v>
+        <v>386600</v>
       </c>
       <c r="F17" s="3">
-        <v>311000</v>
+        <v>301600</v>
       </c>
       <c r="G17" s="3">
-        <v>234400</v>
+        <v>227300</v>
       </c>
       <c r="H17" s="3">
-        <v>166300</v>
+        <v>161200</v>
       </c>
       <c r="I17" s="3">
-        <v>116500</v>
+        <v>113000</v>
       </c>
       <c r="J17" s="3">
-        <v>81900</v>
+        <v>79400</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>77500</v>
+        <v>75200</v>
       </c>
       <c r="E18" s="3">
-        <v>29400</v>
+        <v>28500</v>
       </c>
       <c r="F18" s="3">
-        <v>40200</v>
+        <v>39000</v>
       </c>
       <c r="G18" s="3">
-        <v>31000</v>
+        <v>30100</v>
       </c>
       <c r="H18" s="3">
-        <v>28100</v>
+        <v>27300</v>
       </c>
       <c r="I18" s="3">
-        <v>24300</v>
+        <v>23600</v>
       </c>
       <c r="J18" s="3">
-        <v>20700</v>
+        <v>20100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8700</v>
+        <v>-8400</v>
       </c>
       <c r="E20" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="G20" s="3">
         <v>-300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I20" s="3">
         <v>1200</v>
       </c>
       <c r="J20" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>97500</v>
+        <v>94400</v>
       </c>
       <c r="E21" s="3">
-        <v>56000</v>
+        <v>54200</v>
       </c>
       <c r="F21" s="3">
-        <v>46800</v>
+        <v>45300</v>
       </c>
       <c r="G21" s="3">
-        <v>38400</v>
+        <v>37200</v>
       </c>
       <c r="H21" s="3">
-        <v>32200</v>
+        <v>31200</v>
       </c>
       <c r="I21" s="3">
-        <v>29100</v>
+        <v>28200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>66300</v>
+        <v>64300</v>
       </c>
       <c r="E23" s="3">
-        <v>30800</v>
+        <v>29900</v>
       </c>
       <c r="F23" s="3">
-        <v>36700</v>
+        <v>35600</v>
       </c>
       <c r="G23" s="3">
-        <v>30100</v>
+        <v>29200</v>
       </c>
       <c r="H23" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="I23" s="3">
-        <v>25400</v>
+        <v>24600</v>
       </c>
       <c r="J23" s="3">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,22 +1279,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="E24" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="F24" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="G24" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="H24" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I24" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="J24" s="3">
         <v>2000</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>53000</v>
+        <v>51400</v>
       </c>
       <c r="E26" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="F26" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="G26" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="H26" s="3">
-        <v>20500</v>
+        <v>19900</v>
       </c>
       <c r="I26" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="J26" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>53000</v>
+        <v>51400</v>
       </c>
       <c r="E27" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="F27" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="G27" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="H27" s="3">
-        <v>20500</v>
+        <v>19900</v>
       </c>
       <c r="I27" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="J27" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="E32" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="F32" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G32" s="3">
         <v>300</v>
       </c>
       <c r="H32" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I32" s="3">
         <v>-1200</v>
       </c>
       <c r="J32" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>53000</v>
+        <v>51400</v>
       </c>
       <c r="E33" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="F33" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="G33" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="H33" s="3">
-        <v>20500</v>
+        <v>19900</v>
       </c>
       <c r="I33" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="J33" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>53000</v>
+        <v>51400</v>
       </c>
       <c r="E35" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="F35" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="G35" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="H35" s="3">
-        <v>20500</v>
+        <v>19900</v>
       </c>
       <c r="I35" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="J35" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>85300</v>
+        <v>82700</v>
       </c>
       <c r="E41" s="3">
-        <v>123600</v>
+        <v>119900</v>
       </c>
       <c r="F41" s="3">
-        <v>85600</v>
+        <v>83000</v>
       </c>
       <c r="G41" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="H41" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="I41" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J41" s="3">
         <v>15800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>16300</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>138000</v>
+        <v>133800</v>
       </c>
       <c r="E43" s="3">
-        <v>96100</v>
+        <v>93200</v>
       </c>
       <c r="F43" s="3">
-        <v>74400</v>
+        <v>72100</v>
       </c>
       <c r="G43" s="3">
-        <v>59500</v>
+        <v>57700</v>
       </c>
       <c r="H43" s="3">
-        <v>48900</v>
+        <v>47400</v>
       </c>
       <c r="I43" s="3">
-        <v>35500</v>
+        <v>34400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="E45" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="F45" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="G45" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H45" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I45" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>231400</v>
+        <v>224400</v>
       </c>
       <c r="E46" s="3">
-        <v>228700</v>
+        <v>221700</v>
       </c>
       <c r="F46" s="3">
-        <v>167000</v>
+        <v>161900</v>
       </c>
       <c r="G46" s="3">
-        <v>83100</v>
+        <v>80500</v>
       </c>
       <c r="H46" s="3">
-        <v>80300</v>
+        <v>77800</v>
       </c>
       <c r="I46" s="3">
-        <v>54300</v>
+        <v>52600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>86000</v>
+        <v>83400</v>
       </c>
       <c r="E48" s="3">
-        <v>77900</v>
+        <v>75600</v>
       </c>
       <c r="F48" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="G48" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="H48" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="I48" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2137,22 +2137,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>236600</v>
+        <v>229400</v>
       </c>
       <c r="E49" s="3">
-        <v>116800</v>
+        <v>113300</v>
       </c>
       <c r="F49" s="3">
-        <v>80100</v>
+        <v>77700</v>
       </c>
       <c r="G49" s="3">
-        <v>87600</v>
+        <v>85000</v>
       </c>
       <c r="H49" s="3">
-        <v>39300</v>
+        <v>38100</v>
       </c>
       <c r="I49" s="3">
-        <v>27500</v>
+        <v>26700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="E52" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="F52" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="G52" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>577300</v>
+        <v>559800</v>
       </c>
       <c r="E54" s="3">
-        <v>440400</v>
+        <v>427100</v>
       </c>
       <c r="F54" s="3">
-        <v>271600</v>
+        <v>263400</v>
       </c>
       <c r="G54" s="3">
-        <v>184200</v>
+        <v>178600</v>
       </c>
       <c r="H54" s="3">
-        <v>129800</v>
+        <v>125800</v>
       </c>
       <c r="I54" s="3">
-        <v>88900</v>
+        <v>86200</v>
       </c>
       <c r="J54" s="3">
-        <v>69500</v>
+        <v>67400</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="E57" s="3">
         <v>2600</v>
       </c>
       <c r="F57" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="G57" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="H57" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I57" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="E58" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>24100</v>
+        <v>23400</v>
       </c>
       <c r="H58" s="3">
-        <v>35900</v>
+        <v>34800</v>
       </c>
       <c r="I58" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100400</v>
+        <v>97300</v>
       </c>
       <c r="E59" s="3">
-        <v>77100</v>
+        <v>74800</v>
       </c>
       <c r="F59" s="3">
-        <v>60900</v>
+        <v>59100</v>
       </c>
       <c r="G59" s="3">
-        <v>57200</v>
+        <v>55500</v>
       </c>
       <c r="H59" s="3">
-        <v>26400</v>
+        <v>25600</v>
       </c>
       <c r="I59" s="3">
-        <v>29700</v>
+        <v>28800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>125400</v>
+        <v>121600</v>
       </c>
       <c r="E60" s="3">
-        <v>93300</v>
+        <v>90500</v>
       </c>
       <c r="F60" s="3">
-        <v>66100</v>
+        <v>64100</v>
       </c>
       <c r="G60" s="3">
-        <v>86800</v>
+        <v>84100</v>
       </c>
       <c r="H60" s="3">
-        <v>66800</v>
+        <v>64800</v>
       </c>
       <c r="I60" s="3">
-        <v>50400</v>
+        <v>48800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,10 +2561,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61200</v>
+        <v>59300</v>
       </c>
       <c r="E61" s="3">
-        <v>51500</v>
+        <v>50000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23900</v>
+        <v>23200</v>
       </c>
       <c r="E62" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="F62" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G62" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="H62" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>210500</v>
+        <v>204100</v>
       </c>
       <c r="E66" s="3">
-        <v>152200</v>
+        <v>147500</v>
       </c>
       <c r="F66" s="3">
-        <v>68700</v>
+        <v>66700</v>
       </c>
       <c r="G66" s="3">
-        <v>99400</v>
+        <v>96400</v>
       </c>
       <c r="H66" s="3">
-        <v>70300</v>
+        <v>68200</v>
       </c>
       <c r="I66" s="3">
-        <v>52600</v>
+        <v>51000</v>
       </c>
       <c r="J66" s="3">
-        <v>37800</v>
+        <v>36700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>365300</v>
+        <v>354200</v>
       </c>
       <c r="E72" s="3">
-        <v>288300</v>
+        <v>279600</v>
       </c>
       <c r="F72" s="3">
-        <v>182800</v>
+        <v>177200</v>
       </c>
       <c r="G72" s="3">
-        <v>83100</v>
+        <v>80600</v>
       </c>
       <c r="H72" s="3">
-        <v>57700</v>
+        <v>56000</v>
       </c>
       <c r="I72" s="3">
-        <v>33100</v>
+        <v>32100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>366800</v>
+        <v>355700</v>
       </c>
       <c r="E76" s="3">
-        <v>288300</v>
+        <v>279600</v>
       </c>
       <c r="F76" s="3">
-        <v>202900</v>
+        <v>196800</v>
       </c>
       <c r="G76" s="3">
-        <v>84800</v>
+        <v>82200</v>
       </c>
       <c r="H76" s="3">
-        <v>59400</v>
+        <v>57600</v>
       </c>
       <c r="I76" s="3">
-        <v>36300</v>
+        <v>35200</v>
       </c>
       <c r="J76" s="3">
-        <v>31700</v>
+        <v>30700</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>53000</v>
+        <v>51400</v>
       </c>
       <c r="E81" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="F81" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="G81" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="H81" s="3">
-        <v>20500</v>
+        <v>19900</v>
       </c>
       <c r="I81" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="J81" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28600</v>
+        <v>27700</v>
       </c>
       <c r="E83" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="F83" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="G83" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="H83" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="I83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>107800</v>
+        <v>104500</v>
       </c>
       <c r="E89" s="3">
-        <v>49100</v>
+        <v>47600</v>
       </c>
       <c r="F89" s="3">
-        <v>43100</v>
+        <v>41800</v>
       </c>
       <c r="G89" s="3">
-        <v>41500</v>
+        <v>40200</v>
       </c>
       <c r="H89" s="3">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="I89" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,22 +3592,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7500</v>
+        <v>-7200</v>
       </c>
       <c r="E91" s="3">
-        <v>-12100</v>
+        <v>-11700</v>
       </c>
       <c r="F91" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="G91" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="H91" s="3">
-        <v>-7900</v>
+        <v>-7700</v>
       </c>
       <c r="I91" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-130600</v>
+        <v>-126700</v>
       </c>
       <c r="E94" s="3">
-        <v>-36300</v>
+        <v>-35200</v>
       </c>
       <c r="F94" s="3">
-        <v>-12300</v>
+        <v>-11900</v>
       </c>
       <c r="G94" s="3">
-        <v>-38800</v>
+        <v>-37600</v>
       </c>
       <c r="H94" s="3">
-        <v>-23800</v>
+        <v>-23100</v>
       </c>
       <c r="I94" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14500</v>
+        <v>-14100</v>
       </c>
       <c r="E100" s="3">
-        <v>25500</v>
+        <v>24700</v>
       </c>
       <c r="F100" s="3">
-        <v>32200</v>
+        <v>31200</v>
       </c>
       <c r="G100" s="3">
-        <v>-13100</v>
+        <v>-12700</v>
       </c>
       <c r="H100" s="3">
-        <v>18100</v>
+        <v>17600</v>
       </c>
       <c r="I100" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,19 +3960,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
         <v>-300</v>
       </c>
       <c r="F101" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I101" s="3">
         <v>700</v>
@@ -3999,19 +3999,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-38400</v>
+        <v>-37200</v>
       </c>
       <c r="E102" s="3">
-        <v>38000</v>
+        <v>36900</v>
       </c>
       <c r="F102" s="3">
-        <v>67200</v>
+        <v>65200</v>
       </c>
       <c r="G102" s="3">
-        <v>-10400</v>
+        <v>-10100</v>
       </c>
       <c r="H102" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="I102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,49 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,36 +717,39 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>527900</v>
+        <v>766900</v>
       </c>
       <c r="E8" s="3">
-        <v>415100</v>
+        <v>522700</v>
       </c>
       <c r="F8" s="3">
-        <v>340600</v>
+        <v>411100</v>
       </c>
       <c r="G8" s="3">
-        <v>257400</v>
+        <v>337300</v>
       </c>
       <c r="H8" s="3">
-        <v>188500</v>
+        <v>254900</v>
       </c>
       <c r="I8" s="3">
-        <v>136500</v>
+        <v>186700</v>
       </c>
       <c r="J8" s="3">
+        <v>135200</v>
+      </c>
+      <c r="K8" s="3">
         <v>99500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -756,36 +759,39 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>346000</v>
+        <v>515000</v>
       </c>
       <c r="E9" s="3">
-        <v>296700</v>
+        <v>345800</v>
       </c>
       <c r="F9" s="3">
-        <v>223700</v>
+        <v>296100</v>
       </c>
       <c r="G9" s="3">
-        <v>172000</v>
+        <v>221500</v>
       </c>
       <c r="H9" s="3">
-        <v>128700</v>
+        <v>170400</v>
       </c>
       <c r="I9" s="3">
-        <v>88800</v>
+        <v>127400</v>
       </c>
       <c r="J9" s="3">
+        <v>87900</v>
+      </c>
+      <c r="K9" s="3">
         <v>63200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,36 +801,39 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>182000</v>
+        <v>251900</v>
       </c>
       <c r="E10" s="3">
-        <v>118500</v>
+        <v>176900</v>
       </c>
       <c r="F10" s="3">
-        <v>116900</v>
+        <v>114900</v>
       </c>
       <c r="G10" s="3">
-        <v>85400</v>
+        <v>115800</v>
       </c>
       <c r="H10" s="3">
-        <v>59900</v>
+        <v>84500</v>
       </c>
       <c r="I10" s="3">
-        <v>47800</v>
+        <v>59300</v>
       </c>
       <c r="J10" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K10" s="3">
         <v>36300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,30 +945,33 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E14" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>600</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -968,9 +987,12 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,35 +1047,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>452800</v>
+        <v>655200</v>
       </c>
       <c r="E17" s="3">
-        <v>386600</v>
+        <v>448300</v>
       </c>
       <c r="F17" s="3">
-        <v>301600</v>
+        <v>384500</v>
       </c>
       <c r="G17" s="3">
-        <v>227300</v>
+        <v>298600</v>
       </c>
       <c r="H17" s="3">
-        <v>161200</v>
+        <v>225100</v>
       </c>
       <c r="I17" s="3">
-        <v>113000</v>
+        <v>159700</v>
       </c>
       <c r="J17" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K17" s="3">
         <v>79400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,36 +1086,39 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>75200</v>
+        <v>111700</v>
       </c>
       <c r="E18" s="3">
-        <v>28500</v>
+        <v>74400</v>
       </c>
       <c r="F18" s="3">
-        <v>39000</v>
+        <v>26500</v>
       </c>
       <c r="G18" s="3">
-        <v>30100</v>
+        <v>38600</v>
       </c>
       <c r="H18" s="3">
-        <v>27300</v>
+        <v>29800</v>
       </c>
       <c r="I18" s="3">
-        <v>23600</v>
+        <v>27000</v>
       </c>
       <c r="J18" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K18" s="3">
         <v>20100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1099,9 +1128,12 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,35 +1149,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8400</v>
       </c>
-      <c r="E20" s="3">
-        <v>3600</v>
-      </c>
       <c r="F20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,32 +1188,35 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>94400</v>
+        <v>154800</v>
       </c>
       <c r="E21" s="3">
-        <v>54200</v>
+        <v>91900</v>
       </c>
       <c r="F21" s="3">
-        <v>45300</v>
+        <v>50300</v>
       </c>
       <c r="G21" s="3">
-        <v>37200</v>
+        <v>44600</v>
       </c>
       <c r="H21" s="3">
-        <v>31200</v>
+        <v>36700</v>
       </c>
       <c r="I21" s="3">
-        <v>28200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>30700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>27800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1194,33 +1230,36 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,36 +1272,39 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>64300</v>
+        <v>119900</v>
       </c>
       <c r="E23" s="3">
-        <v>29900</v>
+        <v>63700</v>
       </c>
       <c r="F23" s="3">
-        <v>35600</v>
+        <v>27400</v>
       </c>
       <c r="G23" s="3">
-        <v>29200</v>
+        <v>35300</v>
       </c>
       <c r="H23" s="3">
-        <v>25700</v>
+        <v>28900</v>
       </c>
       <c r="I23" s="3">
-        <v>24600</v>
+        <v>25400</v>
       </c>
       <c r="J23" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K23" s="3">
         <v>18000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1272,36 +1314,39 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12900</v>
+        <v>22600</v>
       </c>
       <c r="E24" s="3">
-        <v>4500</v>
+        <v>12800</v>
       </c>
       <c r="F24" s="3">
-        <v>7200</v>
+        <v>4000</v>
       </c>
       <c r="G24" s="3">
-        <v>6700</v>
+        <v>7100</v>
       </c>
       <c r="H24" s="3">
-        <v>5800</v>
+        <v>6600</v>
       </c>
       <c r="I24" s="3">
-        <v>4900</v>
+        <v>5700</v>
       </c>
       <c r="J24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1311,9 +1356,12 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,36 +1398,39 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>51400</v>
+        <v>97300</v>
       </c>
       <c r="E26" s="3">
-        <v>25300</v>
+        <v>50900</v>
       </c>
       <c r="F26" s="3">
-        <v>28400</v>
+        <v>23400</v>
       </c>
       <c r="G26" s="3">
-        <v>22400</v>
+        <v>28100</v>
       </c>
       <c r="H26" s="3">
-        <v>19900</v>
+        <v>22200</v>
       </c>
       <c r="I26" s="3">
-        <v>19800</v>
+        <v>19700</v>
       </c>
       <c r="J26" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K26" s="3">
         <v>16000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1389,36 +1440,39 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>51400</v>
+        <v>97300</v>
       </c>
       <c r="E27" s="3">
-        <v>25300</v>
+        <v>50900</v>
       </c>
       <c r="F27" s="3">
-        <v>28400</v>
+        <v>23400</v>
       </c>
       <c r="G27" s="3">
-        <v>22400</v>
+        <v>28100</v>
       </c>
       <c r="H27" s="3">
-        <v>19900</v>
+        <v>22200</v>
       </c>
       <c r="I27" s="3">
-        <v>19800</v>
+        <v>19700</v>
       </c>
       <c r="J27" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K27" s="3">
         <v>16000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,9 +1482,12 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,36 +1650,39 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E32" s="3">
         <v>8400</v>
       </c>
-      <c r="E32" s="3">
-        <v>-3600</v>
-      </c>
       <c r="F32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1623,36 +1692,39 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>51400</v>
+        <v>97300</v>
       </c>
       <c r="E33" s="3">
-        <v>25300</v>
+        <v>50900</v>
       </c>
       <c r="F33" s="3">
-        <v>28400</v>
+        <v>23400</v>
       </c>
       <c r="G33" s="3">
-        <v>22400</v>
+        <v>28100</v>
       </c>
       <c r="H33" s="3">
-        <v>19900</v>
+        <v>22200</v>
       </c>
       <c r="I33" s="3">
-        <v>19800</v>
+        <v>19700</v>
       </c>
       <c r="J33" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K33" s="3">
         <v>16000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1662,9 +1734,12 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,36 +1776,39 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>51400</v>
+        <v>97300</v>
       </c>
       <c r="E35" s="3">
-        <v>25300</v>
+        <v>50900</v>
       </c>
       <c r="F35" s="3">
-        <v>28400</v>
+        <v>23400</v>
       </c>
       <c r="G35" s="3">
-        <v>22400</v>
+        <v>28100</v>
       </c>
       <c r="H35" s="3">
-        <v>19900</v>
+        <v>22200</v>
       </c>
       <c r="I35" s="3">
-        <v>19800</v>
+        <v>19700</v>
       </c>
       <c r="J35" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K35" s="3">
         <v>16000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,41 +1818,44 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1784,9 +1865,12 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,35 +1904,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82700</v>
+        <v>190700</v>
       </c>
       <c r="E41" s="3">
-        <v>119900</v>
+        <v>81900</v>
       </c>
       <c r="F41" s="3">
-        <v>83000</v>
+        <v>118700</v>
       </c>
       <c r="G41" s="3">
-        <v>17800</v>
+        <v>82200</v>
       </c>
       <c r="H41" s="3">
-        <v>27900</v>
+        <v>17600</v>
       </c>
       <c r="I41" s="3">
-        <v>15300</v>
+        <v>27600</v>
       </c>
       <c r="J41" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K41" s="3">
         <v>15800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1857,20 +1943,23 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E42" s="3">
         <v>700</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+      <c r="F42" s="3">
+        <v>700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1887,8 +1976,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1896,32 +1985,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>133800</v>
+        <v>182900</v>
       </c>
       <c r="E43" s="3">
-        <v>93200</v>
+        <v>132500</v>
       </c>
       <c r="F43" s="3">
-        <v>72100</v>
+        <v>189000</v>
       </c>
       <c r="G43" s="3">
-        <v>57700</v>
+        <v>71400</v>
       </c>
       <c r="H43" s="3">
-        <v>47400</v>
+        <v>57100</v>
       </c>
       <c r="I43" s="3">
-        <v>34400</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>46900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>34100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1935,9 +2027,12 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1950,18 +2045,18 @@
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1974,33 +2069,36 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7300</v>
+        <v>10400</v>
       </c>
       <c r="E45" s="3">
-        <v>8000</v>
+        <v>7200</v>
       </c>
       <c r="F45" s="3">
-        <v>6800</v>
+        <v>7900</v>
       </c>
       <c r="G45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H45" s="3">
         <v>5000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,32 +2111,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>224400</v>
+        <v>384400</v>
       </c>
       <c r="E46" s="3">
-        <v>221700</v>
+        <v>222200</v>
       </c>
       <c r="F46" s="3">
-        <v>161900</v>
+        <v>219600</v>
       </c>
       <c r="G46" s="3">
-        <v>80500</v>
+        <v>160300</v>
       </c>
       <c r="H46" s="3">
-        <v>77800</v>
+        <v>79800</v>
       </c>
       <c r="I46" s="3">
-        <v>52600</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>77100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>52100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2052,23 +2153,26 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
-        <v>800</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="F47" s="3">
+        <v>700</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2076,8 +2180,8 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2091,32 +2195,35 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>83400</v>
+        <v>84400</v>
       </c>
       <c r="E48" s="3">
-        <v>75600</v>
+        <v>82600</v>
       </c>
       <c r="F48" s="3">
-        <v>12500</v>
+        <v>149600</v>
       </c>
       <c r="G48" s="3">
-        <v>10200</v>
+        <v>12400</v>
       </c>
       <c r="H48" s="3">
-        <v>8900</v>
+        <v>10100</v>
       </c>
       <c r="I48" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>8800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5500</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2130,32 +2237,35 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>229400</v>
+        <v>236700</v>
       </c>
       <c r="E49" s="3">
-        <v>113300</v>
+        <v>220900</v>
       </c>
       <c r="F49" s="3">
-        <v>77700</v>
+        <v>150900</v>
       </c>
       <c r="G49" s="3">
-        <v>85000</v>
+        <v>76900</v>
       </c>
       <c r="H49" s="3">
-        <v>38100</v>
+        <v>84200</v>
       </c>
       <c r="I49" s="3">
-        <v>26700</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>37700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>26400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,33 +2363,36 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22100</v>
+        <v>20200</v>
       </c>
       <c r="E52" s="3">
-        <v>15800</v>
+        <v>23500</v>
       </c>
       <c r="F52" s="3">
-        <v>11300</v>
+        <v>17300</v>
       </c>
       <c r="G52" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,36 +2447,39 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>559800</v>
+        <v>728400</v>
       </c>
       <c r="E54" s="3">
-        <v>427100</v>
+        <v>549400</v>
       </c>
       <c r="F54" s="3">
-        <v>263400</v>
+        <v>417900</v>
       </c>
       <c r="G54" s="3">
-        <v>178600</v>
+        <v>260800</v>
       </c>
       <c r="H54" s="3">
-        <v>125800</v>
+        <v>176900</v>
       </c>
       <c r="I54" s="3">
-        <v>86200</v>
+        <v>124600</v>
       </c>
       <c r="J54" s="3">
+        <v>85400</v>
+      </c>
+      <c r="K54" s="3">
         <v>67400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,9 +2489,12 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,32 +2528,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8300</v>
+        <v>9600</v>
       </c>
       <c r="E57" s="3">
-        <v>2600</v>
+        <v>8200</v>
       </c>
       <c r="F57" s="3">
-        <v>5000</v>
+        <v>71200</v>
       </c>
       <c r="G57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,32 +2567,35 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16000</v>
+        <v>13900</v>
       </c>
       <c r="E58" s="3">
-        <v>13200</v>
+        <v>15900</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="G58" s="3">
-        <v>23400</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>34800</v>
+        <v>23100</v>
       </c>
       <c r="I58" s="3">
-        <v>18200</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>34400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>18000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2476,32 +2609,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>97300</v>
+        <v>126900</v>
       </c>
       <c r="E59" s="3">
-        <v>74800</v>
+        <v>96300</v>
       </c>
       <c r="F59" s="3">
-        <v>59100</v>
+        <v>74000</v>
       </c>
       <c r="G59" s="3">
-        <v>55500</v>
+        <v>58500</v>
       </c>
       <c r="H59" s="3">
-        <v>25600</v>
+        <v>54900</v>
       </c>
       <c r="I59" s="3">
-        <v>28800</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>25300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>28500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2515,32 +2651,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>121600</v>
+        <v>150400</v>
       </c>
       <c r="E60" s="3">
-        <v>90500</v>
+        <v>120400</v>
       </c>
       <c r="F60" s="3">
+        <v>89600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>63500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>83300</v>
+      </c>
+      <c r="I60" s="3">
         <v>64100</v>
       </c>
-      <c r="G60" s="3">
-        <v>84100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>64800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>48800</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>48400</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2554,30 +2693,33 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>59300</v>
+        <v>51500</v>
       </c>
       <c r="E61" s="3">
-        <v>50000</v>
+        <v>58700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>49500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2593,33 +2735,36 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23200</v>
+        <v>19600</v>
       </c>
       <c r="E62" s="3">
-        <v>7100</v>
+        <v>23100</v>
       </c>
       <c r="F62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
-        <v>12300</v>
-      </c>
       <c r="H62" s="3">
-        <v>3400</v>
+        <v>12100</v>
       </c>
       <c r="I62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,36 +2903,39 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>204100</v>
+        <v>221500</v>
       </c>
       <c r="E66" s="3">
-        <v>147500</v>
+        <v>202200</v>
       </c>
       <c r="F66" s="3">
-        <v>66700</v>
+        <v>146100</v>
       </c>
       <c r="G66" s="3">
-        <v>96400</v>
+        <v>66000</v>
       </c>
       <c r="H66" s="3">
-        <v>68200</v>
+        <v>95500</v>
       </c>
       <c r="I66" s="3">
-        <v>51000</v>
+        <v>67500</v>
       </c>
       <c r="J66" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K66" s="3">
         <v>36700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2788,9 +2945,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,32 +3131,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>354200</v>
+        <v>495000</v>
       </c>
       <c r="E72" s="3">
-        <v>279600</v>
+        <v>345800</v>
       </c>
       <c r="F72" s="3">
-        <v>177200</v>
+        <v>271900</v>
       </c>
       <c r="G72" s="3">
-        <v>80600</v>
+        <v>175500</v>
       </c>
       <c r="H72" s="3">
-        <v>56000</v>
+        <v>79800</v>
       </c>
       <c r="I72" s="3">
-        <v>32100</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>55400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>31800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3000,9 +3173,12 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,36 +3299,39 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>355700</v>
+        <v>506800</v>
       </c>
       <c r="E76" s="3">
-        <v>279600</v>
+        <v>347200</v>
       </c>
       <c r="F76" s="3">
-        <v>196800</v>
+        <v>271900</v>
       </c>
       <c r="G76" s="3">
-        <v>82200</v>
+        <v>194800</v>
       </c>
       <c r="H76" s="3">
-        <v>57600</v>
+        <v>81400</v>
       </c>
       <c r="I76" s="3">
-        <v>35200</v>
+        <v>57100</v>
       </c>
       <c r="J76" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K76" s="3">
         <v>30700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3156,9 +3341,12 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,41 +3383,44 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3239,36 +3430,39 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>51400</v>
+        <v>97300</v>
       </c>
       <c r="E81" s="3">
-        <v>25300</v>
+        <v>50900</v>
       </c>
       <c r="F81" s="3">
-        <v>28400</v>
+        <v>23400</v>
       </c>
       <c r="G81" s="3">
-        <v>22400</v>
+        <v>28100</v>
       </c>
       <c r="H81" s="3">
-        <v>19900</v>
+        <v>22200</v>
       </c>
       <c r="I81" s="3">
-        <v>19800</v>
+        <v>19700</v>
       </c>
       <c r="J81" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K81" s="3">
         <v>16000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,9 +3472,12 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,32 +3493,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>27700</v>
+        <v>33700</v>
       </c>
       <c r="E83" s="3">
-        <v>22100</v>
+        <v>26600</v>
       </c>
       <c r="F83" s="3">
+        <v>21400</v>
+      </c>
+      <c r="G83" s="3">
         <v>9300</v>
       </c>
-      <c r="G83" s="3">
-        <v>7400</v>
-      </c>
       <c r="H83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I83" s="3">
         <v>5100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,32 +3742,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>104500</v>
+        <v>141400</v>
       </c>
       <c r="E89" s="3">
-        <v>47600</v>
+        <v>102700</v>
       </c>
       <c r="F89" s="3">
-        <v>41800</v>
+        <v>44400</v>
       </c>
       <c r="G89" s="3">
-        <v>40200</v>
+        <v>41400</v>
       </c>
       <c r="H89" s="3">
-        <v>17400</v>
+        <v>39800</v>
       </c>
       <c r="I89" s="3">
-        <v>12900</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>17300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>12800</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3568,9 +3784,12 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,32 +3805,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7200</v>
+        <v>-16400</v>
       </c>
       <c r="E91" s="3">
-        <v>-11700</v>
+        <v>-6400</v>
       </c>
       <c r="F91" s="3">
-        <v>-8700</v>
+        <v>-8800</v>
       </c>
       <c r="G91" s="3">
-        <v>-6500</v>
+        <v>-8600</v>
       </c>
       <c r="H91" s="3">
-        <v>-7700</v>
+        <v>-6400</v>
       </c>
       <c r="I91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3624,9 +3844,12 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,32 +3928,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-126700</v>
+        <v>-28000</v>
       </c>
       <c r="E94" s="3">
-        <v>-35200</v>
+        <v>-124600</v>
       </c>
       <c r="F94" s="3">
-        <v>-11900</v>
+        <v>-32100</v>
       </c>
       <c r="G94" s="3">
-        <v>-37600</v>
+        <v>-11800</v>
       </c>
       <c r="H94" s="3">
-        <v>-23100</v>
+        <v>-37200</v>
       </c>
       <c r="I94" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-22800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-8500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3741,9 +3970,12 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,32 +4156,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14100</v>
+        <v>-5900</v>
       </c>
       <c r="E100" s="3">
-        <v>24700</v>
+        <v>-14000</v>
       </c>
       <c r="F100" s="3">
-        <v>31200</v>
+        <v>24500</v>
       </c>
       <c r="G100" s="3">
-        <v>-12700</v>
+        <v>30900</v>
       </c>
       <c r="H100" s="3">
-        <v>17600</v>
+        <v>-12600</v>
       </c>
       <c r="I100" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>17400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-5400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3953,33 +4198,36 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3992,33 +4240,36 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-37200</v>
+        <v>108800</v>
       </c>
       <c r="E102" s="3">
-        <v>36900</v>
+        <v>-36800</v>
       </c>
       <c r="F102" s="3">
-        <v>65200</v>
+        <v>36500</v>
       </c>
       <c r="G102" s="3">
-        <v>-10100</v>
+        <v>64600</v>
       </c>
       <c r="H102" s="3">
-        <v>12600</v>
+        <v>-10000</v>
       </c>
       <c r="I102" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4031,7 +4282,10 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>766900</v>
+        <v>780800</v>
       </c>
       <c r="E8" s="3">
-        <v>522700</v>
+        <v>532200</v>
       </c>
       <c r="F8" s="3">
-        <v>411100</v>
+        <v>418500</v>
       </c>
       <c r="G8" s="3">
-        <v>337300</v>
+        <v>343400</v>
       </c>
       <c r="H8" s="3">
-        <v>254900</v>
+        <v>259500</v>
       </c>
       <c r="I8" s="3">
-        <v>186700</v>
+        <v>190000</v>
       </c>
       <c r="J8" s="3">
-        <v>135200</v>
+        <v>137700</v>
       </c>
       <c r="K8" s="3">
         <v>99500</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>515000</v>
+        <v>524300</v>
       </c>
       <c r="E9" s="3">
-        <v>345800</v>
+        <v>352100</v>
       </c>
       <c r="F9" s="3">
-        <v>296100</v>
+        <v>301500</v>
       </c>
       <c r="G9" s="3">
-        <v>221500</v>
+        <v>225500</v>
       </c>
       <c r="H9" s="3">
-        <v>170400</v>
+        <v>173400</v>
       </c>
       <c r="I9" s="3">
-        <v>127400</v>
+        <v>129700</v>
       </c>
       <c r="J9" s="3">
-        <v>87900</v>
+        <v>89500</v>
       </c>
       <c r="K9" s="3">
         <v>63200</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>251900</v>
+        <v>256500</v>
       </c>
       <c r="E10" s="3">
-        <v>176900</v>
+        <v>180100</v>
       </c>
       <c r="F10" s="3">
-        <v>114900</v>
+        <v>117000</v>
       </c>
       <c r="G10" s="3">
-        <v>115800</v>
+        <v>117900</v>
       </c>
       <c r="H10" s="3">
-        <v>84500</v>
+        <v>86100</v>
       </c>
       <c r="I10" s="3">
-        <v>59300</v>
+        <v>60400</v>
       </c>
       <c r="J10" s="3">
-        <v>47300</v>
+        <v>48200</v>
       </c>
       <c r="K10" s="3">
         <v>36300</v>
@@ -967,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I14" s="3">
         <v>400</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>655200</v>
+        <v>667100</v>
       </c>
       <c r="E17" s="3">
-        <v>448300</v>
+        <v>456400</v>
       </c>
       <c r="F17" s="3">
-        <v>384500</v>
+        <v>391500</v>
       </c>
       <c r="G17" s="3">
-        <v>298600</v>
+        <v>304000</v>
       </c>
       <c r="H17" s="3">
-        <v>225100</v>
+        <v>229200</v>
       </c>
       <c r="I17" s="3">
-        <v>159700</v>
+        <v>162600</v>
       </c>
       <c r="J17" s="3">
-        <v>111900</v>
+        <v>113900</v>
       </c>
       <c r="K17" s="3">
         <v>79400</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>111700</v>
+        <v>113700</v>
       </c>
       <c r="E18" s="3">
-        <v>74400</v>
+        <v>75800</v>
       </c>
       <c r="F18" s="3">
-        <v>26500</v>
+        <v>27000</v>
       </c>
       <c r="G18" s="3">
-        <v>38600</v>
+        <v>39300</v>
       </c>
       <c r="H18" s="3">
-        <v>29800</v>
+        <v>30300</v>
       </c>
       <c r="I18" s="3">
-        <v>27000</v>
+        <v>27500</v>
       </c>
       <c r="J18" s="3">
-        <v>23300</v>
+        <v>23800</v>
       </c>
       <c r="K18" s="3">
         <v>20100</v>
@@ -1156,13 +1156,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="E20" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="F20" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G20" s="3">
         <v>-3000</v>
@@ -1171,7 +1171,7 @@
         <v>-300</v>
       </c>
       <c r="I20" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J20" s="3">
         <v>1200</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>154800</v>
+        <v>158400</v>
       </c>
       <c r="E21" s="3">
-        <v>91900</v>
+        <v>94200</v>
       </c>
       <c r="F21" s="3">
-        <v>50300</v>
+        <v>51700</v>
       </c>
       <c r="G21" s="3">
-        <v>44600</v>
+        <v>45700</v>
       </c>
       <c r="H21" s="3">
-        <v>36700</v>
+        <v>37500</v>
       </c>
       <c r="I21" s="3">
-        <v>30700</v>
+        <v>31400</v>
       </c>
       <c r="J21" s="3">
-        <v>27800</v>
+        <v>28400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1240,7 +1240,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E22" s="3">
         <v>2400</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>119900</v>
+        <v>122100</v>
       </c>
       <c r="E23" s="3">
-        <v>63700</v>
+        <v>64800</v>
       </c>
       <c r="F23" s="3">
-        <v>27400</v>
+        <v>27900</v>
       </c>
       <c r="G23" s="3">
-        <v>35300</v>
+        <v>35900</v>
       </c>
       <c r="H23" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="I23" s="3">
-        <v>25400</v>
+        <v>25900</v>
       </c>
       <c r="J23" s="3">
-        <v>24400</v>
+        <v>24800</v>
       </c>
       <c r="K23" s="3">
         <v>18000</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22600</v>
+        <v>23000</v>
       </c>
       <c r="E24" s="3">
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="F24" s="3">
         <v>4000</v>
       </c>
       <c r="G24" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="H24" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="I24" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="J24" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K24" s="3">
         <v>2000</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>97300</v>
+        <v>99100</v>
       </c>
       <c r="E26" s="3">
-        <v>50900</v>
+        <v>51800</v>
       </c>
       <c r="F26" s="3">
-        <v>23400</v>
+        <v>23800</v>
       </c>
       <c r="G26" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="H26" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="I26" s="3">
-        <v>19700</v>
+        <v>20100</v>
       </c>
       <c r="J26" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="K26" s="3">
         <v>16000</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>97300</v>
+        <v>99100</v>
       </c>
       <c r="E27" s="3">
-        <v>50900</v>
+        <v>51800</v>
       </c>
       <c r="F27" s="3">
-        <v>23400</v>
+        <v>23800</v>
       </c>
       <c r="G27" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="H27" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="I27" s="3">
-        <v>19700</v>
+        <v>20100</v>
       </c>
       <c r="J27" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="K27" s="3">
         <v>16000</v>
@@ -1660,13 +1660,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10400</v>
+        <v>-10600</v>
       </c>
       <c r="E32" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="F32" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="G32" s="3">
         <v>3000</v>
@@ -1675,7 +1675,7 @@
         <v>300</v>
       </c>
       <c r="I32" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J32" s="3">
         <v>-1200</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>97300</v>
+        <v>99100</v>
       </c>
       <c r="E33" s="3">
-        <v>50900</v>
+        <v>51800</v>
       </c>
       <c r="F33" s="3">
-        <v>23400</v>
+        <v>23800</v>
       </c>
       <c r="G33" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="H33" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="I33" s="3">
-        <v>19700</v>
+        <v>20100</v>
       </c>
       <c r="J33" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="K33" s="3">
         <v>16000</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>97300</v>
+        <v>99100</v>
       </c>
       <c r="E35" s="3">
-        <v>50900</v>
+        <v>51800</v>
       </c>
       <c r="F35" s="3">
-        <v>23400</v>
+        <v>23800</v>
       </c>
       <c r="G35" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="H35" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="I35" s="3">
-        <v>19700</v>
+        <v>20100</v>
       </c>
       <c r="J35" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="K35" s="3">
         <v>16000</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>190700</v>
+        <v>194100</v>
       </c>
       <c r="E41" s="3">
-        <v>81900</v>
+        <v>83300</v>
       </c>
       <c r="F41" s="3">
-        <v>118700</v>
+        <v>120800</v>
       </c>
       <c r="G41" s="3">
-        <v>82200</v>
+        <v>83700</v>
       </c>
       <c r="H41" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="I41" s="3">
-        <v>27600</v>
+        <v>28100</v>
       </c>
       <c r="J41" s="3">
-        <v>15200</v>
+        <v>15400</v>
       </c>
       <c r="K41" s="3">
         <v>15800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>182900</v>
+        <v>186200</v>
       </c>
       <c r="E43" s="3">
-        <v>132500</v>
+        <v>134900</v>
       </c>
       <c r="F43" s="3">
-        <v>189000</v>
+        <v>192400</v>
       </c>
       <c r="G43" s="3">
-        <v>71400</v>
+        <v>72700</v>
       </c>
       <c r="H43" s="3">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="I43" s="3">
-        <v>46900</v>
+        <v>47800</v>
       </c>
       <c r="J43" s="3">
-        <v>34100</v>
+        <v>34700</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2079,19 +2079,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="E45" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F45" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="G45" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H45" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I45" s="3">
         <v>2500</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>384400</v>
+        <v>391400</v>
       </c>
       <c r="E46" s="3">
-        <v>222200</v>
+        <v>226200</v>
       </c>
       <c r="F46" s="3">
-        <v>219600</v>
+        <v>223500</v>
       </c>
       <c r="G46" s="3">
-        <v>160300</v>
+        <v>163200</v>
       </c>
       <c r="H46" s="3">
-        <v>79800</v>
+        <v>81200</v>
       </c>
       <c r="I46" s="3">
-        <v>77100</v>
+        <v>78500</v>
       </c>
       <c r="J46" s="3">
-        <v>52100</v>
+        <v>53000</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2169,7 +2169,7 @@
         <v>400</v>
       </c>
       <c r="F47" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>84400</v>
+        <v>86000</v>
       </c>
       <c r="E48" s="3">
-        <v>82600</v>
+        <v>84100</v>
       </c>
       <c r="F48" s="3">
-        <v>149600</v>
+        <v>152400</v>
       </c>
       <c r="G48" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="H48" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="I48" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="J48" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>236700</v>
+        <v>241000</v>
       </c>
       <c r="E49" s="3">
-        <v>220900</v>
+        <v>224900</v>
       </c>
       <c r="F49" s="3">
-        <v>150900</v>
+        <v>153700</v>
       </c>
       <c r="G49" s="3">
-        <v>76900</v>
+        <v>78300</v>
       </c>
       <c r="H49" s="3">
-        <v>84200</v>
+        <v>85700</v>
       </c>
       <c r="I49" s="3">
-        <v>37700</v>
+        <v>38400</v>
       </c>
       <c r="J49" s="3">
-        <v>26400</v>
+        <v>26900</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2373,19 +2373,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20200</v>
+        <v>20500</v>
       </c>
       <c r="E52" s="3">
-        <v>23500</v>
+        <v>23900</v>
       </c>
       <c r="F52" s="3">
-        <v>17300</v>
+        <v>17600</v>
       </c>
       <c r="G52" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="H52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I52" s="3">
         <v>1000</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>728400</v>
+        <v>741600</v>
       </c>
       <c r="E54" s="3">
-        <v>549400</v>
+        <v>559300</v>
       </c>
       <c r="F54" s="3">
-        <v>417900</v>
+        <v>425500</v>
       </c>
       <c r="G54" s="3">
-        <v>260800</v>
+        <v>265500</v>
       </c>
       <c r="H54" s="3">
-        <v>176900</v>
+        <v>180100</v>
       </c>
       <c r="I54" s="3">
-        <v>124600</v>
+        <v>126900</v>
       </c>
       <c r="J54" s="3">
-        <v>85400</v>
+        <v>86900</v>
       </c>
       <c r="K54" s="3">
         <v>67400</v>
@@ -2535,19 +2535,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="E57" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="F57" s="3">
-        <v>71200</v>
+        <v>72500</v>
       </c>
       <c r="G57" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H57" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I57" s="3">
         <v>4400</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="E58" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="F58" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="I58" s="3">
-        <v>34400</v>
+        <v>35100</v>
       </c>
       <c r="J58" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>126900</v>
+        <v>129200</v>
       </c>
       <c r="E59" s="3">
-        <v>96300</v>
+        <v>98000</v>
       </c>
       <c r="F59" s="3">
-        <v>74000</v>
+        <v>75400</v>
       </c>
       <c r="G59" s="3">
-        <v>58500</v>
+        <v>59600</v>
       </c>
       <c r="H59" s="3">
-        <v>54900</v>
+        <v>55900</v>
       </c>
       <c r="I59" s="3">
-        <v>25300</v>
+        <v>25800</v>
       </c>
       <c r="J59" s="3">
-        <v>28500</v>
+        <v>29100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>150400</v>
+        <v>153100</v>
       </c>
       <c r="E60" s="3">
-        <v>120400</v>
+        <v>122500</v>
       </c>
       <c r="F60" s="3">
-        <v>89600</v>
+        <v>91200</v>
       </c>
       <c r="G60" s="3">
-        <v>63500</v>
+        <v>64600</v>
       </c>
       <c r="H60" s="3">
-        <v>83300</v>
+        <v>84800</v>
       </c>
       <c r="I60" s="3">
-        <v>64100</v>
+        <v>65300</v>
       </c>
       <c r="J60" s="3">
-        <v>48400</v>
+        <v>49200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2703,13 +2703,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>51500</v>
+        <v>52500</v>
       </c>
       <c r="E61" s="3">
-        <v>58700</v>
+        <v>59800</v>
       </c>
       <c r="F61" s="3">
-        <v>49500</v>
+        <v>50400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2745,22 +2745,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="E62" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="F62" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="G62" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H62" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="I62" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J62" s="3">
         <v>2100</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>221500</v>
+        <v>225500</v>
       </c>
       <c r="E66" s="3">
-        <v>202200</v>
+        <v>205800</v>
       </c>
       <c r="F66" s="3">
-        <v>146100</v>
+        <v>148700</v>
       </c>
       <c r="G66" s="3">
-        <v>66000</v>
+        <v>67200</v>
       </c>
       <c r="H66" s="3">
-        <v>95500</v>
+        <v>97200</v>
       </c>
       <c r="I66" s="3">
-        <v>67500</v>
+        <v>68800</v>
       </c>
       <c r="J66" s="3">
-        <v>50500</v>
+        <v>51400</v>
       </c>
       <c r="K66" s="3">
         <v>36700</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>495000</v>
+        <v>503900</v>
       </c>
       <c r="E72" s="3">
-        <v>345800</v>
+        <v>352100</v>
       </c>
       <c r="F72" s="3">
-        <v>271900</v>
+        <v>276800</v>
       </c>
       <c r="G72" s="3">
-        <v>175500</v>
+        <v>178700</v>
       </c>
       <c r="H72" s="3">
-        <v>79800</v>
+        <v>81200</v>
       </c>
       <c r="I72" s="3">
-        <v>55400</v>
+        <v>56400</v>
       </c>
       <c r="J72" s="3">
-        <v>31800</v>
+        <v>32400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>506800</v>
+        <v>516000</v>
       </c>
       <c r="E76" s="3">
-        <v>347200</v>
+        <v>353500</v>
       </c>
       <c r="F76" s="3">
-        <v>271900</v>
+        <v>276800</v>
       </c>
       <c r="G76" s="3">
-        <v>194800</v>
+        <v>198300</v>
       </c>
       <c r="H76" s="3">
-        <v>81400</v>
+        <v>82900</v>
       </c>
       <c r="I76" s="3">
-        <v>57100</v>
+        <v>58100</v>
       </c>
       <c r="J76" s="3">
-        <v>34900</v>
+        <v>35500</v>
       </c>
       <c r="K76" s="3">
         <v>30700</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>97300</v>
+        <v>99100</v>
       </c>
       <c r="E81" s="3">
-        <v>50900</v>
+        <v>51800</v>
       </c>
       <c r="F81" s="3">
-        <v>23400</v>
+        <v>23800</v>
       </c>
       <c r="G81" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="H81" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="I81" s="3">
-        <v>19700</v>
+        <v>20100</v>
       </c>
       <c r="J81" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="K81" s="3">
         <v>16000</v>
@@ -3500,22 +3500,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>33700</v>
+        <v>34300</v>
       </c>
       <c r="E83" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="F83" s="3">
-        <v>21400</v>
+        <v>21800</v>
       </c>
       <c r="G83" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="H83" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="I83" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J83" s="3">
         <v>3400</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>141400</v>
+        <v>144000</v>
       </c>
       <c r="E89" s="3">
-        <v>102700</v>
+        <v>104500</v>
       </c>
       <c r="F89" s="3">
-        <v>44400</v>
+        <v>45200</v>
       </c>
       <c r="G89" s="3">
-        <v>41400</v>
+        <v>42200</v>
       </c>
       <c r="H89" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="I89" s="3">
-        <v>17300</v>
+        <v>17600</v>
       </c>
       <c r="J89" s="3">
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16400</v>
+        <v>-16700</v>
       </c>
       <c r="E91" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="F91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-8800</v>
       </c>
-      <c r="G91" s="3">
-        <v>-8600</v>
-      </c>
       <c r="H91" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="I91" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="J91" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-28000</v>
+        <v>-28500</v>
       </c>
       <c r="E94" s="3">
-        <v>-124600</v>
+        <v>-126900</v>
       </c>
       <c r="F94" s="3">
-        <v>-32100</v>
+        <v>-32700</v>
       </c>
       <c r="G94" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="H94" s="3">
-        <v>-37200</v>
+        <v>-37900</v>
       </c>
       <c r="I94" s="3">
-        <v>-22800</v>
+        <v>-23300</v>
       </c>
       <c r="J94" s="3">
-        <v>-8500</v>
+        <v>-8700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="E100" s="3">
-        <v>-14000</v>
+        <v>-14200</v>
       </c>
       <c r="F100" s="3">
-        <v>24500</v>
+        <v>24900</v>
       </c>
       <c r="G100" s="3">
-        <v>30900</v>
+        <v>31400</v>
       </c>
       <c r="H100" s="3">
-        <v>-12600</v>
+        <v>-12800</v>
       </c>
       <c r="I100" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="J100" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4250,22 +4250,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>108800</v>
+        <v>110800</v>
       </c>
       <c r="E102" s="3">
-        <v>-36800</v>
+        <v>-37500</v>
       </c>
       <c r="F102" s="3">
-        <v>36500</v>
+        <v>37200</v>
       </c>
       <c r="G102" s="3">
-        <v>64600</v>
+        <v>65700</v>
       </c>
       <c r="H102" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="I102" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="J102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>780800</v>
+        <v>812400</v>
       </c>
       <c r="E8" s="3">
-        <v>532200</v>
+        <v>553800</v>
       </c>
       <c r="F8" s="3">
-        <v>418500</v>
+        <v>435500</v>
       </c>
       <c r="G8" s="3">
-        <v>343400</v>
+        <v>357300</v>
       </c>
       <c r="H8" s="3">
-        <v>259500</v>
+        <v>270000</v>
       </c>
       <c r="I8" s="3">
-        <v>190000</v>
+        <v>197700</v>
       </c>
       <c r="J8" s="3">
-        <v>137700</v>
+        <v>143200</v>
       </c>
       <c r="K8" s="3">
         <v>99500</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>524300</v>
+        <v>545600</v>
       </c>
       <c r="E9" s="3">
-        <v>352100</v>
+        <v>366400</v>
       </c>
       <c r="F9" s="3">
-        <v>301500</v>
+        <v>313700</v>
       </c>
       <c r="G9" s="3">
-        <v>225500</v>
+        <v>234600</v>
       </c>
       <c r="H9" s="3">
-        <v>173400</v>
+        <v>180500</v>
       </c>
       <c r="I9" s="3">
-        <v>129700</v>
+        <v>134900</v>
       </c>
       <c r="J9" s="3">
-        <v>89500</v>
+        <v>93100</v>
       </c>
       <c r="K9" s="3">
         <v>63200</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>256500</v>
+        <v>266900</v>
       </c>
       <c r="E10" s="3">
-        <v>180100</v>
+        <v>187400</v>
       </c>
       <c r="F10" s="3">
-        <v>117000</v>
+        <v>121700</v>
       </c>
       <c r="G10" s="3">
-        <v>117900</v>
+        <v>122600</v>
       </c>
       <c r="H10" s="3">
-        <v>86100</v>
+        <v>89500</v>
       </c>
       <c r="I10" s="3">
-        <v>60400</v>
+        <v>62800</v>
       </c>
       <c r="J10" s="3">
-        <v>48200</v>
+        <v>50100</v>
       </c>
       <c r="K10" s="3">
         <v>36300</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>667100</v>
+        <v>694100</v>
       </c>
       <c r="E17" s="3">
-        <v>456400</v>
+        <v>474900</v>
       </c>
       <c r="F17" s="3">
-        <v>391500</v>
+        <v>407300</v>
       </c>
       <c r="G17" s="3">
-        <v>304000</v>
+        <v>316400</v>
       </c>
       <c r="H17" s="3">
-        <v>229200</v>
+        <v>238500</v>
       </c>
       <c r="I17" s="3">
-        <v>162600</v>
+        <v>169100</v>
       </c>
       <c r="J17" s="3">
-        <v>113900</v>
+        <v>118500</v>
       </c>
       <c r="K17" s="3">
         <v>79400</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>113700</v>
+        <v>118400</v>
       </c>
       <c r="E18" s="3">
-        <v>75800</v>
+        <v>78900</v>
       </c>
       <c r="F18" s="3">
-        <v>27000</v>
+        <v>28100</v>
       </c>
       <c r="G18" s="3">
-        <v>39300</v>
+        <v>40900</v>
       </c>
       <c r="H18" s="3">
-        <v>30300</v>
+        <v>31600</v>
       </c>
       <c r="I18" s="3">
-        <v>27500</v>
+        <v>28600</v>
       </c>
       <c r="J18" s="3">
-        <v>23800</v>
+        <v>24700</v>
       </c>
       <c r="K18" s="3">
         <v>20100</v>
@@ -1156,16 +1156,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10600</v>
+        <v>11100</v>
       </c>
       <c r="E20" s="3">
-        <v>-8500</v>
+        <v>-8900</v>
       </c>
       <c r="F20" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G20" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="H20" s="3">
         <v>-300</v>
@@ -1174,7 +1174,7 @@
         <v>-1300</v>
       </c>
       <c r="J20" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K20" s="3">
         <v>-2100</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>158400</v>
+        <v>165300</v>
       </c>
       <c r="E21" s="3">
-        <v>94200</v>
+        <v>98400</v>
       </c>
       <c r="F21" s="3">
-        <v>51700</v>
+        <v>54100</v>
       </c>
       <c r="G21" s="3">
-        <v>45700</v>
+        <v>47600</v>
       </c>
       <c r="H21" s="3">
-        <v>37500</v>
+        <v>39100</v>
       </c>
       <c r="I21" s="3">
-        <v>31400</v>
+        <v>32700</v>
       </c>
       <c r="J21" s="3">
-        <v>28400</v>
+        <v>29600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1240,13 +1240,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F22" s="3">
         <v>2300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2200</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>122100</v>
+        <v>127000</v>
       </c>
       <c r="E23" s="3">
-        <v>64800</v>
+        <v>67500</v>
       </c>
       <c r="F23" s="3">
-        <v>27900</v>
+        <v>29000</v>
       </c>
       <c r="G23" s="3">
-        <v>35900</v>
+        <v>37300</v>
       </c>
       <c r="H23" s="3">
-        <v>29400</v>
+        <v>30600</v>
       </c>
       <c r="I23" s="3">
-        <v>25900</v>
+        <v>26900</v>
       </c>
       <c r="J23" s="3">
-        <v>24800</v>
+        <v>25800</v>
       </c>
       <c r="K23" s="3">
         <v>18000</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23000</v>
+        <v>23900</v>
       </c>
       <c r="E24" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="F24" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G24" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="H24" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="I24" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="J24" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="K24" s="3">
         <v>2000</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>99100</v>
+        <v>103100</v>
       </c>
       <c r="E26" s="3">
-        <v>51800</v>
+        <v>53900</v>
       </c>
       <c r="F26" s="3">
-        <v>23800</v>
+        <v>24800</v>
       </c>
       <c r="G26" s="3">
-        <v>28600</v>
+        <v>29800</v>
       </c>
       <c r="H26" s="3">
-        <v>22600</v>
+        <v>23500</v>
       </c>
       <c r="I26" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="J26" s="3">
-        <v>19900</v>
+        <v>20700</v>
       </c>
       <c r="K26" s="3">
         <v>16000</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>99100</v>
+        <v>103100</v>
       </c>
       <c r="E27" s="3">
-        <v>51800</v>
+        <v>53900</v>
       </c>
       <c r="F27" s="3">
-        <v>23800</v>
+        <v>24800</v>
       </c>
       <c r="G27" s="3">
-        <v>28600</v>
+        <v>29800</v>
       </c>
       <c r="H27" s="3">
-        <v>22600</v>
+        <v>23500</v>
       </c>
       <c r="I27" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="J27" s="3">
-        <v>19900</v>
+        <v>20700</v>
       </c>
       <c r="K27" s="3">
         <v>16000</v>
@@ -1660,16 +1660,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10600</v>
+        <v>-11100</v>
       </c>
       <c r="E32" s="3">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F32" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="G32" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H32" s="3">
         <v>300</v>
@@ -1678,7 +1678,7 @@
         <v>1300</v>
       </c>
       <c r="J32" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K32" s="3">
         <v>2100</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>99100</v>
+        <v>103100</v>
       </c>
       <c r="E33" s="3">
-        <v>51800</v>
+        <v>53900</v>
       </c>
       <c r="F33" s="3">
-        <v>23800</v>
+        <v>24800</v>
       </c>
       <c r="G33" s="3">
-        <v>28600</v>
+        <v>29800</v>
       </c>
       <c r="H33" s="3">
-        <v>22600</v>
+        <v>23500</v>
       </c>
       <c r="I33" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="J33" s="3">
-        <v>19900</v>
+        <v>20700</v>
       </c>
       <c r="K33" s="3">
         <v>16000</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>99100</v>
+        <v>103100</v>
       </c>
       <c r="E35" s="3">
-        <v>51800</v>
+        <v>53900</v>
       </c>
       <c r="F35" s="3">
-        <v>23800</v>
+        <v>24800</v>
       </c>
       <c r="G35" s="3">
-        <v>28600</v>
+        <v>29800</v>
       </c>
       <c r="H35" s="3">
-        <v>22600</v>
+        <v>23500</v>
       </c>
       <c r="I35" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="J35" s="3">
-        <v>19900</v>
+        <v>20700</v>
       </c>
       <c r="K35" s="3">
         <v>16000</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>194100</v>
+        <v>202000</v>
       </c>
       <c r="E41" s="3">
-        <v>83300</v>
+        <v>86700</v>
       </c>
       <c r="F41" s="3">
-        <v>120800</v>
+        <v>125700</v>
       </c>
       <c r="G41" s="3">
-        <v>83700</v>
+        <v>87100</v>
       </c>
       <c r="H41" s="3">
-        <v>17900</v>
+        <v>18700</v>
       </c>
       <c r="I41" s="3">
-        <v>28100</v>
+        <v>29200</v>
       </c>
       <c r="J41" s="3">
-        <v>15400</v>
+        <v>16100</v>
       </c>
       <c r="K41" s="3">
         <v>15800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>186200</v>
+        <v>193700</v>
       </c>
       <c r="E43" s="3">
-        <v>134900</v>
+        <v>140300</v>
       </c>
       <c r="F43" s="3">
-        <v>192400</v>
+        <v>200200</v>
       </c>
       <c r="G43" s="3">
-        <v>72700</v>
+        <v>75700</v>
       </c>
       <c r="H43" s="3">
-        <v>58200</v>
+        <v>60500</v>
       </c>
       <c r="I43" s="3">
-        <v>47800</v>
+        <v>49700</v>
       </c>
       <c r="J43" s="3">
-        <v>34700</v>
+        <v>36100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="E45" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="F45" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="G45" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="H45" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="I45" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J45" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>391400</v>
+        <v>407200</v>
       </c>
       <c r="E46" s="3">
-        <v>226200</v>
+        <v>235400</v>
       </c>
       <c r="F46" s="3">
-        <v>223500</v>
+        <v>232600</v>
       </c>
       <c r="G46" s="3">
-        <v>163200</v>
+        <v>169800</v>
       </c>
       <c r="H46" s="3">
-        <v>81200</v>
+        <v>84500</v>
       </c>
       <c r="I46" s="3">
-        <v>78500</v>
+        <v>81600</v>
       </c>
       <c r="J46" s="3">
-        <v>53000</v>
+        <v>55200</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2163,10 +2163,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F47" s="3">
         <v>800</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>86000</v>
+        <v>89400</v>
       </c>
       <c r="E48" s="3">
-        <v>84100</v>
+        <v>87500</v>
       </c>
       <c r="F48" s="3">
-        <v>152400</v>
+        <v>158500</v>
       </c>
       <c r="G48" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="H48" s="3">
-        <v>10200</v>
+        <v>10700</v>
       </c>
       <c r="I48" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="J48" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>241000</v>
+        <v>250800</v>
       </c>
       <c r="E49" s="3">
-        <v>224900</v>
+        <v>234000</v>
       </c>
       <c r="F49" s="3">
-        <v>153700</v>
+        <v>159900</v>
       </c>
       <c r="G49" s="3">
-        <v>78300</v>
+        <v>81500</v>
       </c>
       <c r="H49" s="3">
-        <v>85700</v>
+        <v>89200</v>
       </c>
       <c r="I49" s="3">
-        <v>38400</v>
+        <v>40000</v>
       </c>
       <c r="J49" s="3">
-        <v>26900</v>
+        <v>28000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20500</v>
+        <v>21400</v>
       </c>
       <c r="E52" s="3">
-        <v>23900</v>
+        <v>24900</v>
       </c>
       <c r="F52" s="3">
-        <v>17600</v>
+        <v>18300</v>
       </c>
       <c r="G52" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="H52" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J52" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>741600</v>
+        <v>771600</v>
       </c>
       <c r="E54" s="3">
-        <v>559300</v>
+        <v>582000</v>
       </c>
       <c r="F54" s="3">
-        <v>425500</v>
+        <v>442700</v>
       </c>
       <c r="G54" s="3">
-        <v>265500</v>
+        <v>276300</v>
       </c>
       <c r="H54" s="3">
-        <v>180100</v>
+        <v>187400</v>
       </c>
       <c r="I54" s="3">
-        <v>126900</v>
+        <v>132000</v>
       </c>
       <c r="J54" s="3">
-        <v>86900</v>
+        <v>90500</v>
       </c>
       <c r="K54" s="3">
         <v>67400</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="E57" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="F57" s="3">
-        <v>72500</v>
+        <v>75400</v>
       </c>
       <c r="G57" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="H57" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="I57" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="J57" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14200</v>
+        <v>14800</v>
       </c>
       <c r="E58" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="F58" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="I58" s="3">
-        <v>35100</v>
+        <v>36500</v>
       </c>
       <c r="J58" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>129200</v>
+        <v>134400</v>
       </c>
       <c r="E59" s="3">
-        <v>98000</v>
+        <v>102000</v>
       </c>
       <c r="F59" s="3">
-        <v>75400</v>
+        <v>78400</v>
       </c>
       <c r="G59" s="3">
-        <v>59600</v>
+        <v>62000</v>
       </c>
       <c r="H59" s="3">
-        <v>55900</v>
+        <v>58200</v>
       </c>
       <c r="I59" s="3">
-        <v>25800</v>
+        <v>26800</v>
       </c>
       <c r="J59" s="3">
-        <v>29100</v>
+        <v>30200</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>153100</v>
+        <v>159300</v>
       </c>
       <c r="E60" s="3">
-        <v>122500</v>
+        <v>127500</v>
       </c>
       <c r="F60" s="3">
-        <v>91200</v>
+        <v>94900</v>
       </c>
       <c r="G60" s="3">
-        <v>64600</v>
+        <v>67300</v>
       </c>
       <c r="H60" s="3">
-        <v>84800</v>
+        <v>88300</v>
       </c>
       <c r="I60" s="3">
-        <v>65300</v>
+        <v>67900</v>
       </c>
       <c r="J60" s="3">
-        <v>49200</v>
+        <v>51200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2703,13 +2703,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>52500</v>
+        <v>54600</v>
       </c>
       <c r="E61" s="3">
-        <v>59800</v>
+        <v>62200</v>
       </c>
       <c r="F61" s="3">
-        <v>50400</v>
+        <v>52400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19900</v>
+        <v>20700</v>
       </c>
       <c r="E62" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="F62" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="G62" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H62" s="3">
-        <v>12400</v>
+        <v>12900</v>
       </c>
       <c r="I62" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J62" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>225500</v>
+        <v>234700</v>
       </c>
       <c r="E66" s="3">
-        <v>205800</v>
+        <v>214200</v>
       </c>
       <c r="F66" s="3">
-        <v>148700</v>
+        <v>154800</v>
       </c>
       <c r="G66" s="3">
-        <v>67200</v>
+        <v>69900</v>
       </c>
       <c r="H66" s="3">
-        <v>97200</v>
+        <v>101100</v>
       </c>
       <c r="I66" s="3">
-        <v>68800</v>
+        <v>71500</v>
       </c>
       <c r="J66" s="3">
-        <v>51400</v>
+        <v>53500</v>
       </c>
       <c r="K66" s="3">
         <v>36700</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>503900</v>
+        <v>524400</v>
       </c>
       <c r="E72" s="3">
-        <v>352100</v>
+        <v>366300</v>
       </c>
       <c r="F72" s="3">
-        <v>276800</v>
+        <v>288000</v>
       </c>
       <c r="G72" s="3">
-        <v>178700</v>
+        <v>185900</v>
       </c>
       <c r="H72" s="3">
-        <v>81200</v>
+        <v>84500</v>
       </c>
       <c r="I72" s="3">
-        <v>56400</v>
+        <v>58700</v>
       </c>
       <c r="J72" s="3">
-        <v>32400</v>
+        <v>33700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>516000</v>
+        <v>536900</v>
       </c>
       <c r="E76" s="3">
-        <v>353500</v>
+        <v>367800</v>
       </c>
       <c r="F76" s="3">
-        <v>276800</v>
+        <v>288000</v>
       </c>
       <c r="G76" s="3">
-        <v>198300</v>
+        <v>206400</v>
       </c>
       <c r="H76" s="3">
-        <v>82900</v>
+        <v>86200</v>
       </c>
       <c r="I76" s="3">
-        <v>58100</v>
+        <v>60500</v>
       </c>
       <c r="J76" s="3">
-        <v>35500</v>
+        <v>37000</v>
       </c>
       <c r="K76" s="3">
         <v>30700</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>99100</v>
+        <v>103100</v>
       </c>
       <c r="E81" s="3">
-        <v>51800</v>
+        <v>53900</v>
       </c>
       <c r="F81" s="3">
-        <v>23800</v>
+        <v>24800</v>
       </c>
       <c r="G81" s="3">
-        <v>28600</v>
+        <v>29800</v>
       </c>
       <c r="H81" s="3">
-        <v>22600</v>
+        <v>23500</v>
       </c>
       <c r="I81" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="J81" s="3">
-        <v>19900</v>
+        <v>20700</v>
       </c>
       <c r="K81" s="3">
         <v>16000</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34300</v>
+        <v>35700</v>
       </c>
       <c r="E83" s="3">
-        <v>27100</v>
+        <v>28200</v>
       </c>
       <c r="F83" s="3">
-        <v>21800</v>
+        <v>22600</v>
       </c>
       <c r="G83" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="H83" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="I83" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J83" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>144000</v>
+        <v>149800</v>
       </c>
       <c r="E89" s="3">
-        <v>104500</v>
+        <v>108800</v>
       </c>
       <c r="F89" s="3">
-        <v>45200</v>
+        <v>47000</v>
       </c>
       <c r="G89" s="3">
+        <v>43900</v>
+      </c>
+      <c r="H89" s="3">
         <v>42200</v>
       </c>
-      <c r="H89" s="3">
-        <v>40500</v>
-      </c>
       <c r="I89" s="3">
-        <v>17600</v>
+        <v>18300</v>
       </c>
       <c r="J89" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16700</v>
+        <v>-17300</v>
       </c>
       <c r="E91" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="F91" s="3">
-        <v>-9000</v>
+        <v>-9300</v>
       </c>
       <c r="G91" s="3">
-        <v>-8800</v>
+        <v>-9200</v>
       </c>
       <c r="H91" s="3">
-        <v>-6500</v>
+        <v>-6800</v>
       </c>
       <c r="I91" s="3">
-        <v>-7700</v>
+        <v>-8000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-28500</v>
+        <v>-29600</v>
       </c>
       <c r="E94" s="3">
-        <v>-126900</v>
+        <v>-132000</v>
       </c>
       <c r="F94" s="3">
-        <v>-32700</v>
+        <v>-34000</v>
       </c>
       <c r="G94" s="3">
-        <v>-12000</v>
+        <v>-12500</v>
       </c>
       <c r="H94" s="3">
-        <v>-37900</v>
+        <v>-39400</v>
       </c>
       <c r="I94" s="3">
-        <v>-23300</v>
+        <v>-24200</v>
       </c>
       <c r="J94" s="3">
-        <v>-8700</v>
+        <v>-9000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="E100" s="3">
-        <v>-14200</v>
+        <v>-14800</v>
       </c>
       <c r="F100" s="3">
-        <v>24900</v>
+        <v>25900</v>
       </c>
       <c r="G100" s="3">
-        <v>31400</v>
+        <v>32700</v>
       </c>
       <c r="H100" s="3">
-        <v>-12800</v>
+        <v>-13300</v>
       </c>
       <c r="I100" s="3">
-        <v>17700</v>
+        <v>18400</v>
       </c>
       <c r="J100" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4211,19 +4211,19 @@
         <v>1400</v>
       </c>
       <c r="E101" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F101" s="3">
         <v>-300</v>
       </c>
       <c r="G101" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J101" s="3">
         <v>700</v>
@@ -4250,22 +4250,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>110800</v>
+        <v>115300</v>
       </c>
       <c r="E102" s="3">
-        <v>-37500</v>
+        <v>-39000</v>
       </c>
       <c r="F102" s="3">
-        <v>37200</v>
+        <v>38700</v>
       </c>
       <c r="G102" s="3">
-        <v>65700</v>
+        <v>68400</v>
       </c>
       <c r="H102" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="I102" s="3">
-        <v>12700</v>
+        <v>13200</v>
       </c>
       <c r="J102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>812400</v>
+        <v>829800</v>
       </c>
       <c r="E8" s="3">
-        <v>553800</v>
+        <v>565600</v>
       </c>
       <c r="F8" s="3">
-        <v>435500</v>
+        <v>444800</v>
       </c>
       <c r="G8" s="3">
-        <v>357300</v>
+        <v>364900</v>
       </c>
       <c r="H8" s="3">
-        <v>270000</v>
+        <v>275800</v>
       </c>
       <c r="I8" s="3">
-        <v>197700</v>
+        <v>202000</v>
       </c>
       <c r="J8" s="3">
-        <v>143200</v>
+        <v>146300</v>
       </c>
       <c r="K8" s="3">
         <v>99500</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>545600</v>
+        <v>557200</v>
       </c>
       <c r="E9" s="3">
-        <v>366400</v>
+        <v>374200</v>
       </c>
       <c r="F9" s="3">
-        <v>313700</v>
+        <v>320400</v>
       </c>
       <c r="G9" s="3">
-        <v>234600</v>
+        <v>239700</v>
       </c>
       <c r="H9" s="3">
-        <v>180500</v>
+        <v>184300</v>
       </c>
       <c r="I9" s="3">
-        <v>134900</v>
+        <v>137800</v>
       </c>
       <c r="J9" s="3">
-        <v>93100</v>
+        <v>95100</v>
       </c>
       <c r="K9" s="3">
         <v>63200</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>266900</v>
+        <v>272600</v>
       </c>
       <c r="E10" s="3">
-        <v>187400</v>
+        <v>191400</v>
       </c>
       <c r="F10" s="3">
-        <v>121700</v>
+        <v>124300</v>
       </c>
       <c r="G10" s="3">
-        <v>122600</v>
+        <v>125200</v>
       </c>
       <c r="H10" s="3">
-        <v>89500</v>
+        <v>91500</v>
       </c>
       <c r="I10" s="3">
-        <v>62800</v>
+        <v>64100</v>
       </c>
       <c r="J10" s="3">
-        <v>50100</v>
+        <v>51200</v>
       </c>
       <c r="K10" s="3">
         <v>36300</v>
@@ -967,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I14" s="3">
         <v>400</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>694100</v>
+        <v>708900</v>
       </c>
       <c r="E17" s="3">
-        <v>474900</v>
+        <v>485100</v>
       </c>
       <c r="F17" s="3">
-        <v>407300</v>
+        <v>416000</v>
       </c>
       <c r="G17" s="3">
-        <v>316400</v>
+        <v>323100</v>
       </c>
       <c r="H17" s="3">
-        <v>238500</v>
+        <v>243500</v>
       </c>
       <c r="I17" s="3">
-        <v>169100</v>
+        <v>172700</v>
       </c>
       <c r="J17" s="3">
-        <v>118500</v>
+        <v>121000</v>
       </c>
       <c r="K17" s="3">
         <v>79400</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>118400</v>
+        <v>120900</v>
       </c>
       <c r="E18" s="3">
-        <v>78900</v>
+        <v>80500</v>
       </c>
       <c r="F18" s="3">
-        <v>28100</v>
+        <v>28700</v>
       </c>
       <c r="G18" s="3">
-        <v>40900</v>
+        <v>41800</v>
       </c>
       <c r="H18" s="3">
-        <v>31600</v>
+        <v>32200</v>
       </c>
       <c r="I18" s="3">
-        <v>28600</v>
+        <v>29200</v>
       </c>
       <c r="J18" s="3">
-        <v>24700</v>
+        <v>25300</v>
       </c>
       <c r="K18" s="3">
         <v>20100</v>
@@ -1156,16 +1156,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="E20" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="F20" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G20" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H20" s="3">
         <v>-300</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>165300</v>
+        <v>168600</v>
       </c>
       <c r="E21" s="3">
-        <v>98400</v>
+        <v>100300</v>
       </c>
       <c r="F21" s="3">
-        <v>54100</v>
+        <v>55100</v>
       </c>
       <c r="G21" s="3">
-        <v>47600</v>
+        <v>48600</v>
       </c>
       <c r="H21" s="3">
-        <v>39100</v>
+        <v>39900</v>
       </c>
       <c r="I21" s="3">
-        <v>32700</v>
+        <v>33400</v>
       </c>
       <c r="J21" s="3">
-        <v>29600</v>
+        <v>30200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1243,10 +1243,10 @@
         <v>2400</v>
       </c>
       <c r="E22" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F22" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>127000</v>
+        <v>129700</v>
       </c>
       <c r="E23" s="3">
-        <v>67500</v>
+        <v>68900</v>
       </c>
       <c r="F23" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="G23" s="3">
-        <v>37300</v>
+        <v>38100</v>
       </c>
       <c r="H23" s="3">
-        <v>30600</v>
+        <v>31200</v>
       </c>
       <c r="I23" s="3">
-        <v>26900</v>
+        <v>27500</v>
       </c>
       <c r="J23" s="3">
-        <v>25800</v>
+        <v>26400</v>
       </c>
       <c r="K23" s="3">
         <v>18000</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23900</v>
+        <v>24400</v>
       </c>
       <c r="E24" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="F24" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G24" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="H24" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="I24" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="J24" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="K24" s="3">
         <v>2000</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>103100</v>
+        <v>105300</v>
       </c>
       <c r="E26" s="3">
-        <v>53900</v>
+        <v>55100</v>
       </c>
       <c r="F26" s="3">
-        <v>24800</v>
+        <v>25300</v>
       </c>
       <c r="G26" s="3">
-        <v>29800</v>
+        <v>30400</v>
       </c>
       <c r="H26" s="3">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="I26" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="J26" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="K26" s="3">
         <v>16000</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>103100</v>
+        <v>105300</v>
       </c>
       <c r="E27" s="3">
-        <v>53900</v>
+        <v>55100</v>
       </c>
       <c r="F27" s="3">
-        <v>24800</v>
+        <v>25300</v>
       </c>
       <c r="G27" s="3">
-        <v>29800</v>
+        <v>30400</v>
       </c>
       <c r="H27" s="3">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="I27" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="J27" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="K27" s="3">
         <v>16000</v>
@@ -1660,16 +1660,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11100</v>
+        <v>-11300</v>
       </c>
       <c r="E32" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="F32" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="G32" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H32" s="3">
         <v>300</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>103100</v>
+        <v>105300</v>
       </c>
       <c r="E33" s="3">
-        <v>53900</v>
+        <v>55100</v>
       </c>
       <c r="F33" s="3">
-        <v>24800</v>
+        <v>25300</v>
       </c>
       <c r="G33" s="3">
-        <v>29800</v>
+        <v>30400</v>
       </c>
       <c r="H33" s="3">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="I33" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="J33" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="K33" s="3">
         <v>16000</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>103100</v>
+        <v>105300</v>
       </c>
       <c r="E35" s="3">
-        <v>53900</v>
+        <v>55100</v>
       </c>
       <c r="F35" s="3">
-        <v>24800</v>
+        <v>25300</v>
       </c>
       <c r="G35" s="3">
-        <v>29800</v>
+        <v>30400</v>
       </c>
       <c r="H35" s="3">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="I35" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="J35" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="K35" s="3">
         <v>16000</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>202000</v>
+        <v>206300</v>
       </c>
       <c r="E41" s="3">
-        <v>86700</v>
+        <v>88600</v>
       </c>
       <c r="F41" s="3">
-        <v>125700</v>
+        <v>128400</v>
       </c>
       <c r="G41" s="3">
-        <v>87100</v>
+        <v>88900</v>
       </c>
       <c r="H41" s="3">
-        <v>18700</v>
+        <v>19100</v>
       </c>
       <c r="I41" s="3">
-        <v>29200</v>
+        <v>29900</v>
       </c>
       <c r="J41" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="K41" s="3">
         <v>15800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>193700</v>
+        <v>197800</v>
       </c>
       <c r="E43" s="3">
-        <v>140300</v>
+        <v>143300</v>
       </c>
       <c r="F43" s="3">
-        <v>200200</v>
+        <v>204500</v>
       </c>
       <c r="G43" s="3">
-        <v>75700</v>
+        <v>77300</v>
       </c>
       <c r="H43" s="3">
-        <v>60500</v>
+        <v>61800</v>
       </c>
       <c r="I43" s="3">
-        <v>49700</v>
+        <v>50800</v>
       </c>
       <c r="J43" s="3">
-        <v>36100</v>
+        <v>36900</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="E45" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="F45" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="G45" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="H45" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I45" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J45" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>407200</v>
+        <v>415900</v>
       </c>
       <c r="E46" s="3">
-        <v>235400</v>
+        <v>240400</v>
       </c>
       <c r="F46" s="3">
-        <v>232600</v>
+        <v>237600</v>
       </c>
       <c r="G46" s="3">
-        <v>169800</v>
+        <v>173500</v>
       </c>
       <c r="H46" s="3">
-        <v>84500</v>
+        <v>86300</v>
       </c>
       <c r="I46" s="3">
-        <v>81600</v>
+        <v>83400</v>
       </c>
       <c r="J46" s="3">
-        <v>55200</v>
+        <v>56400</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2163,7 +2163,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E47" s="3">
         <v>500</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E48" s="3">
         <v>89400</v>
       </c>
-      <c r="E48" s="3">
-        <v>87500</v>
-      </c>
       <c r="F48" s="3">
-        <v>158500</v>
+        <v>161900</v>
       </c>
       <c r="G48" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="H48" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="I48" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="J48" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>250800</v>
+        <v>256100</v>
       </c>
       <c r="E49" s="3">
-        <v>234000</v>
+        <v>239000</v>
       </c>
       <c r="F49" s="3">
-        <v>159900</v>
+        <v>163300</v>
       </c>
       <c r="G49" s="3">
-        <v>81500</v>
+        <v>83200</v>
       </c>
       <c r="H49" s="3">
-        <v>89200</v>
+        <v>91100</v>
       </c>
       <c r="I49" s="3">
-        <v>40000</v>
+        <v>40800</v>
       </c>
       <c r="J49" s="3">
-        <v>28000</v>
+        <v>28600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2373,19 +2373,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21400</v>
+        <v>21800</v>
       </c>
       <c r="E52" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="F52" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="G52" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="H52" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I52" s="3">
         <v>1100</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>771600</v>
+        <v>788100</v>
       </c>
       <c r="E54" s="3">
-        <v>582000</v>
+        <v>594400</v>
       </c>
       <c r="F54" s="3">
-        <v>442700</v>
+        <v>452200</v>
       </c>
       <c r="G54" s="3">
-        <v>276300</v>
+        <v>282200</v>
       </c>
       <c r="H54" s="3">
-        <v>187400</v>
+        <v>191400</v>
       </c>
       <c r="I54" s="3">
-        <v>132000</v>
+        <v>134800</v>
       </c>
       <c r="J54" s="3">
-        <v>90500</v>
+        <v>92400</v>
       </c>
       <c r="K54" s="3">
         <v>67400</v>
@@ -2535,22 +2535,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="E57" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="F57" s="3">
-        <v>75400</v>
+        <v>77000</v>
       </c>
       <c r="G57" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="H57" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="I57" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J57" s="3">
         <v>1900</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="E58" s="3">
-        <v>16800</v>
+        <v>17200</v>
       </c>
       <c r="F58" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="I58" s="3">
-        <v>36500</v>
+        <v>37300</v>
       </c>
       <c r="J58" s="3">
-        <v>19100</v>
+        <v>19500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>134400</v>
+        <v>137300</v>
       </c>
       <c r="E59" s="3">
-        <v>102000</v>
+        <v>104200</v>
       </c>
       <c r="F59" s="3">
-        <v>78400</v>
+        <v>80100</v>
       </c>
       <c r="G59" s="3">
-        <v>62000</v>
+        <v>63300</v>
       </c>
       <c r="H59" s="3">
-        <v>58200</v>
+        <v>59400</v>
       </c>
       <c r="I59" s="3">
-        <v>26800</v>
+        <v>27400</v>
       </c>
       <c r="J59" s="3">
-        <v>30200</v>
+        <v>30900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>159300</v>
+        <v>162700</v>
       </c>
       <c r="E60" s="3">
-        <v>127500</v>
+        <v>130200</v>
       </c>
       <c r="F60" s="3">
-        <v>94900</v>
+        <v>96900</v>
       </c>
       <c r="G60" s="3">
-        <v>67300</v>
+        <v>68700</v>
       </c>
       <c r="H60" s="3">
-        <v>88300</v>
+        <v>90100</v>
       </c>
       <c r="I60" s="3">
-        <v>67900</v>
+        <v>69400</v>
       </c>
       <c r="J60" s="3">
-        <v>51200</v>
+        <v>52300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2703,13 +2703,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54600</v>
+        <v>55800</v>
       </c>
       <c r="E61" s="3">
-        <v>62200</v>
+        <v>63500</v>
       </c>
       <c r="F61" s="3">
-        <v>52400</v>
+        <v>53500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2745,22 +2745,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="E62" s="3">
-        <v>24400</v>
+        <v>25000</v>
       </c>
       <c r="F62" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="G62" s="3">
         <v>2700</v>
       </c>
       <c r="H62" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="I62" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J62" s="3">
         <v>2200</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>234700</v>
+        <v>239700</v>
       </c>
       <c r="E66" s="3">
-        <v>214200</v>
+        <v>218700</v>
       </c>
       <c r="F66" s="3">
-        <v>154800</v>
+        <v>158100</v>
       </c>
       <c r="G66" s="3">
-        <v>69900</v>
+        <v>71400</v>
       </c>
       <c r="H66" s="3">
-        <v>101100</v>
+        <v>103300</v>
       </c>
       <c r="I66" s="3">
-        <v>71500</v>
+        <v>73100</v>
       </c>
       <c r="J66" s="3">
-        <v>53500</v>
+        <v>54600</v>
       </c>
       <c r="K66" s="3">
         <v>36700</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>524400</v>
+        <v>535500</v>
       </c>
       <c r="E72" s="3">
-        <v>366300</v>
+        <v>374200</v>
       </c>
       <c r="F72" s="3">
-        <v>288000</v>
+        <v>294200</v>
       </c>
       <c r="G72" s="3">
-        <v>185900</v>
+        <v>189900</v>
       </c>
       <c r="H72" s="3">
-        <v>84500</v>
+        <v>86300</v>
       </c>
       <c r="I72" s="3">
-        <v>58700</v>
+        <v>60000</v>
       </c>
       <c r="J72" s="3">
-        <v>33700</v>
+        <v>34400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>536900</v>
+        <v>548400</v>
       </c>
       <c r="E76" s="3">
-        <v>367800</v>
+        <v>375700</v>
       </c>
       <c r="F76" s="3">
-        <v>288000</v>
+        <v>294100</v>
       </c>
       <c r="G76" s="3">
-        <v>206400</v>
+        <v>210800</v>
       </c>
       <c r="H76" s="3">
-        <v>86200</v>
+        <v>88100</v>
       </c>
       <c r="I76" s="3">
-        <v>60500</v>
+        <v>61700</v>
       </c>
       <c r="J76" s="3">
-        <v>37000</v>
+        <v>37800</v>
       </c>
       <c r="K76" s="3">
         <v>30700</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>103100</v>
+        <v>105300</v>
       </c>
       <c r="E81" s="3">
-        <v>53900</v>
+        <v>55100</v>
       </c>
       <c r="F81" s="3">
-        <v>24800</v>
+        <v>25300</v>
       </c>
       <c r="G81" s="3">
-        <v>29800</v>
+        <v>30400</v>
       </c>
       <c r="H81" s="3">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="I81" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="J81" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="K81" s="3">
         <v>16000</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35700</v>
+        <v>36400</v>
       </c>
       <c r="E83" s="3">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="F83" s="3">
-        <v>22600</v>
+        <v>23100</v>
       </c>
       <c r="G83" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="H83" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="I83" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="J83" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>149800</v>
+        <v>153000</v>
       </c>
       <c r="E89" s="3">
-        <v>108800</v>
+        <v>111100</v>
       </c>
       <c r="F89" s="3">
-        <v>47000</v>
+        <v>48000</v>
       </c>
       <c r="G89" s="3">
-        <v>43900</v>
+        <v>44800</v>
       </c>
       <c r="H89" s="3">
-        <v>42200</v>
+        <v>43100</v>
       </c>
       <c r="I89" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="J89" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17300</v>
+        <v>-17700</v>
       </c>
       <c r="E91" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="F91" s="3">
-        <v>-9300</v>
+        <v>-9500</v>
       </c>
       <c r="G91" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="H91" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="I91" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J91" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29600</v>
+        <v>-30300</v>
       </c>
       <c r="E94" s="3">
-        <v>-132000</v>
+        <v>-134900</v>
       </c>
       <c r="F94" s="3">
-        <v>-34000</v>
+        <v>-34700</v>
       </c>
       <c r="G94" s="3">
-        <v>-12500</v>
+        <v>-12700</v>
       </c>
       <c r="H94" s="3">
-        <v>-39400</v>
+        <v>-40300</v>
       </c>
       <c r="I94" s="3">
-        <v>-24200</v>
+        <v>-24700</v>
       </c>
       <c r="J94" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="E100" s="3">
-        <v>-14800</v>
+        <v>-15100</v>
       </c>
       <c r="F100" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="G100" s="3">
-        <v>32700</v>
+        <v>33400</v>
       </c>
       <c r="H100" s="3">
-        <v>-13300</v>
+        <v>-13600</v>
       </c>
       <c r="I100" s="3">
-        <v>18400</v>
+        <v>18800</v>
       </c>
       <c r="J100" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4208,7 +4208,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="3">
         <v>-1000</v>
@@ -4217,7 +4217,7 @@
         <v>-300</v>
       </c>
       <c r="G101" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4250,22 +4250,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>115300</v>
+        <v>117800</v>
       </c>
       <c r="E102" s="3">
-        <v>-39000</v>
+        <v>-39800</v>
       </c>
       <c r="F102" s="3">
-        <v>38700</v>
+        <v>39500</v>
       </c>
       <c r="G102" s="3">
-        <v>68400</v>
+        <v>69900</v>
       </c>
       <c r="H102" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="I102" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="J102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAVA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,52 +665,52 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,39 +720,42 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>829800</v>
+        <v>985900</v>
       </c>
       <c r="E8" s="3">
-        <v>565600</v>
+        <v>812300</v>
       </c>
       <c r="F8" s="3">
-        <v>444800</v>
+        <v>553700</v>
       </c>
       <c r="G8" s="3">
-        <v>364900</v>
+        <v>435400</v>
       </c>
       <c r="H8" s="3">
-        <v>275800</v>
+        <v>357200</v>
       </c>
       <c r="I8" s="3">
-        <v>202000</v>
+        <v>270000</v>
       </c>
       <c r="J8" s="3">
+        <v>197700</v>
+      </c>
+      <c r="K8" s="3">
         <v>146300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>99500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -762,39 +765,42 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>557200</v>
+        <v>668200</v>
       </c>
       <c r="E9" s="3">
-        <v>374200</v>
+        <v>545500</v>
       </c>
       <c r="F9" s="3">
-        <v>320400</v>
+        <v>366300</v>
       </c>
       <c r="G9" s="3">
-        <v>239700</v>
+        <v>313700</v>
       </c>
       <c r="H9" s="3">
-        <v>184300</v>
+        <v>234600</v>
       </c>
       <c r="I9" s="3">
-        <v>137800</v>
+        <v>180400</v>
       </c>
       <c r="J9" s="3">
+        <v>134900</v>
+      </c>
+      <c r="K9" s="3">
         <v>95100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -804,39 +810,42 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>272600</v>
+        <v>317700</v>
       </c>
       <c r="E10" s="3">
-        <v>191400</v>
+        <v>266800</v>
       </c>
       <c r="F10" s="3">
-        <v>124300</v>
+        <v>187400</v>
       </c>
       <c r="G10" s="3">
-        <v>125200</v>
+        <v>121700</v>
       </c>
       <c r="H10" s="3">
-        <v>91500</v>
+        <v>122600</v>
       </c>
       <c r="I10" s="3">
-        <v>64100</v>
+        <v>89500</v>
       </c>
       <c r="J10" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K10" s="3">
         <v>51200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,9 +855,12 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +877,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,9 +919,12 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,33 +964,36 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1600</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -990,9 +1009,12 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,9 +1054,12 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,38 +1073,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>708900</v>
+        <v>846000</v>
       </c>
       <c r="E17" s="3">
-        <v>485100</v>
+        <v>694000</v>
       </c>
       <c r="F17" s="3">
-        <v>416000</v>
+        <v>474800</v>
       </c>
       <c r="G17" s="3">
-        <v>323100</v>
+        <v>407300</v>
       </c>
       <c r="H17" s="3">
-        <v>243500</v>
+        <v>316300</v>
       </c>
       <c r="I17" s="3">
-        <v>172700</v>
+        <v>238400</v>
       </c>
       <c r="J17" s="3">
+        <v>169100</v>
+      </c>
+      <c r="K17" s="3">
         <v>121000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>79400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1089,39 +1115,42 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>120900</v>
+        <v>140000</v>
       </c>
       <c r="E18" s="3">
-        <v>80500</v>
+        <v>118300</v>
       </c>
       <c r="F18" s="3">
-        <v>28700</v>
+        <v>78800</v>
       </c>
       <c r="G18" s="3">
-        <v>41800</v>
+        <v>28100</v>
       </c>
       <c r="H18" s="3">
-        <v>32200</v>
+        <v>40900</v>
       </c>
       <c r="I18" s="3">
-        <v>29200</v>
+        <v>31600</v>
       </c>
       <c r="J18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K18" s="3">
         <v>25300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1131,9 +1160,12 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1150,38 +1182,39 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11300</v>
+        <v>5900</v>
       </c>
       <c r="E20" s="3">
-        <v>-9100</v>
+        <v>11100</v>
       </c>
       <c r="F20" s="3">
-        <v>3300</v>
+        <v>-8900</v>
       </c>
       <c r="G20" s="3">
-        <v>-3200</v>
+        <v>3200</v>
       </c>
       <c r="H20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,36 +1224,39 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>168600</v>
+        <v>186900</v>
       </c>
       <c r="E21" s="3">
-        <v>100300</v>
+        <v>165100</v>
       </c>
       <c r="F21" s="3">
-        <v>55100</v>
+        <v>98200</v>
       </c>
       <c r="G21" s="3">
-        <v>48600</v>
+        <v>54000</v>
       </c>
       <c r="H21" s="3">
-        <v>39900</v>
+        <v>47600</v>
       </c>
       <c r="I21" s="3">
-        <v>33400</v>
+        <v>39100</v>
       </c>
       <c r="J21" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K21" s="3">
         <v>30200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,36 +1269,39 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2400</v>
       </c>
-      <c r="E22" s="3">
-        <v>2600</v>
-      </c>
       <c r="F22" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1275,39 +1314,42 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>129700</v>
+        <v>141600</v>
       </c>
       <c r="E23" s="3">
-        <v>68900</v>
+        <v>127000</v>
       </c>
       <c r="F23" s="3">
-        <v>29600</v>
+        <v>67400</v>
       </c>
       <c r="G23" s="3">
-        <v>38100</v>
+        <v>29000</v>
       </c>
       <c r="H23" s="3">
-        <v>31200</v>
+        <v>37300</v>
       </c>
       <c r="I23" s="3">
-        <v>27500</v>
+        <v>30600</v>
       </c>
       <c r="J23" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K23" s="3">
         <v>26400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,39 +1359,42 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24400</v>
+        <v>24800</v>
       </c>
       <c r="E24" s="3">
-        <v>13800</v>
+        <v>23900</v>
       </c>
       <c r="F24" s="3">
-        <v>4300</v>
+        <v>13500</v>
       </c>
       <c r="G24" s="3">
-        <v>7700</v>
+        <v>4200</v>
       </c>
       <c r="H24" s="3">
-        <v>7200</v>
+        <v>7600</v>
       </c>
       <c r="I24" s="3">
-        <v>6200</v>
+        <v>7000</v>
       </c>
       <c r="J24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K24" s="3">
         <v>5200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1359,9 +1404,12 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1401,39 +1449,42 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>105300</v>
+        <v>116800</v>
       </c>
       <c r="E26" s="3">
-        <v>55100</v>
+        <v>103100</v>
       </c>
       <c r="F26" s="3">
-        <v>25300</v>
+        <v>53900</v>
       </c>
       <c r="G26" s="3">
-        <v>30400</v>
+        <v>24800</v>
       </c>
       <c r="H26" s="3">
-        <v>24000</v>
+        <v>29800</v>
       </c>
       <c r="I26" s="3">
-        <v>21300</v>
+        <v>23500</v>
       </c>
       <c r="J26" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K26" s="3">
         <v>21200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,39 +1494,42 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>105300</v>
+        <v>116800</v>
       </c>
       <c r="E27" s="3">
-        <v>55100</v>
+        <v>103100</v>
       </c>
       <c r="F27" s="3">
-        <v>25300</v>
+        <v>53900</v>
       </c>
       <c r="G27" s="3">
-        <v>30400</v>
+        <v>24800</v>
       </c>
       <c r="H27" s="3">
-        <v>24000</v>
+        <v>29800</v>
       </c>
       <c r="I27" s="3">
-        <v>21300</v>
+        <v>23500</v>
       </c>
       <c r="J27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K27" s="3">
         <v>21200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1485,9 +1539,12 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1527,9 +1584,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1569,9 +1629,12 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1611,9 +1674,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1653,39 +1719,42 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11300</v>
+        <v>-5900</v>
       </c>
       <c r="E32" s="3">
-        <v>9100</v>
+        <v>-11100</v>
       </c>
       <c r="F32" s="3">
-        <v>-3300</v>
+        <v>8900</v>
       </c>
       <c r="G32" s="3">
-        <v>3200</v>
+        <v>-3200</v>
       </c>
       <c r="H32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1695,39 +1764,42 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>105300</v>
+        <v>116800</v>
       </c>
       <c r="E33" s="3">
-        <v>55100</v>
+        <v>103100</v>
       </c>
       <c r="F33" s="3">
-        <v>25300</v>
+        <v>53900</v>
       </c>
       <c r="G33" s="3">
-        <v>30400</v>
+        <v>24800</v>
       </c>
       <c r="H33" s="3">
-        <v>24000</v>
+        <v>29800</v>
       </c>
       <c r="I33" s="3">
-        <v>21300</v>
+        <v>23500</v>
       </c>
       <c r="J33" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K33" s="3">
         <v>21200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,9 +1809,12 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1779,39 +1854,42 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>105300</v>
+        <v>116800</v>
       </c>
       <c r="E35" s="3">
-        <v>55100</v>
+        <v>103100</v>
       </c>
       <c r="F35" s="3">
-        <v>25300</v>
+        <v>53900</v>
       </c>
       <c r="G35" s="3">
-        <v>30400</v>
+        <v>24800</v>
       </c>
       <c r="H35" s="3">
-        <v>24000</v>
+        <v>29800</v>
       </c>
       <c r="I35" s="3">
-        <v>21300</v>
+        <v>23500</v>
       </c>
       <c r="J35" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K35" s="3">
         <v>21200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,44 +1899,47 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1868,9 +1949,12 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1887,8 +1971,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1905,38 +1990,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>206300</v>
+        <v>204300</v>
       </c>
       <c r="E41" s="3">
-        <v>88600</v>
+        <v>202000</v>
       </c>
       <c r="F41" s="3">
-        <v>128400</v>
+        <v>86700</v>
       </c>
       <c r="G41" s="3">
-        <v>88900</v>
+        <v>125700</v>
       </c>
       <c r="H41" s="3">
-        <v>19100</v>
+        <v>87100</v>
       </c>
       <c r="I41" s="3">
-        <v>29900</v>
+        <v>18700</v>
       </c>
       <c r="J41" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K41" s="3">
         <v>16400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,23 +2032,26 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>500</v>
-      </c>
-      <c r="E42" s="3">
-        <v>700</v>
       </c>
       <c r="F42" s="3">
         <v>700</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3">
+        <v>700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1979,8 +2068,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1988,36 +2077,39 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>197800</v>
+        <v>212000</v>
       </c>
       <c r="E43" s="3">
-        <v>143300</v>
+        <v>193700</v>
       </c>
       <c r="F43" s="3">
-        <v>204500</v>
+        <v>140300</v>
       </c>
       <c r="G43" s="3">
-        <v>77300</v>
+        <v>200200</v>
       </c>
       <c r="H43" s="3">
-        <v>61800</v>
+        <v>75600</v>
       </c>
       <c r="I43" s="3">
-        <v>50800</v>
+        <v>60500</v>
       </c>
       <c r="J43" s="3">
+        <v>49700</v>
+      </c>
+      <c r="K43" s="3">
         <v>36900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2030,9 +2122,12 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2048,18 +2143,18 @@
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2072,36 +2167,39 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11200</v>
+        <v>13700</v>
       </c>
       <c r="E45" s="3">
-        <v>7800</v>
+        <v>11000</v>
       </c>
       <c r="F45" s="3">
-        <v>8600</v>
+        <v>7600</v>
       </c>
       <c r="G45" s="3">
-        <v>7300</v>
+        <v>8400</v>
       </c>
       <c r="H45" s="3">
-        <v>5400</v>
+        <v>7100</v>
       </c>
       <c r="I45" s="3">
-        <v>2700</v>
+        <v>5300</v>
       </c>
       <c r="J45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2114,36 +2212,39 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>415900</v>
+        <v>430100</v>
       </c>
       <c r="E46" s="3">
-        <v>240400</v>
+        <v>407100</v>
       </c>
       <c r="F46" s="3">
-        <v>237600</v>
+        <v>235300</v>
       </c>
       <c r="G46" s="3">
-        <v>173500</v>
+        <v>232500</v>
       </c>
       <c r="H46" s="3">
-        <v>86300</v>
+        <v>169800</v>
       </c>
       <c r="I46" s="3">
-        <v>83400</v>
+        <v>84500</v>
       </c>
       <c r="J46" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K46" s="3">
         <v>56400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2156,26 +2257,29 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2900</v>
+        <v>6500</v>
       </c>
       <c r="E47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2183,8 +2287,8 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2198,36 +2302,39 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>91300</v>
+        <v>112900</v>
       </c>
       <c r="E48" s="3">
         <v>89400</v>
       </c>
       <c r="F48" s="3">
-        <v>161900</v>
+        <v>87500</v>
       </c>
       <c r="G48" s="3">
-        <v>13400</v>
+        <v>158500</v>
       </c>
       <c r="H48" s="3">
-        <v>10900</v>
+        <v>13100</v>
       </c>
       <c r="I48" s="3">
-        <v>9500</v>
+        <v>10600</v>
       </c>
       <c r="J48" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,36 +2347,39 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>256100</v>
+        <v>380900</v>
       </c>
       <c r="E49" s="3">
-        <v>239000</v>
+        <v>250700</v>
       </c>
       <c r="F49" s="3">
-        <v>163300</v>
+        <v>234000</v>
       </c>
       <c r="G49" s="3">
-        <v>83200</v>
+        <v>159900</v>
       </c>
       <c r="H49" s="3">
-        <v>91100</v>
+        <v>81500</v>
       </c>
       <c r="I49" s="3">
-        <v>40800</v>
+        <v>89100</v>
       </c>
       <c r="J49" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K49" s="3">
         <v>28600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2282,9 +2392,12 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2324,9 +2437,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2366,36 +2482,39 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21800</v>
+        <v>25000</v>
       </c>
       <c r="E52" s="3">
-        <v>25400</v>
+        <v>21400</v>
       </c>
       <c r="F52" s="3">
-        <v>18700</v>
+        <v>24900</v>
       </c>
       <c r="G52" s="3">
-        <v>12100</v>
+        <v>18300</v>
       </c>
       <c r="H52" s="3">
-        <v>3200</v>
+        <v>11800</v>
       </c>
       <c r="I52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2408,9 +2527,12 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2450,39 +2572,42 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>788100</v>
+        <v>955400</v>
       </c>
       <c r="E54" s="3">
-        <v>594400</v>
+        <v>771500</v>
       </c>
       <c r="F54" s="3">
-        <v>452200</v>
+        <v>581900</v>
       </c>
       <c r="G54" s="3">
-        <v>282200</v>
+        <v>442700</v>
       </c>
       <c r="H54" s="3">
-        <v>191400</v>
+        <v>276300</v>
       </c>
       <c r="I54" s="3">
-        <v>134800</v>
+        <v>187300</v>
       </c>
       <c r="J54" s="3">
+        <v>132000</v>
+      </c>
+      <c r="K54" s="3">
         <v>92400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,9 +2617,12 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2511,8 +2639,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2529,35 +2658,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10400</v>
+        <v>6800</v>
       </c>
       <c r="E57" s="3">
-        <v>8900</v>
+        <v>10200</v>
       </c>
       <c r="F57" s="3">
-        <v>77000</v>
+        <v>8700</v>
       </c>
       <c r="G57" s="3">
-        <v>5300</v>
+        <v>75400</v>
       </c>
       <c r="H57" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="I57" s="3">
-        <v>4700</v>
+        <v>5600</v>
       </c>
       <c r="J57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,36 +2700,39 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15100</v>
+        <v>18100</v>
       </c>
       <c r="E58" s="3">
-        <v>17200</v>
+        <v>14800</v>
       </c>
       <c r="F58" s="3">
-        <v>14100</v>
+        <v>16800</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="H58" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>37300</v>
+        <v>24500</v>
       </c>
       <c r="J58" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K58" s="3">
         <v>19500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,36 +2745,39 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>137300</v>
+        <v>124700</v>
       </c>
       <c r="E59" s="3">
-        <v>104200</v>
+        <v>134400</v>
       </c>
       <c r="F59" s="3">
-        <v>80100</v>
+        <v>102000</v>
       </c>
       <c r="G59" s="3">
-        <v>63300</v>
+        <v>78400</v>
       </c>
       <c r="H59" s="3">
-        <v>59400</v>
+        <v>62000</v>
       </c>
       <c r="I59" s="3">
-        <v>27400</v>
+        <v>58200</v>
       </c>
       <c r="J59" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K59" s="3">
         <v>30900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2654,36 +2790,39 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>162700</v>
+        <v>149600</v>
       </c>
       <c r="E60" s="3">
-        <v>130200</v>
+        <v>159300</v>
       </c>
       <c r="F60" s="3">
-        <v>96900</v>
+        <v>127500</v>
       </c>
       <c r="G60" s="3">
-        <v>68700</v>
+        <v>94900</v>
       </c>
       <c r="H60" s="3">
-        <v>90100</v>
+        <v>67200</v>
       </c>
       <c r="I60" s="3">
-        <v>69400</v>
+        <v>88300</v>
       </c>
       <c r="J60" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K60" s="3">
         <v>52300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2696,33 +2835,36 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55800</v>
+        <v>67500</v>
       </c>
       <c r="E61" s="3">
-        <v>63500</v>
+        <v>54600</v>
       </c>
       <c r="F61" s="3">
-        <v>53500</v>
+        <v>62200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>52400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2738,36 +2880,39 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21200</v>
+        <v>29500</v>
       </c>
       <c r="E62" s="3">
-        <v>25000</v>
+        <v>20700</v>
       </c>
       <c r="F62" s="3">
-        <v>7600</v>
+        <v>24400</v>
       </c>
       <c r="G62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
-        <v>13100</v>
-      </c>
       <c r="I62" s="3">
-        <v>3600</v>
+        <v>12900</v>
       </c>
       <c r="J62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2780,9 +2925,12 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2822,9 +2970,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2864,9 +3015,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2906,39 +3060,42 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>239700</v>
+        <v>246600</v>
       </c>
       <c r="E66" s="3">
-        <v>218700</v>
+        <v>234600</v>
       </c>
       <c r="F66" s="3">
-        <v>158100</v>
+        <v>214100</v>
       </c>
       <c r="G66" s="3">
-        <v>71400</v>
+        <v>154700</v>
       </c>
       <c r="H66" s="3">
-        <v>103300</v>
+        <v>69900</v>
       </c>
       <c r="I66" s="3">
-        <v>73100</v>
+        <v>101100</v>
       </c>
       <c r="J66" s="3">
+        <v>71500</v>
+      </c>
+      <c r="K66" s="3">
         <v>54600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2948,9 +3105,12 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2967,8 +3127,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3008,9 +3169,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3050,9 +3214,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3092,9 +3259,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3134,36 +3304,39 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>535500</v>
+        <v>689200</v>
       </c>
       <c r="E72" s="3">
-        <v>374200</v>
+        <v>524300</v>
       </c>
       <c r="F72" s="3">
-        <v>294200</v>
+        <v>366300</v>
       </c>
       <c r="G72" s="3">
-        <v>189900</v>
+        <v>288000</v>
       </c>
       <c r="H72" s="3">
-        <v>86300</v>
+        <v>185900</v>
       </c>
       <c r="I72" s="3">
-        <v>60000</v>
+        <v>84500</v>
       </c>
       <c r="J72" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K72" s="3">
         <v>34400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,9 +3349,12 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3218,9 +3394,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3260,9 +3439,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3302,39 +3484,42 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>548400</v>
+        <v>708800</v>
       </c>
       <c r="E76" s="3">
-        <v>375700</v>
+        <v>536800</v>
       </c>
       <c r="F76" s="3">
-        <v>294100</v>
+        <v>367800</v>
       </c>
       <c r="G76" s="3">
-        <v>210800</v>
+        <v>287900</v>
       </c>
       <c r="H76" s="3">
-        <v>88100</v>
+        <v>206300</v>
       </c>
       <c r="I76" s="3">
-        <v>61700</v>
+        <v>86200</v>
       </c>
       <c r="J76" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K76" s="3">
         <v>37800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3344,9 +3529,12 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3386,44 +3574,47 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3433,39 +3624,42 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>105300</v>
+        <v>116800</v>
       </c>
       <c r="E81" s="3">
-        <v>55100</v>
+        <v>103100</v>
       </c>
       <c r="F81" s="3">
-        <v>25300</v>
+        <v>53900</v>
       </c>
       <c r="G81" s="3">
-        <v>30400</v>
+        <v>24800</v>
       </c>
       <c r="H81" s="3">
-        <v>24000</v>
+        <v>29800</v>
       </c>
       <c r="I81" s="3">
-        <v>21300</v>
+        <v>23500</v>
       </c>
       <c r="J81" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K81" s="3">
         <v>21200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,9 +3669,12 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3494,35 +3691,36 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>36400</v>
+        <v>41000</v>
       </c>
       <c r="E83" s="3">
-        <v>28800</v>
+        <v>35700</v>
       </c>
       <c r="F83" s="3">
-        <v>23100</v>
+        <v>28200</v>
       </c>
       <c r="G83" s="3">
-        <v>10000</v>
+        <v>22600</v>
       </c>
       <c r="H83" s="3">
-        <v>7900</v>
+        <v>9800</v>
       </c>
       <c r="I83" s="3">
-        <v>5500</v>
+        <v>7800</v>
       </c>
       <c r="J83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K83" s="3">
         <v>3700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3535,9 +3733,12 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3577,9 +3778,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3619,9 +3823,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3661,9 +3868,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3703,9 +3913,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3745,36 +3958,39 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>153000</v>
+        <v>154500</v>
       </c>
       <c r="E89" s="3">
-        <v>111100</v>
+        <v>149800</v>
       </c>
       <c r="F89" s="3">
-        <v>48000</v>
+        <v>108800</v>
       </c>
       <c r="G89" s="3">
-        <v>44800</v>
+        <v>47000</v>
       </c>
       <c r="H89" s="3">
-        <v>43100</v>
+        <v>43900</v>
       </c>
       <c r="I89" s="3">
-        <v>18700</v>
+        <v>42200</v>
       </c>
       <c r="J89" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K89" s="3">
         <v>13800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3787,9 +4003,12 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3806,35 +4025,36 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17700</v>
+        <v>-17000</v>
       </c>
       <c r="E91" s="3">
-        <v>-6900</v>
+        <v>-17300</v>
       </c>
       <c r="F91" s="3">
-        <v>-9500</v>
+        <v>-6700</v>
       </c>
       <c r="G91" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="H91" s="3">
-        <v>-6900</v>
+        <v>-9200</v>
       </c>
       <c r="I91" s="3">
-        <v>-8200</v>
+        <v>-6800</v>
       </c>
       <c r="J91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3847,9 +4067,12 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3889,9 +4112,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3931,36 +4157,39 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30300</v>
+        <v>-137500</v>
       </c>
       <c r="E94" s="3">
-        <v>-134900</v>
+        <v>-29600</v>
       </c>
       <c r="F94" s="3">
-        <v>-34700</v>
+        <v>-132000</v>
       </c>
       <c r="G94" s="3">
-        <v>-12700</v>
+        <v>-34000</v>
       </c>
       <c r="H94" s="3">
-        <v>-40300</v>
+        <v>-12500</v>
       </c>
       <c r="I94" s="3">
-        <v>-24700</v>
+        <v>-39400</v>
       </c>
       <c r="J94" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3973,9 +4202,12 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3992,8 +4224,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4033,9 +4266,12 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4075,9 +4311,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4117,9 +4356,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4159,36 +4401,39 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6400</v>
+        <v>-13600</v>
       </c>
       <c r="E100" s="3">
-        <v>-15100</v>
+        <v>-6300</v>
       </c>
       <c r="F100" s="3">
-        <v>26500</v>
+        <v>-14800</v>
       </c>
       <c r="G100" s="3">
-        <v>33400</v>
+        <v>25900</v>
       </c>
       <c r="H100" s="3">
-        <v>-13600</v>
+        <v>32700</v>
       </c>
       <c r="I100" s="3">
-        <v>18800</v>
+        <v>-13300</v>
       </c>
       <c r="J100" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,35 +4446,38 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1500</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>4400</v>
-      </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="I101" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>700</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4243,36 +4491,39 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>117800</v>
+        <v>2400</v>
       </c>
       <c r="E102" s="3">
-        <v>-39800</v>
+        <v>115300</v>
       </c>
       <c r="F102" s="3">
-        <v>39500</v>
+        <v>-39000</v>
       </c>
       <c r="G102" s="3">
-        <v>69900</v>
+        <v>38700</v>
       </c>
       <c r="H102" s="3">
-        <v>-10800</v>
+        <v>68400</v>
       </c>
       <c r="I102" s="3">
-        <v>13500</v>
+        <v>-10600</v>
       </c>
       <c r="J102" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4285,7 +4536,10 @@
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
